--- a/01_Projektmanagement/Zeiterfassung.xlsx
+++ b/01_Projektmanagement/Zeiterfassung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Zeiterfassung SAI17 - Gesamtüberblick</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Zeiterfassung SAI17 - Phase Kickoff : Woche 1</t>
+  </si>
+  <si>
+    <t>JARTA: Codeanalyse</t>
   </si>
 </sst>
 </file>
@@ -246,22 +249,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,14 +276,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:N35"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,332 +611,332 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -954,289 +957,309 @@
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10" t="s">
+      <c r="I41" s="12"/>
+      <c r="J41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K41" s="10"/>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="12"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="8">
+        <v>1</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="12"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="12"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="12"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="12"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="8">
+        <v>3</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="12"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="8">
+        <v>3</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="8">
+        <v>3</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="12"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="12"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="8">
+        <v>1</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="12"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="12"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="12"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="12"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="12"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="12"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="12"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="12"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="12"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E61" s="13" t="s">
@@ -1244,31 +1267,146 @@
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="16">
+      <c r="H61" s="7">
         <f>SUM(H42:I59)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16">
+        <v>13.5</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7">
         <f>SUM(J42:K59)</f>
         <v>0</v>
       </c>
-      <c r="K61" s="16"/>
+      <c r="K61" s="7"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7">
         <f>SUM(H61,J61)</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="16"/>
+        <v>13.5</v>
+      </c>
+      <c r="I63" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="139">
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A34:N35"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H54:I54"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="H42:I42"/>
@@ -1293,121 +1431,6 @@
     <mergeCell ref="A57:G57"/>
     <mergeCell ref="A58:G58"/>
     <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="A34:N35"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/01_Projektmanagement/Zeiterfassung.xlsx
+++ b/01_Projektmanagement/Zeiterfassung.xlsx
@@ -249,22 +249,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,14 +276,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:I47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,332 +611,332 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -957,309 +957,309 @@
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12" t="s">
+      <c r="I41" s="10"/>
+      <c r="J41" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K41" s="12"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="8">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="11">
         <v>1</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="9"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="8">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="11">
         <v>0.25</v>
       </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="9"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="9"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="11">
+        <v>2</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="8">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="11">
         <v>0.5</v>
       </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="9"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="8">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="11">
         <v>0.25</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="9"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="8">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="11">
         <v>3</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="8">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="11">
         <v>3</v>
       </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="9"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="8">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="11">
         <v>3</v>
       </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="9"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="8">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="11">
         <v>1</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="9"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="9"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="9"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="9"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="9"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="9"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="9"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="9"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="9"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="9"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E61" s="13" t="s">
@@ -1267,31 +1267,146 @@
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="7">
+      <c r="H61" s="16">
         <f>SUM(H42:I59)</f>
-        <v>13.5</v>
-      </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7">
+        <v>14</v>
+      </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16">
         <f>SUM(J42:K59)</f>
         <v>0</v>
       </c>
-      <c r="K61" s="7"/>
+      <c r="K61" s="16"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7">
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16">
         <f>SUM(H61,J61)</f>
-        <v>13.5</v>
-      </c>
-      <c r="I63" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I63" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="139">
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="H38:I38"/>
@@ -1316,121 +1431,6 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/01_Projektmanagement/Zeiterfassung.xlsx
+++ b/01_Projektmanagement/Zeiterfassung.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>Zeiterfassung SAI17 - Gesamtüberblick</t>
   </si>
   <si>
-    <t>Woche</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Geleistete Zeit pro Person</t>
-  </si>
-  <si>
     <t>Zube einrichten</t>
   </si>
   <si>
@@ -92,10 +86,109 @@
     <t>Feinplanung nächste Phase</t>
   </si>
   <si>
-    <t>Zeiterfassung SAI17 - Phase Kickoff : Woche 1</t>
-  </si>
-  <si>
     <t>JARTA: Codeanalyse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeiterfassung SAI17 - Phase Kickoff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeiterfassung SAI17 - Phase Recherche </t>
+  </si>
+  <si>
+    <t>Rechercheunterstützung HSR-Bibliothek</t>
+  </si>
+  <si>
+    <t>Analyse ARTA-Prozess</t>
+  </si>
+  <si>
+    <t>Dokumentation: ARTA, Zusammenfassung</t>
+  </si>
+  <si>
+    <t>Analyse JARTA</t>
+  </si>
+  <si>
+    <t>Code-Analyse JARTA</t>
+  </si>
+  <si>
+    <t>Dokumentation: JARTA &amp; Code Spezifikation</t>
+  </si>
+  <si>
+    <t>Refresher Simio Grundlagen</t>
+  </si>
+  <si>
+    <t>Recherche Simio: Einbinden einer Libary</t>
+  </si>
+  <si>
+    <t>Dokumentation: Planung - Umsetzung JARTA in c#</t>
+  </si>
+  <si>
+    <t>Dokumentation: Planung - Umsetzung ARTA # in Simio</t>
+  </si>
+  <si>
+    <t>Erfahrungsbericht und Zeiterfassung nachführen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeiterfassung SAI17 - Phase Implementation </t>
+  </si>
+  <si>
+    <t>Planung der Implementation</t>
+  </si>
+  <si>
+    <t>Implementation: Integration ARTA # in Simio</t>
+  </si>
+  <si>
+    <t>Implementation: Testing</t>
+  </si>
+  <si>
+    <t>Code Reviews</t>
+  </si>
+  <si>
+    <t>Implementation: JARTA in c#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeiterfassung SAI17 - Phase Simulation </t>
+  </si>
+  <si>
+    <t>Simulationsumgebung aufsetzen</t>
+  </si>
+  <si>
+    <t>Simulation &amp; Datensammlung</t>
+  </si>
+  <si>
+    <t>Erfahrungsbreicht und Zeiterfassung nachführen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeiterfassung SAI17 - Phase Auswertung </t>
+  </si>
+  <si>
+    <t>Auswertung der Daten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeiterfassung SAI17 - Phase Abgabe </t>
+  </si>
+  <si>
+    <t>Kickoff</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Auswertung</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>Geleistete Zeit Delay</t>
+  </si>
+  <si>
+    <t>Geleistete Zeit Bütikofer</t>
   </si>
 </sst>
 </file>
@@ -241,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -283,6 +376,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -599,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N228"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45:I45"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,51 +750,72 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <f>SUM(H42:I59)</f>
+        <v>14.75</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9">
+        <f>SUM(J42:K59)</f>
+        <v>0</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9">
+        <f>SUM(H61,J61)</f>
+        <v>14.75</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <f>SUM(H75:I92)</f>
+        <v>0</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9">
+        <f>SUM(H94,J94)</f>
+        <v>0</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -709,7 +829,9 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -723,7 +845,9 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -737,7 +861,9 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -751,141 +877,141 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -900,13 +1026,10 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -940,7 +1063,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -955,17 +1078,17 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -974,7 +1097,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -983,17 +1106,17 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -1010,7 +1133,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -1027,7 +1150,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -1044,7 +1167,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -1061,7 +1184,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -1070,7 +1193,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="11">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="11"/>
@@ -1078,7 +1201,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -1095,7 +1218,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -1112,7 +1235,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -1129,7 +1252,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -1263,13 +1386,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E61" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="16">
         <f>SUM(H42:I59)</f>
-        <v>14</v>
+        <v>14.75</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16">
@@ -1280,18 +1403,2172 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16">
         <f>SUM(H61,J61)</f>
-        <v>14</v>
+        <v>14.75</v>
       </c>
       <c r="I63" s="16"/>
     </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="12"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="12"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="12"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="12"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="12"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="12"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="12"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="12"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="12"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="12"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="12"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="12"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="12"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="12"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="12"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="12"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="12"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="12"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E94" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="14"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="16">
+        <f>SUM(H75:I92)</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16">
+        <f>SUM(J75:K92)</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="16"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16">
+        <f>SUM(H94,J94)</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="10"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="12"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="12"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="12"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="12"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="12"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="12"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="12"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="18"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="12"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="18"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="12"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="18"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="12"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="18"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="12"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="18"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="12"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="12"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="12"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="12"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="12"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="17"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="12"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="17"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="12"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E127" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="14"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="16">
+        <f>SUM(H108:I125)</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16">
+        <f>SUM(J108:K125)</f>
+        <v>0</v>
+      </c>
+      <c r="K127" s="16"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E129" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16">
+        <f>SUM(H127,J127)</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="16"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K140" s="10"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="12"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="18"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="12"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="18"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="12"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="12"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="18"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="12"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="18"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="12"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="18"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="12"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="18"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="12"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="12"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="18"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="12"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="18"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="12"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="18"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="12"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="17"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="12"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="17"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="12"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="17"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="12"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="17"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="12"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="12"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="12"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E160" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="14"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="16">
+        <f>SUM(H141:I158)</f>
+        <v>0</v>
+      </c>
+      <c r="I160" s="16"/>
+      <c r="J160" s="16">
+        <f>SUM(J141:K158)</f>
+        <v>0</v>
+      </c>
+      <c r="K160" s="16"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E162" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16">
+        <f>SUM(H160,J160)</f>
+        <v>0</v>
+      </c>
+      <c r="I162" s="16"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="8"/>
+      <c r="N166" s="8"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="8"/>
+      <c r="N167" s="8"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="10"/>
+      <c r="J173" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K173" s="10"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="12"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="18"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="12"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="18"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="12"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="18"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="12"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="18"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="12"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="18"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="12"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="18"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="12"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="18"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="12"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="18"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="12"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="18"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="12"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="18"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="12"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="18"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="12"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="17"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="12"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="17"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="12"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="17"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="12"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="17"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="12"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B190" s="17"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="12"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" s="17"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="12"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E193" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193" s="14"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="16">
+        <f>SUM(H174:I191)</f>
+        <v>0</v>
+      </c>
+      <c r="I193" s="16"/>
+      <c r="J193" s="16">
+        <f>SUM(J174:K191)</f>
+        <v>0</v>
+      </c>
+      <c r="K193" s="16"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E195" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="16">
+        <f>SUM(H193,J193)</f>
+        <v>0</v>
+      </c>
+      <c r="I195" s="16"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="8"/>
+      <c r="J199" s="8"/>
+      <c r="K199" s="8"/>
+      <c r="L199" s="8"/>
+      <c r="M199" s="8"/>
+      <c r="N199" s="8"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="8"/>
+      <c r="J200" s="8"/>
+      <c r="K200" s="8"/>
+      <c r="L200" s="8"/>
+      <c r="M200" s="8"/>
+      <c r="N200" s="8"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H203" s="7"/>
+      <c r="I203" s="7"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I206" s="10"/>
+      <c r="J206" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K206" s="10"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207" s="18"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="12"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" s="18"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="17"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="12"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="18"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="17"/>
+      <c r="D209" s="17"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="17"/>
+      <c r="G209" s="17"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="12"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="12"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="18"/>
+      <c r="B210" s="17"/>
+      <c r="C210" s="17"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="17"/>
+      <c r="G210" s="17"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="12"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="18"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="17"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="12"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="18"/>
+      <c r="B212" s="17"/>
+      <c r="C212" s="17"/>
+      <c r="D212" s="17"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="17"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="12"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="18"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="17"/>
+      <c r="D213" s="17"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="12"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="18"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
+      <c r="D214" s="17"/>
+      <c r="E214" s="17"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="17"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="11"/>
+      <c r="K214" s="12"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="18"/>
+      <c r="B215" s="17"/>
+      <c r="C215" s="17"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="17"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="12"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="12"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="18"/>
+      <c r="B216" s="17"/>
+      <c r="C216" s="17"/>
+      <c r="D216" s="17"/>
+      <c r="E216" s="17"/>
+      <c r="F216" s="17"/>
+      <c r="G216" s="17"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="12"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="12"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="18"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="17"/>
+      <c r="D217" s="17"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="12"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="18"/>
+      <c r="B218" s="17"/>
+      <c r="C218" s="17"/>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="12"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="17"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="17"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="12"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="12"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="17"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="17"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="12"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="17"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="17"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="12"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="17"/>
+      <c r="B222" s="17"/>
+      <c r="C222" s="17"/>
+      <c r="D222" s="17"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="17"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="12"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="12"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B223" s="17"/>
+      <c r="C223" s="17"/>
+      <c r="D223" s="17"/>
+      <c r="E223" s="17"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="17"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="12"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="12"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="18"/>
+      <c r="B224" s="17"/>
+      <c r="C224" s="17"/>
+      <c r="D224" s="17"/>
+      <c r="E224" s="17"/>
+      <c r="F224" s="17"/>
+      <c r="G224" s="17"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="12"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="12"/>
+    </row>
+    <row r="226" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E226" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F226" s="14"/>
+      <c r="G226" s="15"/>
+      <c r="H226" s="16">
+        <f>SUM(H207:I224)</f>
+        <v>0</v>
+      </c>
+      <c r="I226" s="16"/>
+      <c r="J226" s="16">
+        <f>SUM(J207:K224)</f>
+        <v>0</v>
+      </c>
+      <c r="K226" s="16"/>
+    </row>
+    <row r="228" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E228" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" s="16"/>
+      <c r="G228" s="16"/>
+      <c r="H228" s="16">
+        <f>SUM(H226,J226)</f>
+        <v>0</v>
+      </c>
+      <c r="I228" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="139">
+  <mergeCells count="468">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="E228:G228"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A222:G222"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="A223:G223"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="A224:G224"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="A219:G219"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="A220:G220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="A221:G221"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="A216:G216"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="A217:G217"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="A218:G218"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="A213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="A214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="A215:G215"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="A210:G210"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="A211:G211"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="A212:G212"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="A207:G207"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="A208:G208"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="A209:G209"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="E195:G195"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="A199:N200"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="A206:G206"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="A190:G190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="A191:G191"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="J191:K191"/>
+    <mergeCell ref="E193:G193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="A187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="A188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="A189:G189"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="A185:G185"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="A186:G186"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="A181:G181"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="A182:G182"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="A183:G183"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="A178:G178"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="A179:G179"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="A175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="A176:G176"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="A174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="A158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="E162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="A166:N167"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="A156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="A141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="A133:N134"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="A120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A100:N101"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="A67:N68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="H42:I42"/>
@@ -1346,9 +3623,7 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="J55:K55"/>
@@ -1363,50 +3638,36 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="G18:I18"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="H38:I38"/>
@@ -1414,23 +3675,18 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="A34:N35"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/01_Projektmanagement/Zeiterfassung.xlsx
+++ b/01_Projektmanagement/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svm-c113.hsr.ch\adelay\Documents\SemesterArbeit\Semesterarbeit-HS-2017-2018\01_Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svm-c113.hsr.ch\pbuetiko\Documents\GitHub\Semesterarbeit-HS-2017-2018\01_Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
   <si>
     <t>Zeiterfassung SAI17 - Gesamtüberblick</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>Zeiterfassung SAI17 - Testing</t>
+  </si>
+  <si>
+    <t>Recherche Autokorrelation</t>
+  </si>
+  <si>
+    <t>Erstellen Literaturverzeichnis</t>
+  </si>
+  <si>
+    <t>Projektplan aktualisiert</t>
   </si>
 </sst>
 </file>
@@ -393,7 +402,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -401,10 +410,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,16 +428,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,23 +446,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB162"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50:U50"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="K39" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44:Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,203 +787,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21">
         <f>SUM(H42:I59)</f>
         <v>14.75</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23">
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21">
         <f>SUM(J42:K59)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23">
+        <v>14.5</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="21">
         <f>SUM(H61,J61)</f>
-        <v>14.75</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+        <v>29.25</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="21">
         <f>SUM(H75:I92)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23">
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="21">
         <f>SUM(H94,J94)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="13"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="13"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -982,18 +991,18 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="9" t="e">
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -1008,11 +1017,11 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1085,82 +1094,82 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1194,73 +1203,73 @@
       <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="O38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
       <c r="R38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
       <c r="U38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18" t="s">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="18"/>
-      <c r="O41" s="18" t="s">
+      <c r="K41" s="9"/>
+      <c r="O41" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18" t="s">
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18" t="s">
+      <c r="W41" s="9"/>
+      <c r="X41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Y41" s="18"/>
+      <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -1272,12 +1281,14 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="12">
+      <c r="H42" s="28">
         <v>1</v>
       </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="13"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="27"/>
       <c r="O42" s="10" t="s">
         <v>23</v>
       </c>
@@ -1287,12 +1298,14 @@
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
-      <c r="V42" s="12">
+      <c r="V42" s="28">
         <v>1</v>
       </c>
-      <c r="W42" s="13"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="13"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="27"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
@@ -1304,12 +1317,14 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="12">
+      <c r="H43" s="28">
         <v>0.25</v>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="13"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="K43" s="27"/>
       <c r="O43" s="10" t="s">
         <v>24</v>
       </c>
@@ -1319,10 +1334,12 @@
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="13"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="27"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -1334,12 +1351,14 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="12">
+      <c r="H44" s="28">
         <v>2</v>
       </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="13"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28">
+        <v>7</v>
+      </c>
+      <c r="K44" s="27"/>
       <c r="O44" s="10" t="s">
         <v>25</v>
       </c>
@@ -1349,10 +1368,10 @@
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="13"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="27"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
@@ -1364,12 +1383,14 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="12">
+      <c r="H45" s="28">
         <v>0.5</v>
       </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="13"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28">
+        <v>1</v>
+      </c>
+      <c r="K45" s="27"/>
       <c r="O45" s="10" t="s">
         <v>26</v>
       </c>
@@ -1379,10 +1400,12 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="13"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="27"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
@@ -1394,12 +1417,14 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="12">
+      <c r="H46" s="28">
         <v>1</v>
       </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="13"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28">
+        <v>1</v>
+      </c>
+      <c r="K46" s="27"/>
       <c r="O46" s="10" t="s">
         <v>27</v>
       </c>
@@ -1409,12 +1434,12 @@
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
-      <c r="V46" s="12">
+      <c r="V46" s="28">
         <v>4</v>
       </c>
-      <c r="W46" s="13"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="13"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="27"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
@@ -1426,12 +1451,14 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="12">
+      <c r="H47" s="28">
         <v>3</v>
       </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="13"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28">
+        <v>2</v>
+      </c>
+      <c r="K47" s="27"/>
       <c r="O47" s="10" t="s">
         <v>28</v>
       </c>
@@ -1441,12 +1468,12 @@
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
-      <c r="V47" s="12">
+      <c r="V47" s="28">
         <v>4</v>
       </c>
-      <c r="W47" s="13"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="13"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="27"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
@@ -1458,12 +1485,14 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="12">
+      <c r="H48" s="28">
         <v>3</v>
       </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="13"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28">
+        <v>1</v>
+      </c>
+      <c r="K48" s="27"/>
       <c r="O48" s="10" t="s">
         <v>29</v>
       </c>
@@ -1473,12 +1502,14 @@
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
-      <c r="V48" s="12">
+      <c r="V48" s="28">
         <v>0.25</v>
       </c>
-      <c r="W48" s="13"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="13"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="Y48" s="27"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
@@ -1490,12 +1521,14 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="12">
+      <c r="H49" s="28">
         <v>3</v>
       </c>
-      <c r="I49" s="13"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="13"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="K49" s="27"/>
       <c r="O49" s="10" t="s">
         <v>30</v>
       </c>
@@ -1505,12 +1538,12 @@
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
-      <c r="V49" s="12">
+      <c r="V49" s="28">
         <v>1</v>
       </c>
-      <c r="W49" s="13"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="13"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="27"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
@@ -1522,23 +1555,29 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="12">
+      <c r="H50" s="28">
         <v>1</v>
       </c>
-      <c r="I50" s="13"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="13"/>
-      <c r="O50" s="10"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28">
+        <v>1</v>
+      </c>
+      <c r="K50" s="27"/>
+      <c r="O50" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="13"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="28">
+        <v>5</v>
+      </c>
+      <c r="Y50" s="27"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
@@ -1548,21 +1587,25 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="13"/>
-      <c r="O51" s="10"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="27"/>
+      <c r="O51" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="13"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="Y51" s="27"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
@@ -1572,21 +1615,27 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="13"/>
-      <c r="O52" s="10"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="27"/>
+      <c r="O52" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="13"/>
+      <c r="V52" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="W52" s="27"/>
+      <c r="X52" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="Y52" s="27"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
@@ -1596,10 +1645,10 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="13"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="27"/>
       <c r="O53" s="10"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
@@ -1607,10 +1656,10 @@
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="13"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="27"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
@@ -1620,10 +1669,10 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="13"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="27"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
@@ -1631,10 +1680,10 @@
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="13"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="27"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
@@ -1644,10 +1693,10 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="13"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="27"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
@@ -1655,10 +1704,10 @@
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="13"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="27"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
@@ -1668,10 +1717,10 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="13"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="27"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
@@ -1679,10 +1728,10 @@
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="13"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="27"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
@@ -1692,10 +1741,10 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="13"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="27"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
@@ -1703,10 +1752,10 @@
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="13"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="27"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
@@ -1716,10 +1765,10 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="13"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="27"/>
       <c r="O58" s="10" t="s">
         <v>33</v>
       </c>
@@ -1729,10 +1778,10 @@
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="13"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="27"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
@@ -1742,10 +1791,10 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="13"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="27"/>
       <c r="O59" s="10" t="s">
         <v>19</v>
       </c>
@@ -1755,128 +1804,128 @@
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="12"/>
-      <c r="Y59" s="13"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="27"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="9">
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18">
         <f>SUM(H42:I59)</f>
         <v>14.75</v>
       </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9">
+      <c r="I61" s="18"/>
+      <c r="J61" s="18">
         <f>SUM(J42:K59)</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="9"/>
-      <c r="S61" s="14" t="s">
+        <v>14.5</v>
+      </c>
+      <c r="K61" s="18"/>
+      <c r="S61" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T61" s="15"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="9">
+      <c r="T61" s="16"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="18">
         <f>SUM(V42:W59)</f>
-        <v>10.25</v>
-      </c>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9">
+        <v>11.75</v>
+      </c>
+      <c r="W61" s="18"/>
+      <c r="X61" s="18">
         <f>SUM(X42:Y59)</f>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="9"/>
+        <v>11.5</v>
+      </c>
+      <c r="Y61" s="18"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9">
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18">
         <f>SUM(H61,J61)</f>
-        <v>14.75</v>
-      </c>
-      <c r="I63" s="9"/>
-      <c r="S63" s="9" t="s">
+        <v>29.25</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="S63" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9">
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18">
         <f>SUM(V61,X61)</f>
-        <v>10.25</v>
-      </c>
-      <c r="W63" s="9"/>
+        <v>23.25</v>
+      </c>
+      <c r="W63" s="18"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19" t="s">
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
-      <c r="Y67" s="19"/>
-      <c r="Z67" s="19"/>
-      <c r="AA67" s="19"/>
-      <c r="AB67" s="19"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="13"/>
+      <c r="Z67" s="13"/>
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="13"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
-      <c r="Z68" s="19"/>
-      <c r="AA68" s="19"/>
-      <c r="AB68" s="19"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+      <c r="AA68" s="13"/>
+      <c r="AB68" s="13"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -1910,73 +1959,73 @@
       <c r="A71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="O71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
       <c r="R71" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
       <c r="U71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V71" s="17"/>
-      <c r="W71" s="17"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18" t="s">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18" t="s">
+      <c r="I74" s="9"/>
+      <c r="J74" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K74" s="18"/>
-      <c r="O74" s="18" t="s">
+      <c r="K74" s="9"/>
+      <c r="O74" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="18" t="s">
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W74" s="18"/>
-      <c r="X74" s="18" t="s">
+      <c r="W74" s="9"/>
+      <c r="X74" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Y74" s="18"/>
+      <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
@@ -1988,10 +2037,10 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="13"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="27"/>
       <c r="O75" s="10"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
@@ -1999,10 +2048,10 @@
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
       <c r="U75" s="11"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="13"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="27"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
@@ -2014,10 +2063,10 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="13"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="27"/>
       <c r="O76" s="10"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
@@ -2025,10 +2074,10 @@
       <c r="S76" s="11"/>
       <c r="T76" s="11"/>
       <c r="U76" s="11"/>
-      <c r="V76" s="12"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="13"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="27"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
@@ -2038,10 +2087,10 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="13"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="27"/>
       <c r="O77" s="10"/>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
@@ -2049,10 +2098,10 @@
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
-      <c r="V77" s="12"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="12"/>
-      <c r="Y77" s="13"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="27"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
@@ -2062,10 +2111,10 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="13"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="27"/>
       <c r="O78" s="10"/>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
@@ -2073,10 +2122,10 @@
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
       <c r="U78" s="11"/>
-      <c r="V78" s="12"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="12"/>
-      <c r="Y78" s="13"/>
+      <c r="V78" s="28"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="27"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
@@ -2086,10 +2135,10 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="13"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="27"/>
       <c r="O79" s="10"/>
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
@@ -2097,10 +2146,10 @@
       <c r="S79" s="11"/>
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
-      <c r="V79" s="12"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="12"/>
-      <c r="Y79" s="13"/>
+      <c r="V79" s="28"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="28"/>
+      <c r="Y79" s="27"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
@@ -2110,10 +2159,10 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="13"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="27"/>
       <c r="O80" s="10"/>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
@@ -2121,10 +2170,10 @@
       <c r="S80" s="11"/>
       <c r="T80" s="11"/>
       <c r="U80" s="11"/>
-      <c r="V80" s="12"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="12"/>
-      <c r="Y80" s="13"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="27"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
@@ -2134,10 +2183,10 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="13"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="27"/>
       <c r="O81" s="10"/>
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
@@ -2145,10 +2194,10 @@
       <c r="S81" s="11"/>
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
-      <c r="V81" s="12"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="12"/>
-      <c r="Y81" s="13"/>
+      <c r="V81" s="28"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="28"/>
+      <c r="Y81" s="27"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
@@ -2158,10 +2207,10 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="13"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="27"/>
       <c r="O82" s="10"/>
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
@@ -2169,10 +2218,10 @@
       <c r="S82" s="11"/>
       <c r="T82" s="11"/>
       <c r="U82" s="11"/>
-      <c r="V82" s="12"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="12"/>
-      <c r="Y82" s="13"/>
+      <c r="V82" s="28"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="28"/>
+      <c r="Y82" s="27"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
@@ -2182,10 +2231,10 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="13"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="27"/>
       <c r="O83" s="10"/>
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
@@ -2193,10 +2242,10 @@
       <c r="S83" s="11"/>
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
-      <c r="V83" s="12"/>
-      <c r="W83" s="13"/>
-      <c r="X83" s="12"/>
-      <c r="Y83" s="13"/>
+      <c r="V83" s="28"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="28"/>
+      <c r="Y83" s="27"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
@@ -2206,10 +2255,10 @@
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="13"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="27"/>
       <c r="O84" s="10"/>
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
@@ -2217,10 +2266,10 @@
       <c r="S84" s="11"/>
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
-      <c r="V84" s="12"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="12"/>
-      <c r="Y84" s="13"/>
+      <c r="V84" s="28"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="27"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
@@ -2230,10 +2279,10 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="13"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="27"/>
       <c r="O85" s="10"/>
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
@@ -2241,10 +2290,10 @@
       <c r="S85" s="11"/>
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
-      <c r="V85" s="12"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="12"/>
-      <c r="Y85" s="13"/>
+      <c r="V85" s="28"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="28"/>
+      <c r="Y85" s="27"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
@@ -2254,10 +2303,10 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="13"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="27"/>
       <c r="O86" s="10"/>
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
@@ -2265,10 +2314,10 @@
       <c r="S86" s="11"/>
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
-      <c r="V86" s="12"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="12"/>
-      <c r="Y86" s="13"/>
+      <c r="V86" s="28"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="27"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
@@ -2278,10 +2327,10 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="13"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="27"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
@@ -2289,10 +2338,10 @@
       <c r="S87" s="11"/>
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
-      <c r="V87" s="12"/>
-      <c r="W87" s="13"/>
-      <c r="X87" s="12"/>
-      <c r="Y87" s="13"/>
+      <c r="V87" s="28"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="27"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
@@ -2302,10 +2351,10 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="13"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="27"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
@@ -2313,10 +2362,10 @@
       <c r="S88" s="11"/>
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
-      <c r="V88" s="12"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="12"/>
-      <c r="Y88" s="13"/>
+      <c r="V88" s="28"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="27"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
@@ -2326,10 +2375,10 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="13"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="27"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
@@ -2337,10 +2386,10 @@
       <c r="S89" s="11"/>
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
-      <c r="V89" s="12"/>
-      <c r="W89" s="13"/>
-      <c r="X89" s="12"/>
-      <c r="Y89" s="13"/>
+      <c r="V89" s="28"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="27"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
@@ -2350,10 +2399,10 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="13"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="27"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
@@ -2361,10 +2410,10 @@
       <c r="S90" s="11"/>
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
-      <c r="V90" s="12"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="12"/>
-      <c r="Y90" s="13"/>
+      <c r="V90" s="28"/>
+      <c r="W90" s="27"/>
+      <c r="X90" s="28"/>
+      <c r="Y90" s="27"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
@@ -2374,10 +2423,10 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="13"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="27"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
@@ -2385,10 +2434,10 @@
       <c r="S91" s="11"/>
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
-      <c r="V91" s="12"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="12"/>
-      <c r="Y91" s="13"/>
+      <c r="V91" s="28"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="27"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
@@ -2398,10 +2447,10 @@
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="13"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="27"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
@@ -2409,128 +2458,128 @@
       <c r="S92" s="11"/>
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
-      <c r="V92" s="12"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="12"/>
-      <c r="Y92" s="13"/>
+      <c r="V92" s="28"/>
+      <c r="W92" s="27"/>
+      <c r="X92" s="28"/>
+      <c r="Y92" s="27"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="9">
+      <c r="F94" s="16"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="18">
         <f>SUM(H75:I92)</f>
         <v>0</v>
       </c>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9">
+      <c r="I94" s="18"/>
+      <c r="J94" s="18">
         <f>SUM(J75:K92)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="9"/>
-      <c r="S94" s="14" t="s">
+      <c r="K94" s="18"/>
+      <c r="S94" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T94" s="15"/>
-      <c r="U94" s="16"/>
-      <c r="V94" s="9">
+      <c r="T94" s="16"/>
+      <c r="U94" s="17"/>
+      <c r="V94" s="18">
         <f>SUM(V75:W92)</f>
         <v>0</v>
       </c>
-      <c r="W94" s="9"/>
-      <c r="X94" s="9">
+      <c r="W94" s="18"/>
+      <c r="X94" s="18">
         <f>SUM(X75:Y92)</f>
         <v>0</v>
       </c>
-      <c r="Y94" s="9"/>
+      <c r="Y94" s="18"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9">
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18">
         <f>SUM(H94,J94)</f>
         <v>0</v>
       </c>
-      <c r="I96" s="9"/>
-      <c r="S96" s="9" t="s">
+      <c r="I96" s="18"/>
+      <c r="S96" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T96" s="9"/>
-      <c r="U96" s="9"/>
-      <c r="V96" s="9">
+      <c r="T96" s="18"/>
+      <c r="U96" s="18"/>
+      <c r="V96" s="18">
         <f>SUM(V94,X94)</f>
         <v>0</v>
       </c>
-      <c r="W96" s="9"/>
+      <c r="W96" s="18"/>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19"/>
-      <c r="O100" s="19" t="s">
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19"/>
-      <c r="S100" s="19"/>
-      <c r="T100" s="19"/>
-      <c r="U100" s="19"/>
-      <c r="V100" s="19"/>
-      <c r="W100" s="19"/>
-      <c r="X100" s="19"/>
-      <c r="Y100" s="19"/>
-      <c r="Z100" s="19"/>
-      <c r="AA100" s="19"/>
-      <c r="AB100" s="19"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="13"/>
+      <c r="V100" s="13"/>
+      <c r="W100" s="13"/>
+      <c r="X100" s="13"/>
+      <c r="Y100" s="13"/>
+      <c r="Z100" s="13"/>
+      <c r="AA100" s="13"/>
+      <c r="AB100" s="13"/>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="19"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="19"/>
-      <c r="W101" s="19"/>
-      <c r="X101" s="19"/>
-      <c r="Y101" s="19"/>
-      <c r="Z101" s="19"/>
-      <c r="AA101" s="19"/>
-      <c r="AB101" s="19"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13"/>
+      <c r="V101" s="13"/>
+      <c r="W101" s="13"/>
+      <c r="X101" s="13"/>
+      <c r="Y101" s="13"/>
+      <c r="Z101" s="13"/>
+      <c r="AA101" s="13"/>
+      <c r="AB101" s="13"/>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
@@ -2566,73 +2615,73 @@
       <c r="A104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
       <c r="G104" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="O104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
       <c r="R104" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S104" s="17"/>
-      <c r="T104" s="17"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
       <c r="U104" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V104" s="17"/>
-      <c r="W104" s="17"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18" t="s">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18" t="s">
+      <c r="I107" s="9"/>
+      <c r="J107" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K107" s="18"/>
-      <c r="O107" s="18" t="s">
+      <c r="K107" s="9"/>
+      <c r="O107" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P107" s="18"/>
-      <c r="Q107" s="18"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="18"/>
-      <c r="T107" s="18"/>
-      <c r="U107" s="18"/>
-      <c r="V107" s="18" t="s">
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W107" s="18"/>
-      <c r="X107" s="18" t="s">
+      <c r="W107" s="9"/>
+      <c r="X107" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Y107" s="18"/>
+      <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
@@ -2644,10 +2693,10 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="13"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="27"/>
       <c r="O108" s="10"/>
       <c r="P108" s="11"/>
       <c r="Q108" s="11"/>
@@ -2655,10 +2704,10 @@
       <c r="S108" s="11"/>
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
-      <c r="V108" s="12"/>
-      <c r="W108" s="13"/>
-      <c r="X108" s="12"/>
-      <c r="Y108" s="13"/>
+      <c r="V108" s="28"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="28"/>
+      <c r="Y108" s="27"/>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
@@ -2670,10 +2719,10 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="13"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="27"/>
       <c r="O109" s="10"/>
       <c r="P109" s="11"/>
       <c r="Q109" s="11"/>
@@ -2681,10 +2730,10 @@
       <c r="S109" s="11"/>
       <c r="T109" s="11"/>
       <c r="U109" s="11"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="13"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="13"/>
+      <c r="V109" s="28"/>
+      <c r="W109" s="27"/>
+      <c r="X109" s="28"/>
+      <c r="Y109" s="27"/>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
@@ -2696,10 +2745,10 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="13"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="27"/>
       <c r="O110" s="10"/>
       <c r="P110" s="11"/>
       <c r="Q110" s="11"/>
@@ -2707,10 +2756,10 @@
       <c r="S110" s="11"/>
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
-      <c r="V110" s="12"/>
-      <c r="W110" s="13"/>
-      <c r="X110" s="12"/>
-      <c r="Y110" s="13"/>
+      <c r="V110" s="28"/>
+      <c r="W110" s="27"/>
+      <c r="X110" s="28"/>
+      <c r="Y110" s="27"/>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
@@ -2722,10 +2771,10 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="13"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="27"/>
       <c r="O111" s="10"/>
       <c r="P111" s="11"/>
       <c r="Q111" s="11"/>
@@ -2733,10 +2782,10 @@
       <c r="S111" s="11"/>
       <c r="T111" s="11"/>
       <c r="U111" s="11"/>
-      <c r="V111" s="12"/>
-      <c r="W111" s="13"/>
-      <c r="X111" s="12"/>
-      <c r="Y111" s="13"/>
+      <c r="V111" s="28"/>
+      <c r="W111" s="27"/>
+      <c r="X111" s="28"/>
+      <c r="Y111" s="27"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
@@ -2748,10 +2797,10 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="13"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="27"/>
       <c r="O112" s="10"/>
       <c r="P112" s="11"/>
       <c r="Q112" s="11"/>
@@ -2759,10 +2808,10 @@
       <c r="S112" s="11"/>
       <c r="T112" s="11"/>
       <c r="U112" s="11"/>
-      <c r="V112" s="12"/>
-      <c r="W112" s="13"/>
-      <c r="X112" s="12"/>
-      <c r="Y112" s="13"/>
+      <c r="V112" s="28"/>
+      <c r="W112" s="27"/>
+      <c r="X112" s="28"/>
+      <c r="Y112" s="27"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
@@ -2774,10 +2823,10 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="13"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="27"/>
       <c r="O113" s="10"/>
       <c r="P113" s="11"/>
       <c r="Q113" s="11"/>
@@ -2785,10 +2834,10 @@
       <c r="S113" s="11"/>
       <c r="T113" s="11"/>
       <c r="U113" s="11"/>
-      <c r="V113" s="12"/>
-      <c r="W113" s="13"/>
-      <c r="X113" s="12"/>
-      <c r="Y113" s="13"/>
+      <c r="V113" s="28"/>
+      <c r="W113" s="27"/>
+      <c r="X113" s="28"/>
+      <c r="Y113" s="27"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
@@ -2800,10 +2849,10 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="13"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="27"/>
       <c r="O114" s="10"/>
       <c r="P114" s="11"/>
       <c r="Q114" s="11"/>
@@ -2811,10 +2860,10 @@
       <c r="S114" s="11"/>
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
-      <c r="V114" s="12"/>
-      <c r="W114" s="13"/>
-      <c r="X114" s="12"/>
-      <c r="Y114" s="13"/>
+      <c r="V114" s="28"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="28"/>
+      <c r="Y114" s="27"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
@@ -2824,10 +2873,10 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="13"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="27"/>
       <c r="O115" s="10"/>
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
@@ -2835,10 +2884,10 @@
       <c r="S115" s="11"/>
       <c r="T115" s="11"/>
       <c r="U115" s="11"/>
-      <c r="V115" s="12"/>
-      <c r="W115" s="13"/>
-      <c r="X115" s="12"/>
-      <c r="Y115" s="13"/>
+      <c r="V115" s="28"/>
+      <c r="W115" s="27"/>
+      <c r="X115" s="28"/>
+      <c r="Y115" s="27"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
@@ -2848,10 +2897,10 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="13"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="27"/>
       <c r="O116" s="10"/>
       <c r="P116" s="11"/>
       <c r="Q116" s="11"/>
@@ -2859,10 +2908,10 @@
       <c r="S116" s="11"/>
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
-      <c r="V116" s="12"/>
-      <c r="W116" s="13"/>
-      <c r="X116" s="12"/>
-      <c r="Y116" s="13"/>
+      <c r="V116" s="28"/>
+      <c r="W116" s="27"/>
+      <c r="X116" s="28"/>
+      <c r="Y116" s="27"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
@@ -2872,10 +2921,10 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="13"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="27"/>
       <c r="O117" s="10"/>
       <c r="P117" s="11"/>
       <c r="Q117" s="11"/>
@@ -2883,10 +2932,10 @@
       <c r="S117" s="11"/>
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
-      <c r="V117" s="12"/>
-      <c r="W117" s="13"/>
-      <c r="X117" s="12"/>
-      <c r="Y117" s="13"/>
+      <c r="V117" s="28"/>
+      <c r="W117" s="27"/>
+      <c r="X117" s="28"/>
+      <c r="Y117" s="27"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
@@ -2896,10 +2945,10 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="13"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="27"/>
       <c r="O118" s="10"/>
       <c r="P118" s="11"/>
       <c r="Q118" s="11"/>
@@ -2907,10 +2956,10 @@
       <c r="S118" s="11"/>
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
-      <c r="V118" s="12"/>
-      <c r="W118" s="13"/>
-      <c r="X118" s="12"/>
-      <c r="Y118" s="13"/>
+      <c r="V118" s="28"/>
+      <c r="W118" s="27"/>
+      <c r="X118" s="28"/>
+      <c r="Y118" s="27"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
@@ -2920,10 +2969,10 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="13"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="27"/>
       <c r="O119" s="10"/>
       <c r="P119" s="11"/>
       <c r="Q119" s="11"/>
@@ -2931,10 +2980,10 @@
       <c r="S119" s="11"/>
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
-      <c r="V119" s="12"/>
-      <c r="W119" s="13"/>
-      <c r="X119" s="12"/>
-      <c r="Y119" s="13"/>
+      <c r="V119" s="28"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="28"/>
+      <c r="Y119" s="27"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
@@ -2944,10 +2993,10 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="13"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="27"/>
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
       <c r="Q120" s="11"/>
@@ -2955,10 +3004,10 @@
       <c r="S120" s="11"/>
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
-      <c r="V120" s="12"/>
-      <c r="W120" s="13"/>
-      <c r="X120" s="12"/>
-      <c r="Y120" s="13"/>
+      <c r="V120" s="28"/>
+      <c r="W120" s="27"/>
+      <c r="X120" s="28"/>
+      <c r="Y120" s="27"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
@@ -2968,10 +3017,10 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="13"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="27"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
       <c r="Q121" s="11"/>
@@ -2979,10 +3028,10 @@
       <c r="S121" s="11"/>
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
-      <c r="V121" s="12"/>
-      <c r="W121" s="13"/>
-      <c r="X121" s="12"/>
-      <c r="Y121" s="13"/>
+      <c r="V121" s="28"/>
+      <c r="W121" s="27"/>
+      <c r="X121" s="28"/>
+      <c r="Y121" s="27"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
@@ -2992,10 +3041,10 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="13"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="27"/>
       <c r="O122" s="11"/>
       <c r="P122" s="11"/>
       <c r="Q122" s="11"/>
@@ -3003,10 +3052,10 @@
       <c r="S122" s="11"/>
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
-      <c r="V122" s="12"/>
-      <c r="W122" s="13"/>
-      <c r="X122" s="12"/>
-      <c r="Y122" s="13"/>
+      <c r="V122" s="28"/>
+      <c r="W122" s="27"/>
+      <c r="X122" s="28"/>
+      <c r="Y122" s="27"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
@@ -3016,10 +3065,10 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="13"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="27"/>
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
       <c r="Q123" s="11"/>
@@ -3027,10 +3076,10 @@
       <c r="S123" s="11"/>
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
-      <c r="V123" s="12"/>
-      <c r="W123" s="13"/>
-      <c r="X123" s="12"/>
-      <c r="Y123" s="13"/>
+      <c r="V123" s="28"/>
+      <c r="W123" s="27"/>
+      <c r="X123" s="28"/>
+      <c r="Y123" s="27"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
@@ -3040,10 +3089,10 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="13"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="28"/>
+      <c r="K124" s="27"/>
       <c r="O124" s="10" t="s">
         <v>42</v>
       </c>
@@ -3053,10 +3102,10 @@
       <c r="S124" s="11"/>
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
-      <c r="V124" s="12"/>
-      <c r="W124" s="13"/>
-      <c r="X124" s="12"/>
-      <c r="Y124" s="13"/>
+      <c r="V124" s="28"/>
+      <c r="W124" s="27"/>
+      <c r="X124" s="28"/>
+      <c r="Y124" s="27"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
@@ -3066,10 +3115,10 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="13"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="27"/>
       <c r="O125" s="10" t="s">
         <v>19</v>
       </c>
@@ -3079,128 +3128,128 @@
       <c r="S125" s="11"/>
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
-      <c r="V125" s="12"/>
-      <c r="W125" s="13"/>
-      <c r="X125" s="12"/>
-      <c r="Y125" s="13"/>
+      <c r="V125" s="28"/>
+      <c r="W125" s="27"/>
+      <c r="X125" s="28"/>
+      <c r="Y125" s="27"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E127" s="14" t="s">
+      <c r="E127" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F127" s="15"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="9">
+      <c r="F127" s="16"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="18">
         <f>SUM(H108:I125)</f>
         <v>0</v>
       </c>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9">
+      <c r="I127" s="18"/>
+      <c r="J127" s="18">
         <f>SUM(J108:K125)</f>
         <v>0</v>
       </c>
-      <c r="K127" s="9"/>
-      <c r="S127" s="14" t="s">
+      <c r="K127" s="18"/>
+      <c r="S127" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T127" s="15"/>
-      <c r="U127" s="16"/>
-      <c r="V127" s="9">
+      <c r="T127" s="16"/>
+      <c r="U127" s="17"/>
+      <c r="V127" s="18">
         <f>SUM(V108:W125)</f>
         <v>0</v>
       </c>
-      <c r="W127" s="9"/>
-      <c r="X127" s="9">
+      <c r="W127" s="18"/>
+      <c r="X127" s="18">
         <f>SUM(X108:Y125)</f>
         <v>0</v>
       </c>
-      <c r="Y127" s="9"/>
+      <c r="Y127" s="18"/>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9">
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18">
         <f>SUM(H127,J127)</f>
         <v>0</v>
       </c>
-      <c r="I129" s="9"/>
-      <c r="S129" s="9" t="s">
+      <c r="I129" s="18"/>
+      <c r="S129" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T129" s="9"/>
-      <c r="U129" s="9"/>
-      <c r="V129" s="9">
+      <c r="T129" s="18"/>
+      <c r="U129" s="18"/>
+      <c r="V129" s="18">
         <f>SUM(V127,X127)</f>
         <v>0</v>
       </c>
-      <c r="W129" s="9"/>
+      <c r="W129" s="18"/>
     </row>
     <row r="133" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
-      <c r="N133" s="19"/>
-      <c r="O133" s="19" t="s">
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="13"/>
+      <c r="N133" s="13"/>
+      <c r="O133" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P133" s="19"/>
-      <c r="Q133" s="19"/>
-      <c r="R133" s="19"/>
-      <c r="S133" s="19"/>
-      <c r="T133" s="19"/>
-      <c r="U133" s="19"/>
-      <c r="V133" s="19"/>
-      <c r="W133" s="19"/>
-      <c r="X133" s="19"/>
-      <c r="Y133" s="19"/>
-      <c r="Z133" s="19"/>
-      <c r="AA133" s="19"/>
-      <c r="AB133" s="19"/>
+      <c r="P133" s="13"/>
+      <c r="Q133" s="13"/>
+      <c r="R133" s="13"/>
+      <c r="S133" s="13"/>
+      <c r="T133" s="13"/>
+      <c r="U133" s="13"/>
+      <c r="V133" s="13"/>
+      <c r="W133" s="13"/>
+      <c r="X133" s="13"/>
+      <c r="Y133" s="13"/>
+      <c r="Z133" s="13"/>
+      <c r="AA133" s="13"/>
+      <c r="AB133" s="13"/>
     </row>
     <row r="134" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="19"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-      <c r="N134" s="19"/>
-      <c r="O134" s="19"/>
-      <c r="P134" s="19"/>
-      <c r="Q134" s="19"/>
-      <c r="R134" s="19"/>
-      <c r="S134" s="19"/>
-      <c r="T134" s="19"/>
-      <c r="U134" s="19"/>
-      <c r="V134" s="19"/>
-      <c r="W134" s="19"/>
-      <c r="X134" s="19"/>
-      <c r="Y134" s="19"/>
-      <c r="Z134" s="19"/>
-      <c r="AA134" s="19"/>
-      <c r="AB134" s="19"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="13"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13"/>
+      <c r="R134" s="13"/>
+      <c r="S134" s="13"/>
+      <c r="T134" s="13"/>
+      <c r="U134" s="13"/>
+      <c r="V134" s="13"/>
+      <c r="W134" s="13"/>
+      <c r="X134" s="13"/>
+      <c r="Y134" s="13"/>
+      <c r="Z134" s="13"/>
+      <c r="AA134" s="13"/>
+      <c r="AB134" s="13"/>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
@@ -3234,73 +3283,73 @@
       <c r="A137" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
       <c r="G137" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="O137" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="12"/>
       <c r="R137" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S137" s="17"/>
-      <c r="T137" s="17"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="12"/>
       <c r="U137" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V137" s="17"/>
-      <c r="W137" s="17"/>
+      <c r="V137" s="12"/>
+      <c r="W137" s="12"/>
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18" t="s">
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18" t="s">
+      <c r="I140" s="9"/>
+      <c r="J140" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K140" s="18"/>
-      <c r="O140" s="18" t="s">
+      <c r="K140" s="9"/>
+      <c r="O140" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P140" s="18"/>
-      <c r="Q140" s="18"/>
-      <c r="R140" s="18"/>
-      <c r="S140" s="18"/>
-      <c r="T140" s="18"/>
-      <c r="U140" s="18"/>
-      <c r="V140" s="18" t="s">
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
+      <c r="R140" s="9"/>
+      <c r="S140" s="9"/>
+      <c r="T140" s="9"/>
+      <c r="U140" s="9"/>
+      <c r="V140" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W140" s="18"/>
-      <c r="X140" s="18" t="s">
+      <c r="W140" s="9"/>
+      <c r="X140" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Y140" s="18"/>
+      <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
@@ -3312,10 +3361,10 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="13"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="28"/>
+      <c r="K141" s="27"/>
       <c r="O141" s="10"/>
       <c r="P141" s="11"/>
       <c r="Q141" s="11"/>
@@ -3323,10 +3372,10 @@
       <c r="S141" s="11"/>
       <c r="T141" s="11"/>
       <c r="U141" s="11"/>
-      <c r="V141" s="12"/>
-      <c r="W141" s="13"/>
-      <c r="X141" s="12"/>
-      <c r="Y141" s="13"/>
+      <c r="V141" s="28"/>
+      <c r="W141" s="27"/>
+      <c r="X141" s="28"/>
+      <c r="Y141" s="27"/>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
@@ -3336,10 +3385,10 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="13"/>
+      <c r="H142" s="28"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="28"/>
+      <c r="K142" s="27"/>
       <c r="O142" s="10"/>
       <c r="P142" s="11"/>
       <c r="Q142" s="11"/>
@@ -3347,10 +3396,10 @@
       <c r="S142" s="11"/>
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
-      <c r="V142" s="12"/>
-      <c r="W142" s="13"/>
-      <c r="X142" s="12"/>
-      <c r="Y142" s="13"/>
+      <c r="V142" s="28"/>
+      <c r="W142" s="27"/>
+      <c r="X142" s="28"/>
+      <c r="Y142" s="27"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
@@ -3360,10 +3409,10 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="13"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="27"/>
       <c r="O143" s="10"/>
       <c r="P143" s="11"/>
       <c r="Q143" s="11"/>
@@ -3371,10 +3420,10 @@
       <c r="S143" s="11"/>
       <c r="T143" s="11"/>
       <c r="U143" s="11"/>
-      <c r="V143" s="12"/>
-      <c r="W143" s="13"/>
-      <c r="X143" s="12"/>
-      <c r="Y143" s="13"/>
+      <c r="V143" s="28"/>
+      <c r="W143" s="27"/>
+      <c r="X143" s="28"/>
+      <c r="Y143" s="27"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
@@ -3386,10 +3435,10 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="13"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="13"/>
+      <c r="H144" s="28"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="27"/>
       <c r="O144" s="10"/>
       <c r="P144" s="11"/>
       <c r="Q144" s="11"/>
@@ -3397,10 +3446,10 @@
       <c r="S144" s="11"/>
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
-      <c r="V144" s="12"/>
-      <c r="W144" s="13"/>
-      <c r="X144" s="12"/>
-      <c r="Y144" s="13"/>
+      <c r="V144" s="28"/>
+      <c r="W144" s="27"/>
+      <c r="X144" s="28"/>
+      <c r="Y144" s="27"/>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
@@ -3410,10 +3459,10 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="13"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="13"/>
+      <c r="H145" s="28"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="28"/>
+      <c r="K145" s="27"/>
       <c r="O145" s="10"/>
       <c r="P145" s="11"/>
       <c r="Q145" s="11"/>
@@ -3421,10 +3470,10 @@
       <c r="S145" s="11"/>
       <c r="T145" s="11"/>
       <c r="U145" s="11"/>
-      <c r="V145" s="12"/>
-      <c r="W145" s="13"/>
-      <c r="X145" s="12"/>
-      <c r="Y145" s="13"/>
+      <c r="V145" s="28"/>
+      <c r="W145" s="27"/>
+      <c r="X145" s="28"/>
+      <c r="Y145" s="27"/>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
@@ -3434,10 +3483,10 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="13"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="13"/>
+      <c r="H146" s="28"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="28"/>
+      <c r="K146" s="27"/>
       <c r="O146" s="10"/>
       <c r="P146" s="11"/>
       <c r="Q146" s="11"/>
@@ -3445,10 +3494,10 @@
       <c r="S146" s="11"/>
       <c r="T146" s="11"/>
       <c r="U146" s="11"/>
-      <c r="V146" s="12"/>
-      <c r="W146" s="13"/>
-      <c r="X146" s="12"/>
-      <c r="Y146" s="13"/>
+      <c r="V146" s="28"/>
+      <c r="W146" s="27"/>
+      <c r="X146" s="28"/>
+      <c r="Y146" s="27"/>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
@@ -3458,10 +3507,10 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="13"/>
+      <c r="H147" s="28"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="27"/>
       <c r="O147" s="10"/>
       <c r="P147" s="11"/>
       <c r="Q147" s="11"/>
@@ -3469,10 +3518,10 @@
       <c r="S147" s="11"/>
       <c r="T147" s="11"/>
       <c r="U147" s="11"/>
-      <c r="V147" s="12"/>
-      <c r="W147" s="13"/>
-      <c r="X147" s="12"/>
-      <c r="Y147" s="13"/>
+      <c r="V147" s="28"/>
+      <c r="W147" s="27"/>
+      <c r="X147" s="28"/>
+      <c r="Y147" s="27"/>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
@@ -3482,10 +3531,10 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="13"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="13"/>
+      <c r="H148" s="28"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="27"/>
       <c r="O148" s="10"/>
       <c r="P148" s="11"/>
       <c r="Q148" s="11"/>
@@ -3493,10 +3542,10 @@
       <c r="S148" s="11"/>
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
-      <c r="V148" s="12"/>
-      <c r="W148" s="13"/>
-      <c r="X148" s="12"/>
-      <c r="Y148" s="13"/>
+      <c r="V148" s="28"/>
+      <c r="W148" s="27"/>
+      <c r="X148" s="28"/>
+      <c r="Y148" s="27"/>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
@@ -3506,10 +3555,10 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="13"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="13"/>
+      <c r="H149" s="28"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="28"/>
+      <c r="K149" s="27"/>
       <c r="O149" s="10"/>
       <c r="P149" s="11"/>
       <c r="Q149" s="11"/>
@@ -3517,10 +3566,10 @@
       <c r="S149" s="11"/>
       <c r="T149" s="11"/>
       <c r="U149" s="11"/>
-      <c r="V149" s="12"/>
-      <c r="W149" s="13"/>
-      <c r="X149" s="12"/>
-      <c r="Y149" s="13"/>
+      <c r="V149" s="28"/>
+      <c r="W149" s="27"/>
+      <c r="X149" s="28"/>
+      <c r="Y149" s="27"/>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
@@ -3530,10 +3579,10 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="13"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="13"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="28"/>
+      <c r="K150" s="27"/>
       <c r="O150" s="10"/>
       <c r="P150" s="11"/>
       <c r="Q150" s="11"/>
@@ -3541,10 +3590,10 @@
       <c r="S150" s="11"/>
       <c r="T150" s="11"/>
       <c r="U150" s="11"/>
-      <c r="V150" s="12"/>
-      <c r="W150" s="13"/>
-      <c r="X150" s="12"/>
-      <c r="Y150" s="13"/>
+      <c r="V150" s="28"/>
+      <c r="W150" s="27"/>
+      <c r="X150" s="28"/>
+      <c r="Y150" s="27"/>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
@@ -3554,10 +3603,10 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="13"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="13"/>
+      <c r="H151" s="28"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="27"/>
       <c r="O151" s="10"/>
       <c r="P151" s="11"/>
       <c r="Q151" s="11"/>
@@ -3565,10 +3614,10 @@
       <c r="S151" s="11"/>
       <c r="T151" s="11"/>
       <c r="U151" s="11"/>
-      <c r="V151" s="12"/>
-      <c r="W151" s="13"/>
-      <c r="X151" s="12"/>
-      <c r="Y151" s="13"/>
+      <c r="V151" s="28"/>
+      <c r="W151" s="27"/>
+      <c r="X151" s="28"/>
+      <c r="Y151" s="27"/>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
@@ -3578,10 +3627,10 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="13"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="27"/>
       <c r="O152" s="10"/>
       <c r="P152" s="11"/>
       <c r="Q152" s="11"/>
@@ -3589,10 +3638,10 @@
       <c r="S152" s="11"/>
       <c r="T152" s="11"/>
       <c r="U152" s="11"/>
-      <c r="V152" s="12"/>
-      <c r="W152" s="13"/>
-      <c r="X152" s="12"/>
-      <c r="Y152" s="13"/>
+      <c r="V152" s="28"/>
+      <c r="W152" s="27"/>
+      <c r="X152" s="28"/>
+      <c r="Y152" s="27"/>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
@@ -3602,10 +3651,10 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="13"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="13"/>
+      <c r="H153" s="28"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="27"/>
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
       <c r="Q153" s="11"/>
@@ -3613,10 +3662,10 @@
       <c r="S153" s="11"/>
       <c r="T153" s="11"/>
       <c r="U153" s="11"/>
-      <c r="V153" s="12"/>
-      <c r="W153" s="13"/>
-      <c r="X153" s="12"/>
-      <c r="Y153" s="13"/>
+      <c r="V153" s="28"/>
+      <c r="W153" s="27"/>
+      <c r="X153" s="28"/>
+      <c r="Y153" s="27"/>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
@@ -3626,10 +3675,10 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="13"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="13"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="27"/>
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
       <c r="Q154" s="11"/>
@@ -3637,10 +3686,10 @@
       <c r="S154" s="11"/>
       <c r="T154" s="11"/>
       <c r="U154" s="11"/>
-      <c r="V154" s="12"/>
-      <c r="W154" s="13"/>
-      <c r="X154" s="12"/>
-      <c r="Y154" s="13"/>
+      <c r="V154" s="28"/>
+      <c r="W154" s="27"/>
+      <c r="X154" s="28"/>
+      <c r="Y154" s="27"/>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
@@ -3650,10 +3699,10 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="13"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="13"/>
+      <c r="H155" s="28"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="27"/>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
       <c r="Q155" s="11"/>
@@ -3661,10 +3710,10 @@
       <c r="S155" s="11"/>
       <c r="T155" s="11"/>
       <c r="U155" s="11"/>
-      <c r="V155" s="12"/>
-      <c r="W155" s="13"/>
-      <c r="X155" s="12"/>
-      <c r="Y155" s="13"/>
+      <c r="V155" s="28"/>
+      <c r="W155" s="27"/>
+      <c r="X155" s="28"/>
+      <c r="Y155" s="27"/>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
@@ -3674,10 +3723,10 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="13"/>
+      <c r="H156" s="28"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="27"/>
       <c r="O156" s="11"/>
       <c r="P156" s="11"/>
       <c r="Q156" s="11"/>
@@ -3685,10 +3734,10 @@
       <c r="S156" s="11"/>
       <c r="T156" s="11"/>
       <c r="U156" s="11"/>
-      <c r="V156" s="12"/>
-      <c r="W156" s="13"/>
-      <c r="X156" s="12"/>
-      <c r="Y156" s="13"/>
+      <c r="V156" s="28"/>
+      <c r="W156" s="27"/>
+      <c r="X156" s="28"/>
+      <c r="Y156" s="27"/>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
@@ -3700,10 +3749,10 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="13"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="13"/>
+      <c r="H157" s="28"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="27"/>
       <c r="O157" s="10" t="s">
         <v>42</v>
       </c>
@@ -3713,10 +3762,10 @@
       <c r="S157" s="11"/>
       <c r="T157" s="11"/>
       <c r="U157" s="11"/>
-      <c r="V157" s="12"/>
-      <c r="W157" s="13"/>
-      <c r="X157" s="12"/>
-      <c r="Y157" s="13"/>
+      <c r="V157" s="28"/>
+      <c r="W157" s="27"/>
+      <c r="X157" s="28"/>
+      <c r="Y157" s="27"/>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
@@ -3728,10 +3777,10 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="13"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="13"/>
+      <c r="H158" s="28"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="28"/>
+      <c r="K158" s="27"/>
       <c r="O158" s="10"/>
       <c r="P158" s="11"/>
       <c r="Q158" s="11"/>
@@ -3739,67 +3788,616 @@
       <c r="S158" s="11"/>
       <c r="T158" s="11"/>
       <c r="U158" s="11"/>
-      <c r="V158" s="12"/>
-      <c r="W158" s="13"/>
-      <c r="X158" s="12"/>
-      <c r="Y158" s="13"/>
+      <c r="V158" s="28"/>
+      <c r="W158" s="27"/>
+      <c r="X158" s="28"/>
+      <c r="Y158" s="27"/>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E160" s="14" t="s">
+      <c r="E160" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F160" s="15"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="9">
+      <c r="F160" s="16"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="18">
         <f>SUM(H141:I158)</f>
         <v>0</v>
       </c>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9">
+      <c r="I160" s="18"/>
+      <c r="J160" s="18">
         <f>SUM(J141:K158)</f>
         <v>0</v>
       </c>
-      <c r="K160" s="9"/>
-      <c r="S160" s="14" t="s">
+      <c r="K160" s="18"/>
+      <c r="S160" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T160" s="15"/>
-      <c r="U160" s="16"/>
-      <c r="V160" s="9">
+      <c r="T160" s="16"/>
+      <c r="U160" s="17"/>
+      <c r="V160" s="18">
         <f>SUM(V141:W158)</f>
         <v>0</v>
       </c>
-      <c r="W160" s="9"/>
-      <c r="X160" s="9">
+      <c r="W160" s="18"/>
+      <c r="X160" s="18">
         <f>SUM(X141:Y158)</f>
         <v>0</v>
       </c>
-      <c r="Y160" s="9"/>
+      <c r="Y160" s="18"/>
     </row>
     <row r="162" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E162" s="9" t="s">
+      <c r="E162" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9">
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18">
         <f>SUM(H160,J160)</f>
         <v>0</v>
       </c>
-      <c r="I162" s="9"/>
-      <c r="S162" s="9" t="s">
+      <c r="I162" s="18"/>
+      <c r="S162" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T162" s="9"/>
-      <c r="U162" s="9"/>
-      <c r="V162" s="9">
+      <c r="T162" s="18"/>
+      <c r="U162" s="18"/>
+      <c r="V162" s="18">
         <f>SUM(V160,X160)</f>
         <v>0</v>
       </c>
-      <c r="W162" s="9"/>
+      <c r="W162" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="573">
+    <mergeCell ref="S162:U162"/>
+    <mergeCell ref="V162:W162"/>
+    <mergeCell ref="O157:U157"/>
+    <mergeCell ref="V157:W157"/>
+    <mergeCell ref="X157:Y157"/>
+    <mergeCell ref="O158:U158"/>
+    <mergeCell ref="V158:W158"/>
+    <mergeCell ref="X158:Y158"/>
+    <mergeCell ref="S160:U160"/>
+    <mergeCell ref="V160:W160"/>
+    <mergeCell ref="X160:Y160"/>
+    <mergeCell ref="O154:U154"/>
+    <mergeCell ref="V154:W154"/>
+    <mergeCell ref="X154:Y154"/>
+    <mergeCell ref="O155:U155"/>
+    <mergeCell ref="V155:W155"/>
+    <mergeCell ref="X155:Y155"/>
+    <mergeCell ref="O156:U156"/>
+    <mergeCell ref="V156:W156"/>
+    <mergeCell ref="X156:Y156"/>
+    <mergeCell ref="O151:U151"/>
+    <mergeCell ref="V151:W151"/>
+    <mergeCell ref="X151:Y151"/>
+    <mergeCell ref="O152:U152"/>
+    <mergeCell ref="V152:W152"/>
+    <mergeCell ref="X152:Y152"/>
+    <mergeCell ref="O153:U153"/>
+    <mergeCell ref="V153:W153"/>
+    <mergeCell ref="X153:Y153"/>
+    <mergeCell ref="O148:U148"/>
+    <mergeCell ref="V148:W148"/>
+    <mergeCell ref="X148:Y148"/>
+    <mergeCell ref="O149:U149"/>
+    <mergeCell ref="V149:W149"/>
+    <mergeCell ref="X149:Y149"/>
+    <mergeCell ref="O150:U150"/>
+    <mergeCell ref="V150:W150"/>
+    <mergeCell ref="X150:Y150"/>
+    <mergeCell ref="O145:U145"/>
+    <mergeCell ref="V145:W145"/>
+    <mergeCell ref="X145:Y145"/>
+    <mergeCell ref="O146:U146"/>
+    <mergeCell ref="V146:W146"/>
+    <mergeCell ref="X146:Y146"/>
+    <mergeCell ref="O147:U147"/>
+    <mergeCell ref="V147:W147"/>
+    <mergeCell ref="X147:Y147"/>
+    <mergeCell ref="O142:U142"/>
+    <mergeCell ref="V142:W142"/>
+    <mergeCell ref="X142:Y142"/>
+    <mergeCell ref="O143:U143"/>
+    <mergeCell ref="V143:W143"/>
+    <mergeCell ref="X143:Y143"/>
+    <mergeCell ref="O144:U144"/>
+    <mergeCell ref="V144:W144"/>
+    <mergeCell ref="X144:Y144"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="V137:W137"/>
+    <mergeCell ref="O140:U140"/>
+    <mergeCell ref="V140:W140"/>
+    <mergeCell ref="X140:Y140"/>
+    <mergeCell ref="O141:U141"/>
+    <mergeCell ref="V141:W141"/>
+    <mergeCell ref="X141:Y141"/>
+    <mergeCell ref="O125:U125"/>
+    <mergeCell ref="V125:W125"/>
+    <mergeCell ref="X125:Y125"/>
+    <mergeCell ref="S127:U127"/>
+    <mergeCell ref="V127:W127"/>
+    <mergeCell ref="X127:Y127"/>
+    <mergeCell ref="S129:U129"/>
+    <mergeCell ref="V129:W129"/>
+    <mergeCell ref="O133:AB134"/>
+    <mergeCell ref="O122:U122"/>
+    <mergeCell ref="V122:W122"/>
+    <mergeCell ref="X122:Y122"/>
+    <mergeCell ref="O123:U123"/>
+    <mergeCell ref="V123:W123"/>
+    <mergeCell ref="X123:Y123"/>
+    <mergeCell ref="O124:U124"/>
+    <mergeCell ref="V124:W124"/>
+    <mergeCell ref="X124:Y124"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="V119:W119"/>
+    <mergeCell ref="X119:Y119"/>
+    <mergeCell ref="O120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="O121:U121"/>
+    <mergeCell ref="V121:W121"/>
+    <mergeCell ref="X121:Y121"/>
+    <mergeCell ref="O116:U116"/>
+    <mergeCell ref="V116:W116"/>
+    <mergeCell ref="X116:Y116"/>
+    <mergeCell ref="O117:U117"/>
+    <mergeCell ref="V117:W117"/>
+    <mergeCell ref="X117:Y117"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="V118:W118"/>
+    <mergeCell ref="X118:Y118"/>
+    <mergeCell ref="O113:U113"/>
+    <mergeCell ref="V113:W113"/>
+    <mergeCell ref="X113:Y113"/>
+    <mergeCell ref="O114:U114"/>
+    <mergeCell ref="V114:W114"/>
+    <mergeCell ref="X114:Y114"/>
+    <mergeCell ref="O115:U115"/>
+    <mergeCell ref="V115:W115"/>
+    <mergeCell ref="X115:Y115"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="V110:W110"/>
+    <mergeCell ref="X110:Y110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="V111:W111"/>
+    <mergeCell ref="X111:Y111"/>
+    <mergeCell ref="O112:U112"/>
+    <mergeCell ref="V112:W112"/>
+    <mergeCell ref="X112:Y112"/>
+    <mergeCell ref="O107:U107"/>
+    <mergeCell ref="V107:W107"/>
+    <mergeCell ref="X107:Y107"/>
+    <mergeCell ref="O108:U108"/>
+    <mergeCell ref="V108:W108"/>
+    <mergeCell ref="X108:Y108"/>
+    <mergeCell ref="O109:U109"/>
+    <mergeCell ref="V109:W109"/>
+    <mergeCell ref="X109:Y109"/>
+    <mergeCell ref="S94:U94"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="S96:U96"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="O100:AB101"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="S104:T104"/>
+    <mergeCell ref="V104:W104"/>
+    <mergeCell ref="O90:U90"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="O91:U91"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="O92:U92"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="O87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="O88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="O89:U89"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="O84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="O85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="O86:U86"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="O81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="O82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="O83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="O78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="O79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="O80:U80"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="O76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="O77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="O67:AB68"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="O55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="O56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="O57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="O52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="O53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="O54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="O49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="O46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="O47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="O48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="O44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="O45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="O34:AB35"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="O41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="E162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="A156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="A158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="A141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="A133:N134"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="A120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A100:N101"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A67:N68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="A42:G42"/>
@@ -3824,555 +4422,6 @@
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A67:N68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A100:N101"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="A109:G109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="A111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="A120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="A133:N134"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="A140:G140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="A141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="A145:G145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="A147:G147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="A149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="A150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="A151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="A152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="E162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="A156:G156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="A157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="A158:G158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="A153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="A154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O34:AB35"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="O41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="O44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="O45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="O46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="O47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="O48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="O49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="O52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="O53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="O54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="O55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="O56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="O57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="O67:AB68"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="O76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="O77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="O78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="O79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="O80:U80"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="O81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="O82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="O83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="O84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="O85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="O86:U86"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="O87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="O88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="O89:U89"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="O90:U90"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="O91:U91"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="O92:U92"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="S94:U94"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="S96:U96"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="O100:AB101"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="S104:T104"/>
-    <mergeCell ref="V104:W104"/>
-    <mergeCell ref="O107:U107"/>
-    <mergeCell ref="V107:W107"/>
-    <mergeCell ref="X107:Y107"/>
-    <mergeCell ref="O108:U108"/>
-    <mergeCell ref="V108:W108"/>
-    <mergeCell ref="X108:Y108"/>
-    <mergeCell ref="O109:U109"/>
-    <mergeCell ref="V109:W109"/>
-    <mergeCell ref="X109:Y109"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="V110:W110"/>
-    <mergeCell ref="X110:Y110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="V111:W111"/>
-    <mergeCell ref="X111:Y111"/>
-    <mergeCell ref="O112:U112"/>
-    <mergeCell ref="V112:W112"/>
-    <mergeCell ref="X112:Y112"/>
-    <mergeCell ref="O113:U113"/>
-    <mergeCell ref="V113:W113"/>
-    <mergeCell ref="X113:Y113"/>
-    <mergeCell ref="O114:U114"/>
-    <mergeCell ref="V114:W114"/>
-    <mergeCell ref="X114:Y114"/>
-    <mergeCell ref="O115:U115"/>
-    <mergeCell ref="V115:W115"/>
-    <mergeCell ref="X115:Y115"/>
-    <mergeCell ref="O116:U116"/>
-    <mergeCell ref="V116:W116"/>
-    <mergeCell ref="X116:Y116"/>
-    <mergeCell ref="O117:U117"/>
-    <mergeCell ref="V117:W117"/>
-    <mergeCell ref="X117:Y117"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="V118:W118"/>
-    <mergeCell ref="X118:Y118"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="V119:W119"/>
-    <mergeCell ref="X119:Y119"/>
-    <mergeCell ref="O120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="O121:U121"/>
-    <mergeCell ref="V121:W121"/>
-    <mergeCell ref="X121:Y121"/>
-    <mergeCell ref="O122:U122"/>
-    <mergeCell ref="V122:W122"/>
-    <mergeCell ref="X122:Y122"/>
-    <mergeCell ref="O123:U123"/>
-    <mergeCell ref="V123:W123"/>
-    <mergeCell ref="X123:Y123"/>
-    <mergeCell ref="O124:U124"/>
-    <mergeCell ref="V124:W124"/>
-    <mergeCell ref="X124:Y124"/>
-    <mergeCell ref="O125:U125"/>
-    <mergeCell ref="V125:W125"/>
-    <mergeCell ref="X125:Y125"/>
-    <mergeCell ref="S127:U127"/>
-    <mergeCell ref="V127:W127"/>
-    <mergeCell ref="X127:Y127"/>
-    <mergeCell ref="S129:U129"/>
-    <mergeCell ref="V129:W129"/>
-    <mergeCell ref="O133:AB134"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="V137:W137"/>
-    <mergeCell ref="O140:U140"/>
-    <mergeCell ref="V140:W140"/>
-    <mergeCell ref="X140:Y140"/>
-    <mergeCell ref="O141:U141"/>
-    <mergeCell ref="V141:W141"/>
-    <mergeCell ref="X141:Y141"/>
-    <mergeCell ref="O142:U142"/>
-    <mergeCell ref="V142:W142"/>
-    <mergeCell ref="X142:Y142"/>
-    <mergeCell ref="O143:U143"/>
-    <mergeCell ref="V143:W143"/>
-    <mergeCell ref="X143:Y143"/>
-    <mergeCell ref="O144:U144"/>
-    <mergeCell ref="V144:W144"/>
-    <mergeCell ref="X144:Y144"/>
-    <mergeCell ref="O145:U145"/>
-    <mergeCell ref="V145:W145"/>
-    <mergeCell ref="X145:Y145"/>
-    <mergeCell ref="O146:U146"/>
-    <mergeCell ref="V146:W146"/>
-    <mergeCell ref="X146:Y146"/>
-    <mergeCell ref="O147:U147"/>
-    <mergeCell ref="V147:W147"/>
-    <mergeCell ref="X147:Y147"/>
-    <mergeCell ref="O148:U148"/>
-    <mergeCell ref="V148:W148"/>
-    <mergeCell ref="X148:Y148"/>
-    <mergeCell ref="O149:U149"/>
-    <mergeCell ref="V149:W149"/>
-    <mergeCell ref="X149:Y149"/>
-    <mergeCell ref="O150:U150"/>
-    <mergeCell ref="V150:W150"/>
-    <mergeCell ref="X150:Y150"/>
-    <mergeCell ref="O151:U151"/>
-    <mergeCell ref="V151:W151"/>
-    <mergeCell ref="X151:Y151"/>
-    <mergeCell ref="O152:U152"/>
-    <mergeCell ref="V152:W152"/>
-    <mergeCell ref="X152:Y152"/>
-    <mergeCell ref="O153:U153"/>
-    <mergeCell ref="V153:W153"/>
-    <mergeCell ref="X153:Y153"/>
-    <mergeCell ref="O154:U154"/>
-    <mergeCell ref="V154:W154"/>
-    <mergeCell ref="X154:Y154"/>
-    <mergeCell ref="O155:U155"/>
-    <mergeCell ref="V155:W155"/>
-    <mergeCell ref="X155:Y155"/>
-    <mergeCell ref="O156:U156"/>
-    <mergeCell ref="V156:W156"/>
-    <mergeCell ref="X156:Y156"/>
-    <mergeCell ref="S162:U162"/>
-    <mergeCell ref="V162:W162"/>
-    <mergeCell ref="O157:U157"/>
-    <mergeCell ref="V157:W157"/>
-    <mergeCell ref="X157:Y157"/>
-    <mergeCell ref="O158:U158"/>
-    <mergeCell ref="V158:W158"/>
-    <mergeCell ref="X158:Y158"/>
-    <mergeCell ref="S160:U160"/>
-    <mergeCell ref="V160:W160"/>
-    <mergeCell ref="X160:Y160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/01_Projektmanagement/Zeiterfassung.xlsx
+++ b/01_Projektmanagement/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svm-c113.hsr.ch\pbuetiko\Documents\GitHub\Semesterarbeit-HS-2017-2018\01_Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svm-c113.hsr.ch\adelay\Documents\SemesterArbeit\Semesterarbeit-HS-2017-2018\01_Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -402,7 +402,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -410,13 +410,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,16 +425,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -446,20 +443,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB162"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="K39" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44:Y44"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,203 +787,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23">
         <f>SUM(H42:I59)</f>
         <v>14.75</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="21">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23">
         <f>SUM(J42:K59)</f>
         <v>14.5</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="21">
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23">
         <f>SUM(H61,J61)</f>
         <v>29.25</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="21">
-        <f>SUM(H75:I92)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="21">
-        <f>SUM(H94,J94)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23">
+        <f>SUM(V42:W59)</f>
+        <v>13.75</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23">
+        <f>SUM(X42:Y59)</f>
+        <v>11.5</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23">
+        <f>SUM(V61,X61)</f>
+        <v>25.25</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -991,18 +994,15 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -1017,11 +1017,14 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="F15" s="28">
+        <f>SUM(J4:L12)</f>
+        <v>54.5</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1094,82 +1097,82 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1203,73 +1206,73 @@
       <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="O38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
       <c r="R38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
       <c r="U38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9" t="s">
+      <c r="I41" s="18"/>
+      <c r="J41" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="O41" s="9" t="s">
+      <c r="K41" s="18"/>
+      <c r="O41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9" t="s">
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9" t="s">
+      <c r="W41" s="18"/>
+      <c r="X41" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Y41" s="9"/>
+      <c r="Y41" s="18"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -1281,14 +1284,14 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="28">
+      <c r="H42" s="12">
         <v>1</v>
       </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="28">
+      <c r="I42" s="13"/>
+      <c r="J42" s="12">
         <v>0.5</v>
       </c>
-      <c r="K42" s="27"/>
+      <c r="K42" s="13"/>
       <c r="O42" s="10" t="s">
         <v>23</v>
       </c>
@@ -1298,14 +1301,14 @@
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
-      <c r="V42" s="28">
+      <c r="V42" s="12">
         <v>1</v>
       </c>
-      <c r="W42" s="27"/>
-      <c r="X42" s="28">
+      <c r="W42" s="13"/>
+      <c r="X42" s="12">
         <v>1</v>
       </c>
-      <c r="Y42" s="27"/>
+      <c r="Y42" s="13"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
@@ -1317,14 +1320,14 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="28">
+      <c r="H43" s="12">
         <v>0.25</v>
       </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28">
+      <c r="I43" s="13"/>
+      <c r="J43" s="12">
         <v>0.25</v>
       </c>
-      <c r="K43" s="27"/>
+      <c r="K43" s="13"/>
       <c r="O43" s="10" t="s">
         <v>24</v>
       </c>
@@ -1334,12 +1337,12 @@
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="28">
+      <c r="V43" s="12"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="12">
         <v>1</v>
       </c>
-      <c r="Y43" s="27"/>
+      <c r="Y43" s="13"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -1351,14 +1354,14 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="28">
+      <c r="H44" s="12">
         <v>2</v>
       </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28">
+      <c r="I44" s="13"/>
+      <c r="J44" s="12">
         <v>7</v>
       </c>
-      <c r="K44" s="27"/>
+      <c r="K44" s="13"/>
       <c r="O44" s="10" t="s">
         <v>25</v>
       </c>
@@ -1368,10 +1371,10 @@
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="27"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="13"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
@@ -1383,14 +1386,14 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="28">
+      <c r="H45" s="12">
         <v>0.5</v>
       </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="28">
+      <c r="I45" s="13"/>
+      <c r="J45" s="12">
         <v>1</v>
       </c>
-      <c r="K45" s="27"/>
+      <c r="K45" s="13"/>
       <c r="O45" s="10" t="s">
         <v>26</v>
       </c>
@@ -1400,12 +1403,12 @@
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="28">
+      <c r="V45" s="12"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="12">
         <v>1</v>
       </c>
-      <c r="Y45" s="27"/>
+      <c r="Y45" s="13"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
@@ -1417,14 +1420,14 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="28">
+      <c r="H46" s="12">
         <v>1</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="28">
+      <c r="I46" s="13"/>
+      <c r="J46" s="12">
         <v>1</v>
       </c>
-      <c r="K46" s="27"/>
+      <c r="K46" s="13"/>
       <c r="O46" s="10" t="s">
         <v>27</v>
       </c>
@@ -1434,12 +1437,12 @@
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
-      <c r="V46" s="28">
-        <v>4</v>
-      </c>
-      <c r="W46" s="27"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="27"/>
+      <c r="V46" s="12">
+        <v>5</v>
+      </c>
+      <c r="W46" s="13"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="13"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
@@ -1451,14 +1454,14 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="28">
+      <c r="H47" s="12">
         <v>3</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="28">
+      <c r="I47" s="13"/>
+      <c r="J47" s="12">
         <v>2</v>
       </c>
-      <c r="K47" s="27"/>
+      <c r="K47" s="13"/>
       <c r="O47" s="10" t="s">
         <v>28</v>
       </c>
@@ -1468,12 +1471,12 @@
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
-      <c r="V47" s="28">
-        <v>4</v>
-      </c>
-      <c r="W47" s="27"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="27"/>
+      <c r="V47" s="12">
+        <v>5</v>
+      </c>
+      <c r="W47" s="13"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="13"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
@@ -1485,14 +1488,14 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="28">
+      <c r="H48" s="12">
         <v>3</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28">
+      <c r="I48" s="13"/>
+      <c r="J48" s="12">
         <v>1</v>
       </c>
-      <c r="K48" s="27"/>
+      <c r="K48" s="13"/>
       <c r="O48" s="10" t="s">
         <v>29</v>
       </c>
@@ -1502,14 +1505,14 @@
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
-      <c r="V48" s="28">
+      <c r="V48" s="12">
         <v>0.25</v>
       </c>
-      <c r="W48" s="27"/>
-      <c r="X48" s="28">
+      <c r="W48" s="13"/>
+      <c r="X48" s="12">
         <v>0.5</v>
       </c>
-      <c r="Y48" s="27"/>
+      <c r="Y48" s="13"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
@@ -1521,14 +1524,14 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="28">
+      <c r="H49" s="12">
         <v>3</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28">
+      <c r="I49" s="13"/>
+      <c r="J49" s="12">
         <v>0.75</v>
       </c>
-      <c r="K49" s="27"/>
+      <c r="K49" s="13"/>
       <c r="O49" s="10" t="s">
         <v>30</v>
       </c>
@@ -1538,12 +1541,12 @@
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
-      <c r="V49" s="28">
+      <c r="V49" s="12">
         <v>1</v>
       </c>
-      <c r="W49" s="27"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="27"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="13"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
@@ -1555,14 +1558,14 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="28">
+      <c r="H50" s="12">
         <v>1</v>
       </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="28">
+      <c r="I50" s="13"/>
+      <c r="J50" s="12">
         <v>1</v>
       </c>
-      <c r="K50" s="27"/>
+      <c r="K50" s="13"/>
       <c r="O50" s="10" t="s">
         <v>59</v>
       </c>
@@ -1572,12 +1575,12 @@
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="28">
+      <c r="V50" s="12"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="12">
         <v>5</v>
       </c>
-      <c r="Y50" s="27"/>
+      <c r="Y50" s="13"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
@@ -1587,10 +1590,10 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="27"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="13"/>
       <c r="O51" s="10" t="s">
         <v>60</v>
       </c>
@@ -1600,12 +1603,12 @@
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="28">
+      <c r="V51" s="12"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="12">
         <v>1.5</v>
       </c>
-      <c r="Y51" s="27"/>
+      <c r="Y51" s="13"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
@@ -1615,10 +1618,10 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="27"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="13"/>
       <c r="O52" s="10" t="s">
         <v>61</v>
       </c>
@@ -1628,14 +1631,14 @@
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
-      <c r="V52" s="28">
+      <c r="V52" s="12">
         <v>1.5</v>
       </c>
-      <c r="W52" s="27"/>
-      <c r="X52" s="28">
+      <c r="W52" s="13"/>
+      <c r="X52" s="12">
         <v>1.5</v>
       </c>
-      <c r="Y52" s="27"/>
+      <c r="Y52" s="13"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
@@ -1645,10 +1648,10 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="27"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="13"/>
       <c r="O53" s="10"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
@@ -1656,10 +1659,10 @@
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="27"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="13"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
@@ -1669,10 +1672,10 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="27"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="13"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
@@ -1680,10 +1683,10 @@
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="27"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="13"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
@@ -1693,10 +1696,10 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="27"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="13"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
@@ -1704,10 +1707,10 @@
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="27"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="13"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
@@ -1717,10 +1720,10 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="27"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="13"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
@@ -1728,10 +1731,10 @@
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="27"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="13"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
@@ -1741,10 +1744,10 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="27"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="13"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
@@ -1752,10 +1755,10 @@
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="27"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="13"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
@@ -1765,10 +1768,10 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="27"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="13"/>
       <c r="O58" s="10" t="s">
         <v>33</v>
       </c>
@@ -1778,10 +1781,10 @@
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="27"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="13"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
@@ -1791,10 +1794,10 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="27"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="13"/>
       <c r="O59" s="10" t="s">
         <v>19</v>
       </c>
@@ -1804,128 +1807,128 @@
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="27"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="13"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="18">
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="9">
         <f>SUM(H42:I59)</f>
         <v>14.75</v>
       </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18">
+      <c r="I61" s="9"/>
+      <c r="J61" s="9">
         <f>SUM(J42:K59)</f>
         <v>14.5</v>
       </c>
-      <c r="K61" s="18"/>
-      <c r="S61" s="15" t="s">
+      <c r="K61" s="9"/>
+      <c r="S61" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T61" s="16"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="18">
+      <c r="T61" s="15"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="9">
         <f>SUM(V42:W59)</f>
-        <v>11.75</v>
-      </c>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18">
+        <v>13.75</v>
+      </c>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9">
         <f>SUM(X42:Y59)</f>
         <v>11.5</v>
       </c>
-      <c r="Y61" s="18"/>
+      <c r="Y61" s="9"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18">
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9">
         <f>SUM(H61,J61)</f>
         <v>29.25</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="S63" s="18" t="s">
+      <c r="I63" s="9"/>
+      <c r="S63" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18">
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9">
         <f>SUM(V61,X61)</f>
-        <v>23.25</v>
-      </c>
-      <c r="W63" s="18"/>
+        <v>25.25</v>
+      </c>
+      <c r="W63" s="9"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
-      <c r="V67" s="13"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="13"/>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="13"/>
-      <c r="AA67" s="13"/>
-      <c r="AB67" s="13"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="19"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="13"/>
-      <c r="AA68" s="13"/>
-      <c r="AB68" s="13"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="19"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -1959,73 +1962,73 @@
       <c r="A71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
       <c r="G71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="O71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
       <c r="R71" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
       <c r="U71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V71" s="12"/>
-      <c r="W71" s="12"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9" t="s">
+      <c r="I74" s="18"/>
+      <c r="J74" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K74" s="9"/>
-      <c r="O74" s="9" t="s">
+      <c r="K74" s="18"/>
+      <c r="O74" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9" t="s">
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
+      <c r="V74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9" t="s">
+      <c r="W74" s="18"/>
+      <c r="X74" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Y74" s="9"/>
+      <c r="Y74" s="18"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
@@ -2037,10 +2040,10 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="27"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="13"/>
       <c r="O75" s="10"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
@@ -2048,10 +2051,10 @@
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
       <c r="U75" s="11"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="27"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="27"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="13"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
@@ -2063,10 +2066,10 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="27"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="13"/>
       <c r="O76" s="10"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
@@ -2074,10 +2077,10 @@
       <c r="S76" s="11"/>
       <c r="T76" s="11"/>
       <c r="U76" s="11"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="27"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="27"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="13"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
@@ -2087,10 +2090,10 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="27"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="13"/>
       <c r="O77" s="10"/>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
@@ -2098,10 +2101,10 @@
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="27"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="27"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="13"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
@@ -2111,10 +2114,10 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="27"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="13"/>
       <c r="O78" s="10"/>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
@@ -2122,10 +2125,10 @@
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
       <c r="U78" s="11"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="27"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="27"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="13"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
@@ -2135,10 +2138,10 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="27"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="13"/>
       <c r="O79" s="10"/>
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
@@ -2146,10 +2149,10 @@
       <c r="S79" s="11"/>
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="27"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="27"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="13"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
@@ -2159,10 +2162,10 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="27"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="13"/>
       <c r="O80" s="10"/>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
@@ -2170,10 +2173,10 @@
       <c r="S80" s="11"/>
       <c r="T80" s="11"/>
       <c r="U80" s="11"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="27"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="27"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="13"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
@@ -2183,10 +2186,10 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="27"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="13"/>
       <c r="O81" s="10"/>
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
@@ -2194,10 +2197,10 @@
       <c r="S81" s="11"/>
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="27"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="13"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
@@ -2207,10 +2210,10 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="27"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="13"/>
       <c r="O82" s="10"/>
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
@@ -2218,10 +2221,10 @@
       <c r="S82" s="11"/>
       <c r="T82" s="11"/>
       <c r="U82" s="11"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="27"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="27"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="13"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
@@ -2231,10 +2234,10 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="27"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="13"/>
       <c r="O83" s="10"/>
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
@@ -2242,10 +2245,10 @@
       <c r="S83" s="11"/>
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="27"/>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="27"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="13"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="13"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
@@ -2255,10 +2258,10 @@
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="27"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="13"/>
       <c r="O84" s="10"/>
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
@@ -2266,10 +2269,10 @@
       <c r="S84" s="11"/>
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
-      <c r="V84" s="28"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="27"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="13"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
@@ -2279,10 +2282,10 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="27"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="13"/>
       <c r="O85" s="10"/>
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
@@ -2290,10 +2293,10 @@
       <c r="S85" s="11"/>
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
-      <c r="V85" s="28"/>
-      <c r="W85" s="27"/>
-      <c r="X85" s="28"/>
-      <c r="Y85" s="27"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="13"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="13"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
@@ -2303,10 +2306,10 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="27"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="13"/>
       <c r="O86" s="10"/>
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
@@ -2314,10 +2317,10 @@
       <c r="S86" s="11"/>
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="27"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="13"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="13"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
@@ -2327,10 +2330,10 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="27"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="13"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
@@ -2338,10 +2341,10 @@
       <c r="S87" s="11"/>
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="27"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="13"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="13"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
@@ -2351,10 +2354,10 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="27"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="13"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
@@ -2362,10 +2365,10 @@
       <c r="S88" s="11"/>
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="27"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="13"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="13"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
@@ -2375,10 +2378,10 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="27"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="13"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
@@ -2386,10 +2389,10 @@
       <c r="S89" s="11"/>
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="27"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="13"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="13"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
@@ -2399,10 +2402,10 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="27"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="13"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
@@ -2410,10 +2413,10 @@
       <c r="S90" s="11"/>
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="27"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="27"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="13"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="13"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
@@ -2423,10 +2426,10 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="27"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="13"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
@@ -2434,10 +2437,10 @@
       <c r="S91" s="11"/>
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="27"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="27"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="13"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="13"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
@@ -2447,10 +2450,10 @@
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="27"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="13"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
@@ -2458,128 +2461,128 @@
       <c r="S92" s="11"/>
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
-      <c r="V92" s="28"/>
-      <c r="W92" s="27"/>
-      <c r="X92" s="28"/>
-      <c r="Y92" s="27"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="13"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="13"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="16"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="18">
+      <c r="F94" s="15"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="9">
         <f>SUM(H75:I92)</f>
         <v>0</v>
       </c>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18">
+      <c r="I94" s="9"/>
+      <c r="J94" s="9">
         <f>SUM(J75:K92)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="18"/>
-      <c r="S94" s="15" t="s">
+      <c r="K94" s="9"/>
+      <c r="S94" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T94" s="16"/>
-      <c r="U94" s="17"/>
-      <c r="V94" s="18">
+      <c r="T94" s="15"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="9">
         <f>SUM(V75:W92)</f>
         <v>0</v>
       </c>
-      <c r="W94" s="18"/>
-      <c r="X94" s="18">
+      <c r="W94" s="9"/>
+      <c r="X94" s="9">
         <f>SUM(X75:Y92)</f>
         <v>0</v>
       </c>
-      <c r="Y94" s="18"/>
+      <c r="Y94" s="9"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9">
         <f>SUM(H94,J94)</f>
         <v>0</v>
       </c>
-      <c r="I96" s="18"/>
-      <c r="S96" s="18" t="s">
+      <c r="I96" s="9"/>
+      <c r="S96" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
-      <c r="V96" s="18">
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9">
         <f>SUM(V94,X94)</f>
         <v>0</v>
       </c>
-      <c r="W96" s="18"/>
+      <c r="W96" s="9"/>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
-      <c r="O100" s="13" t="s">
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P100" s="13"/>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="13"/>
-      <c r="V100" s="13"/>
-      <c r="W100" s="13"/>
-      <c r="X100" s="13"/>
-      <c r="Y100" s="13"/>
-      <c r="Z100" s="13"/>
-      <c r="AA100" s="13"/>
-      <c r="AB100" s="13"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
+      <c r="V100" s="19"/>
+      <c r="W100" s="19"/>
+      <c r="X100" s="19"/>
+      <c r="Y100" s="19"/>
+      <c r="Z100" s="19"/>
+      <c r="AA100" s="19"/>
+      <c r="AB100" s="19"/>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13"/>
-      <c r="Q101" s="13"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="13"/>
-      <c r="T101" s="13"/>
-      <c r="U101" s="13"/>
-      <c r="V101" s="13"/>
-      <c r="W101" s="13"/>
-      <c r="X101" s="13"/>
-      <c r="Y101" s="13"/>
-      <c r="Z101" s="13"/>
-      <c r="AA101" s="13"/>
-      <c r="AB101" s="13"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
+      <c r="V101" s="19"/>
+      <c r="W101" s="19"/>
+      <c r="X101" s="19"/>
+      <c r="Y101" s="19"/>
+      <c r="Z101" s="19"/>
+      <c r="AA101" s="19"/>
+      <c r="AB101" s="19"/>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
@@ -2615,73 +2618,73 @@
       <c r="A104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
       <c r="D104" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
       <c r="G104" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="O104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
       <c r="R104" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="17"/>
       <c r="U104" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V104" s="12"/>
-      <c r="W104" s="12"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="17"/>
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9" t="s">
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9" t="s">
+      <c r="I107" s="18"/>
+      <c r="J107" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K107" s="9"/>
-      <c r="O107" s="9" t="s">
+      <c r="K107" s="18"/>
+      <c r="O107" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P107" s="9"/>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="9"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
-      <c r="U107" s="9"/>
-      <c r="V107" s="9" t="s">
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="18"/>
+      <c r="U107" s="18"/>
+      <c r="V107" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W107" s="9"/>
-      <c r="X107" s="9" t="s">
+      <c r="W107" s="18"/>
+      <c r="X107" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Y107" s="9"/>
+      <c r="Y107" s="18"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
@@ -2693,10 +2696,10 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="27"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="13"/>
       <c r="O108" s="10"/>
       <c r="P108" s="11"/>
       <c r="Q108" s="11"/>
@@ -2704,10 +2707,10 @@
       <c r="S108" s="11"/>
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
-      <c r="V108" s="28"/>
-      <c r="W108" s="27"/>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="27"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="13"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="13"/>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
@@ -2719,10 +2722,10 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="27"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="13"/>
       <c r="O109" s="10"/>
       <c r="P109" s="11"/>
       <c r="Q109" s="11"/>
@@ -2730,10 +2733,10 @@
       <c r="S109" s="11"/>
       <c r="T109" s="11"/>
       <c r="U109" s="11"/>
-      <c r="V109" s="28"/>
-      <c r="W109" s="27"/>
-      <c r="X109" s="28"/>
-      <c r="Y109" s="27"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="13"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="13"/>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
@@ -2745,10 +2748,10 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="27"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="13"/>
       <c r="O110" s="10"/>
       <c r="P110" s="11"/>
       <c r="Q110" s="11"/>
@@ -2756,10 +2759,10 @@
       <c r="S110" s="11"/>
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
-      <c r="V110" s="28"/>
-      <c r="W110" s="27"/>
-      <c r="X110" s="28"/>
-      <c r="Y110" s="27"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="13"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="13"/>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
@@ -2771,10 +2774,10 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="27"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="13"/>
       <c r="O111" s="10"/>
       <c r="P111" s="11"/>
       <c r="Q111" s="11"/>
@@ -2782,10 +2785,10 @@
       <c r="S111" s="11"/>
       <c r="T111" s="11"/>
       <c r="U111" s="11"/>
-      <c r="V111" s="28"/>
-      <c r="W111" s="27"/>
-      <c r="X111" s="28"/>
-      <c r="Y111" s="27"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="13"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="13"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
@@ -2797,10 +2800,10 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="27"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="13"/>
       <c r="O112" s="10"/>
       <c r="P112" s="11"/>
       <c r="Q112" s="11"/>
@@ -2808,10 +2811,10 @@
       <c r="S112" s="11"/>
       <c r="T112" s="11"/>
       <c r="U112" s="11"/>
-      <c r="V112" s="28"/>
-      <c r="W112" s="27"/>
-      <c r="X112" s="28"/>
-      <c r="Y112" s="27"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="13"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="13"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
@@ -2823,10 +2826,10 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="27"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="13"/>
       <c r="O113" s="10"/>
       <c r="P113" s="11"/>
       <c r="Q113" s="11"/>
@@ -2834,10 +2837,10 @@
       <c r="S113" s="11"/>
       <c r="T113" s="11"/>
       <c r="U113" s="11"/>
-      <c r="V113" s="28"/>
-      <c r="W113" s="27"/>
-      <c r="X113" s="28"/>
-      <c r="Y113" s="27"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="13"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="13"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
@@ -2849,10 +2852,10 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="27"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="13"/>
       <c r="O114" s="10"/>
       <c r="P114" s="11"/>
       <c r="Q114" s="11"/>
@@ -2860,10 +2863,10 @@
       <c r="S114" s="11"/>
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
-      <c r="V114" s="28"/>
-      <c r="W114" s="27"/>
-      <c r="X114" s="28"/>
-      <c r="Y114" s="27"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="13"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="13"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
@@ -2873,10 +2876,10 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="27"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="13"/>
       <c r="O115" s="10"/>
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
@@ -2884,10 +2887,10 @@
       <c r="S115" s="11"/>
       <c r="T115" s="11"/>
       <c r="U115" s="11"/>
-      <c r="V115" s="28"/>
-      <c r="W115" s="27"/>
-      <c r="X115" s="28"/>
-      <c r="Y115" s="27"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="13"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="13"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
@@ -2897,10 +2900,10 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="28"/>
-      <c r="K116" s="27"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="13"/>
       <c r="O116" s="10"/>
       <c r="P116" s="11"/>
       <c r="Q116" s="11"/>
@@ -2908,10 +2911,10 @@
       <c r="S116" s="11"/>
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
-      <c r="V116" s="28"/>
-      <c r="W116" s="27"/>
-      <c r="X116" s="28"/>
-      <c r="Y116" s="27"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="13"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="13"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
@@ -2921,10 +2924,10 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="27"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="13"/>
       <c r="O117" s="10"/>
       <c r="P117" s="11"/>
       <c r="Q117" s="11"/>
@@ -2932,10 +2935,10 @@
       <c r="S117" s="11"/>
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
-      <c r="V117" s="28"/>
-      <c r="W117" s="27"/>
-      <c r="X117" s="28"/>
-      <c r="Y117" s="27"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="13"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="13"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
@@ -2945,10 +2948,10 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="27"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="13"/>
       <c r="O118" s="10"/>
       <c r="P118" s="11"/>
       <c r="Q118" s="11"/>
@@ -2956,10 +2959,10 @@
       <c r="S118" s="11"/>
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
-      <c r="V118" s="28"/>
-      <c r="W118" s="27"/>
-      <c r="X118" s="28"/>
-      <c r="Y118" s="27"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="13"/>
+      <c r="X118" s="12"/>
+      <c r="Y118" s="13"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
@@ -2969,10 +2972,10 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="28"/>
-      <c r="K119" s="27"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="13"/>
       <c r="O119" s="10"/>
       <c r="P119" s="11"/>
       <c r="Q119" s="11"/>
@@ -2980,10 +2983,10 @@
       <c r="S119" s="11"/>
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
-      <c r="V119" s="28"/>
-      <c r="W119" s="27"/>
-      <c r="X119" s="28"/>
-      <c r="Y119" s="27"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="13"/>
+      <c r="X119" s="12"/>
+      <c r="Y119" s="13"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
@@ -2993,10 +2996,10 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="27"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="13"/>
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
       <c r="Q120" s="11"/>
@@ -3004,10 +3007,10 @@
       <c r="S120" s="11"/>
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
-      <c r="V120" s="28"/>
-      <c r="W120" s="27"/>
-      <c r="X120" s="28"/>
-      <c r="Y120" s="27"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="13"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="13"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
@@ -3017,10 +3020,10 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="27"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="13"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
       <c r="Q121" s="11"/>
@@ -3028,10 +3031,10 @@
       <c r="S121" s="11"/>
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
-      <c r="V121" s="28"/>
-      <c r="W121" s="27"/>
-      <c r="X121" s="28"/>
-      <c r="Y121" s="27"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="13"/>
+      <c r="X121" s="12"/>
+      <c r="Y121" s="13"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
@@ -3041,10 +3044,10 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="28"/>
-      <c r="K122" s="27"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="13"/>
       <c r="O122" s="11"/>
       <c r="P122" s="11"/>
       <c r="Q122" s="11"/>
@@ -3052,10 +3055,10 @@
       <c r="S122" s="11"/>
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
-      <c r="V122" s="28"/>
-      <c r="W122" s="27"/>
-      <c r="X122" s="28"/>
-      <c r="Y122" s="27"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="13"/>
+      <c r="X122" s="12"/>
+      <c r="Y122" s="13"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
@@ -3065,10 +3068,10 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="28"/>
-      <c r="K123" s="27"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="13"/>
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
       <c r="Q123" s="11"/>
@@ -3076,10 +3079,10 @@
       <c r="S123" s="11"/>
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
-      <c r="V123" s="28"/>
-      <c r="W123" s="27"/>
-      <c r="X123" s="28"/>
-      <c r="Y123" s="27"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="13"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="13"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
@@ -3089,10 +3092,10 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="28"/>
-      <c r="K124" s="27"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="13"/>
       <c r="O124" s="10" t="s">
         <v>42</v>
       </c>
@@ -3102,10 +3105,10 @@
       <c r="S124" s="11"/>
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
-      <c r="V124" s="28"/>
-      <c r="W124" s="27"/>
-      <c r="X124" s="28"/>
-      <c r="Y124" s="27"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="13"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="13"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
@@ -3115,10 +3118,10 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="28"/>
-      <c r="K125" s="27"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="13"/>
       <c r="O125" s="10" t="s">
         <v>19</v>
       </c>
@@ -3128,128 +3131,128 @@
       <c r="S125" s="11"/>
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
-      <c r="V125" s="28"/>
-      <c r="W125" s="27"/>
-      <c r="X125" s="28"/>
-      <c r="Y125" s="27"/>
+      <c r="V125" s="12"/>
+      <c r="W125" s="13"/>
+      <c r="X125" s="12"/>
+      <c r="Y125" s="13"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E127" s="15" t="s">
+      <c r="E127" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F127" s="16"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="18">
+      <c r="F127" s="15"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="9">
         <f>SUM(H108:I125)</f>
         <v>0</v>
       </c>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9">
         <f>SUM(J108:K125)</f>
         <v>0</v>
       </c>
-      <c r="K127" s="18"/>
-      <c r="S127" s="15" t="s">
+      <c r="K127" s="9"/>
+      <c r="S127" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T127" s="16"/>
-      <c r="U127" s="17"/>
-      <c r="V127" s="18">
+      <c r="T127" s="15"/>
+      <c r="U127" s="16"/>
+      <c r="V127" s="9">
         <f>SUM(V108:W125)</f>
         <v>0</v>
       </c>
-      <c r="W127" s="18"/>
-      <c r="X127" s="18">
+      <c r="W127" s="9"/>
+      <c r="X127" s="9">
         <f>SUM(X108:Y125)</f>
         <v>0</v>
       </c>
-      <c r="Y127" s="18"/>
+      <c r="Y127" s="9"/>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E129" s="18" t="s">
+      <c r="E129" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18">
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9">
         <f>SUM(H127,J127)</f>
         <v>0</v>
       </c>
-      <c r="I129" s="18"/>
-      <c r="S129" s="18" t="s">
+      <c r="I129" s="9"/>
+      <c r="S129" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T129" s="18"/>
-      <c r="U129" s="18"/>
-      <c r="V129" s="18">
+      <c r="T129" s="9"/>
+      <c r="U129" s="9"/>
+      <c r="V129" s="9">
         <f>SUM(V127,X127)</f>
         <v>0</v>
       </c>
-      <c r="W129" s="18"/>
+      <c r="W129" s="9"/>
     </row>
     <row r="133" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
-      <c r="M133" s="13"/>
-      <c r="N133" s="13"/>
-      <c r="O133" s="13" t="s">
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="P133" s="13"/>
-      <c r="Q133" s="13"/>
-      <c r="R133" s="13"/>
-      <c r="S133" s="13"/>
-      <c r="T133" s="13"/>
-      <c r="U133" s="13"/>
-      <c r="V133" s="13"/>
-      <c r="W133" s="13"/>
-      <c r="X133" s="13"/>
-      <c r="Y133" s="13"/>
-      <c r="Z133" s="13"/>
-      <c r="AA133" s="13"/>
-      <c r="AB133" s="13"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
+      <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="19"/>
+      <c r="V133" s="19"/>
+      <c r="W133" s="19"/>
+      <c r="X133" s="19"/>
+      <c r="Y133" s="19"/>
+      <c r="Z133" s="19"/>
+      <c r="AA133" s="19"/>
+      <c r="AB133" s="19"/>
     </row>
     <row r="134" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
-      <c r="M134" s="13"/>
-      <c r="N134" s="13"/>
-      <c r="O134" s="13"/>
-      <c r="P134" s="13"/>
-      <c r="Q134" s="13"/>
-      <c r="R134" s="13"/>
-      <c r="S134" s="13"/>
-      <c r="T134" s="13"/>
-      <c r="U134" s="13"/>
-      <c r="V134" s="13"/>
-      <c r="W134" s="13"/>
-      <c r="X134" s="13"/>
-      <c r="Y134" s="13"/>
-      <c r="Z134" s="13"/>
-      <c r="AA134" s="13"/>
-      <c r="AB134" s="13"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="19"/>
+      <c r="T134" s="19"/>
+      <c r="U134" s="19"/>
+      <c r="V134" s="19"/>
+      <c r="W134" s="19"/>
+      <c r="X134" s="19"/>
+      <c r="Y134" s="19"/>
+      <c r="Z134" s="19"/>
+      <c r="AA134" s="19"/>
+      <c r="AB134" s="19"/>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
@@ -3283,73 +3286,73 @@
       <c r="A137" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
       <c r="D137" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
       <c r="G137" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="O137" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P137" s="12"/>
-      <c r="Q137" s="12"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
       <c r="R137" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S137" s="12"/>
-      <c r="T137" s="12"/>
+      <c r="S137" s="17"/>
+      <c r="T137" s="17"/>
       <c r="U137" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V137" s="12"/>
-      <c r="W137" s="12"/>
+      <c r="V137" s="17"/>
+      <c r="W137" s="17"/>
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9" t="s">
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9" t="s">
+      <c r="I140" s="18"/>
+      <c r="J140" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K140" s="9"/>
-      <c r="O140" s="9" t="s">
+      <c r="K140" s="18"/>
+      <c r="O140" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P140" s="9"/>
-      <c r="Q140" s="9"/>
-      <c r="R140" s="9"/>
-      <c r="S140" s="9"/>
-      <c r="T140" s="9"/>
-      <c r="U140" s="9"/>
-      <c r="V140" s="9" t="s">
+      <c r="P140" s="18"/>
+      <c r="Q140" s="18"/>
+      <c r="R140" s="18"/>
+      <c r="S140" s="18"/>
+      <c r="T140" s="18"/>
+      <c r="U140" s="18"/>
+      <c r="V140" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="W140" s="9"/>
-      <c r="X140" s="9" t="s">
+      <c r="W140" s="18"/>
+      <c r="X140" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Y140" s="9"/>
+      <c r="Y140" s="18"/>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
@@ -3361,10 +3364,10 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="28"/>
-      <c r="K141" s="27"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="13"/>
       <c r="O141" s="10"/>
       <c r="P141" s="11"/>
       <c r="Q141" s="11"/>
@@ -3372,10 +3375,10 @@
       <c r="S141" s="11"/>
       <c r="T141" s="11"/>
       <c r="U141" s="11"/>
-      <c r="V141" s="28"/>
-      <c r="W141" s="27"/>
-      <c r="X141" s="28"/>
-      <c r="Y141" s="27"/>
+      <c r="V141" s="12"/>
+      <c r="W141" s="13"/>
+      <c r="X141" s="12"/>
+      <c r="Y141" s="13"/>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
@@ -3385,10 +3388,10 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="28"/>
-      <c r="K142" s="27"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="13"/>
       <c r="O142" s="10"/>
       <c r="P142" s="11"/>
       <c r="Q142" s="11"/>
@@ -3396,10 +3399,10 @@
       <c r="S142" s="11"/>
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
-      <c r="V142" s="28"/>
-      <c r="W142" s="27"/>
-      <c r="X142" s="28"/>
-      <c r="Y142" s="27"/>
+      <c r="V142" s="12"/>
+      <c r="W142" s="13"/>
+      <c r="X142" s="12"/>
+      <c r="Y142" s="13"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
@@ -3409,10 +3412,10 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="27"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="13"/>
       <c r="O143" s="10"/>
       <c r="P143" s="11"/>
       <c r="Q143" s="11"/>
@@ -3420,10 +3423,10 @@
       <c r="S143" s="11"/>
       <c r="T143" s="11"/>
       <c r="U143" s="11"/>
-      <c r="V143" s="28"/>
-      <c r="W143" s="27"/>
-      <c r="X143" s="28"/>
-      <c r="Y143" s="27"/>
+      <c r="V143" s="12"/>
+      <c r="W143" s="13"/>
+      <c r="X143" s="12"/>
+      <c r="Y143" s="13"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
@@ -3435,10 +3438,10 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="28"/>
-      <c r="K144" s="27"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="13"/>
       <c r="O144" s="10"/>
       <c r="P144" s="11"/>
       <c r="Q144" s="11"/>
@@ -3446,10 +3449,10 @@
       <c r="S144" s="11"/>
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
-      <c r="V144" s="28"/>
-      <c r="W144" s="27"/>
-      <c r="X144" s="28"/>
-      <c r="Y144" s="27"/>
+      <c r="V144" s="12"/>
+      <c r="W144" s="13"/>
+      <c r="X144" s="12"/>
+      <c r="Y144" s="13"/>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
@@ -3459,10 +3462,10 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="27"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="13"/>
       <c r="O145" s="10"/>
       <c r="P145" s="11"/>
       <c r="Q145" s="11"/>
@@ -3470,10 +3473,10 @@
       <c r="S145" s="11"/>
       <c r="T145" s="11"/>
       <c r="U145" s="11"/>
-      <c r="V145" s="28"/>
-      <c r="W145" s="27"/>
-      <c r="X145" s="28"/>
-      <c r="Y145" s="27"/>
+      <c r="V145" s="12"/>
+      <c r="W145" s="13"/>
+      <c r="X145" s="12"/>
+      <c r="Y145" s="13"/>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
@@ -3483,10 +3486,10 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="27"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="13"/>
       <c r="O146" s="10"/>
       <c r="P146" s="11"/>
       <c r="Q146" s="11"/>
@@ -3494,10 +3497,10 @@
       <c r="S146" s="11"/>
       <c r="T146" s="11"/>
       <c r="U146" s="11"/>
-      <c r="V146" s="28"/>
-      <c r="W146" s="27"/>
-      <c r="X146" s="28"/>
-      <c r="Y146" s="27"/>
+      <c r="V146" s="12"/>
+      <c r="W146" s="13"/>
+      <c r="X146" s="12"/>
+      <c r="Y146" s="13"/>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
@@ -3507,10 +3510,10 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="27"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="13"/>
       <c r="O147" s="10"/>
       <c r="P147" s="11"/>
       <c r="Q147" s="11"/>
@@ -3518,10 +3521,10 @@
       <c r="S147" s="11"/>
       <c r="T147" s="11"/>
       <c r="U147" s="11"/>
-      <c r="V147" s="28"/>
-      <c r="W147" s="27"/>
-      <c r="X147" s="28"/>
-      <c r="Y147" s="27"/>
+      <c r="V147" s="12"/>
+      <c r="W147" s="13"/>
+      <c r="X147" s="12"/>
+      <c r="Y147" s="13"/>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
@@ -3531,10 +3534,10 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="28"/>
-      <c r="K148" s="27"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="13"/>
       <c r="O148" s="10"/>
       <c r="P148" s="11"/>
       <c r="Q148" s="11"/>
@@ -3542,10 +3545,10 @@
       <c r="S148" s="11"/>
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
-      <c r="V148" s="28"/>
-      <c r="W148" s="27"/>
-      <c r="X148" s="28"/>
-      <c r="Y148" s="27"/>
+      <c r="V148" s="12"/>
+      <c r="W148" s="13"/>
+      <c r="X148" s="12"/>
+      <c r="Y148" s="13"/>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
@@ -3555,10 +3558,10 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="28"/>
-      <c r="K149" s="27"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="13"/>
       <c r="O149" s="10"/>
       <c r="P149" s="11"/>
       <c r="Q149" s="11"/>
@@ -3566,10 +3569,10 @@
       <c r="S149" s="11"/>
       <c r="T149" s="11"/>
       <c r="U149" s="11"/>
-      <c r="V149" s="28"/>
-      <c r="W149" s="27"/>
-      <c r="X149" s="28"/>
-      <c r="Y149" s="27"/>
+      <c r="V149" s="12"/>
+      <c r="W149" s="13"/>
+      <c r="X149" s="12"/>
+      <c r="Y149" s="13"/>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
@@ -3579,10 +3582,10 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="28"/>
-      <c r="K150" s="27"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="13"/>
       <c r="O150" s="10"/>
       <c r="P150" s="11"/>
       <c r="Q150" s="11"/>
@@ -3590,10 +3593,10 @@
       <c r="S150" s="11"/>
       <c r="T150" s="11"/>
       <c r="U150" s="11"/>
-      <c r="V150" s="28"/>
-      <c r="W150" s="27"/>
-      <c r="X150" s="28"/>
-      <c r="Y150" s="27"/>
+      <c r="V150" s="12"/>
+      <c r="W150" s="13"/>
+      <c r="X150" s="12"/>
+      <c r="Y150" s="13"/>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
@@ -3603,10 +3606,10 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
-      <c r="H151" s="28"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="28"/>
-      <c r="K151" s="27"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="13"/>
       <c r="O151" s="10"/>
       <c r="P151" s="11"/>
       <c r="Q151" s="11"/>
@@ -3614,10 +3617,10 @@
       <c r="S151" s="11"/>
       <c r="T151" s="11"/>
       <c r="U151" s="11"/>
-      <c r="V151" s="28"/>
-      <c r="W151" s="27"/>
-      <c r="X151" s="28"/>
-      <c r="Y151" s="27"/>
+      <c r="V151" s="12"/>
+      <c r="W151" s="13"/>
+      <c r="X151" s="12"/>
+      <c r="Y151" s="13"/>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
@@ -3627,10 +3630,10 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
-      <c r="H152" s="28"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="28"/>
-      <c r="K152" s="27"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="13"/>
       <c r="O152" s="10"/>
       <c r="P152" s="11"/>
       <c r="Q152" s="11"/>
@@ -3638,10 +3641,10 @@
       <c r="S152" s="11"/>
       <c r="T152" s="11"/>
       <c r="U152" s="11"/>
-      <c r="V152" s="28"/>
-      <c r="W152" s="27"/>
-      <c r="X152" s="28"/>
-      <c r="Y152" s="27"/>
+      <c r="V152" s="12"/>
+      <c r="W152" s="13"/>
+      <c r="X152" s="12"/>
+      <c r="Y152" s="13"/>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
@@ -3651,10 +3654,10 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
-      <c r="H153" s="28"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="28"/>
-      <c r="K153" s="27"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="13"/>
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
       <c r="Q153" s="11"/>
@@ -3662,10 +3665,10 @@
       <c r="S153" s="11"/>
       <c r="T153" s="11"/>
       <c r="U153" s="11"/>
-      <c r="V153" s="28"/>
-      <c r="W153" s="27"/>
-      <c r="X153" s="28"/>
-      <c r="Y153" s="27"/>
+      <c r="V153" s="12"/>
+      <c r="W153" s="13"/>
+      <c r="X153" s="12"/>
+      <c r="Y153" s="13"/>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
@@ -3675,10 +3678,10 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
-      <c r="H154" s="28"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="28"/>
-      <c r="K154" s="27"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="13"/>
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
       <c r="Q154" s="11"/>
@@ -3686,10 +3689,10 @@
       <c r="S154" s="11"/>
       <c r="T154" s="11"/>
       <c r="U154" s="11"/>
-      <c r="V154" s="28"/>
-      <c r="W154" s="27"/>
-      <c r="X154" s="28"/>
-      <c r="Y154" s="27"/>
+      <c r="V154" s="12"/>
+      <c r="W154" s="13"/>
+      <c r="X154" s="12"/>
+      <c r="Y154" s="13"/>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
@@ -3699,10 +3702,10 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
-      <c r="H155" s="28"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="28"/>
-      <c r="K155" s="27"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="13"/>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
       <c r="Q155" s="11"/>
@@ -3710,10 +3713,10 @@
       <c r="S155" s="11"/>
       <c r="T155" s="11"/>
       <c r="U155" s="11"/>
-      <c r="V155" s="28"/>
-      <c r="W155" s="27"/>
-      <c r="X155" s="28"/>
-      <c r="Y155" s="27"/>
+      <c r="V155" s="12"/>
+      <c r="W155" s="13"/>
+      <c r="X155" s="12"/>
+      <c r="Y155" s="13"/>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
@@ -3723,10 +3726,10 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
-      <c r="H156" s="28"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="28"/>
-      <c r="K156" s="27"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="13"/>
       <c r="O156" s="11"/>
       <c r="P156" s="11"/>
       <c r="Q156" s="11"/>
@@ -3734,10 +3737,10 @@
       <c r="S156" s="11"/>
       <c r="T156" s="11"/>
       <c r="U156" s="11"/>
-      <c r="V156" s="28"/>
-      <c r="W156" s="27"/>
-      <c r="X156" s="28"/>
-      <c r="Y156" s="27"/>
+      <c r="V156" s="12"/>
+      <c r="W156" s="13"/>
+      <c r="X156" s="12"/>
+      <c r="Y156" s="13"/>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
@@ -3749,10 +3752,10 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
-      <c r="H157" s="28"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="28"/>
-      <c r="K157" s="27"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="13"/>
       <c r="O157" s="10" t="s">
         <v>42</v>
       </c>
@@ -3762,10 +3765,10 @@
       <c r="S157" s="11"/>
       <c r="T157" s="11"/>
       <c r="U157" s="11"/>
-      <c r="V157" s="28"/>
-      <c r="W157" s="27"/>
-      <c r="X157" s="28"/>
-      <c r="Y157" s="27"/>
+      <c r="V157" s="12"/>
+      <c r="W157" s="13"/>
+      <c r="X157" s="12"/>
+      <c r="Y157" s="13"/>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
@@ -3777,10 +3780,10 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="28"/>
-      <c r="K158" s="27"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="13"/>
       <c r="O158" s="10"/>
       <c r="P158" s="11"/>
       <c r="Q158" s="11"/>
@@ -3788,345 +3791,338 @@
       <c r="S158" s="11"/>
       <c r="T158" s="11"/>
       <c r="U158" s="11"/>
-      <c r="V158" s="28"/>
-      <c r="W158" s="27"/>
-      <c r="X158" s="28"/>
-      <c r="Y158" s="27"/>
+      <c r="V158" s="12"/>
+      <c r="W158" s="13"/>
+      <c r="X158" s="12"/>
+      <c r="Y158" s="13"/>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E160" s="15" t="s">
+      <c r="E160" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F160" s="16"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="18">
+      <c r="F160" s="15"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="9">
         <f>SUM(H141:I158)</f>
         <v>0</v>
       </c>
-      <c r="I160" s="18"/>
-      <c r="J160" s="18">
+      <c r="I160" s="9"/>
+      <c r="J160" s="9">
         <f>SUM(J141:K158)</f>
         <v>0</v>
       </c>
-      <c r="K160" s="18"/>
-      <c r="S160" s="15" t="s">
+      <c r="K160" s="9"/>
+      <c r="S160" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T160" s="16"/>
-      <c r="U160" s="17"/>
-      <c r="V160" s="18">
+      <c r="T160" s="15"/>
+      <c r="U160" s="16"/>
+      <c r="V160" s="9">
         <f>SUM(V141:W158)</f>
         <v>0</v>
       </c>
-      <c r="W160" s="18"/>
-      <c r="X160" s="18">
+      <c r="W160" s="9"/>
+      <c r="X160" s="9">
         <f>SUM(X141:Y158)</f>
         <v>0</v>
       </c>
-      <c r="Y160" s="18"/>
+      <c r="Y160" s="9"/>
     </row>
     <row r="162" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E162" s="18" t="s">
+      <c r="E162" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18">
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9">
         <f>SUM(H160,J160)</f>
         <v>0</v>
       </c>
-      <c r="I162" s="18"/>
-      <c r="S162" s="18" t="s">
+      <c r="I162" s="9"/>
+      <c r="S162" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T162" s="18"/>
-      <c r="U162" s="18"/>
-      <c r="V162" s="18">
+      <c r="T162" s="9"/>
+      <c r="U162" s="9"/>
+      <c r="V162" s="9">
         <f>SUM(V160,X160)</f>
         <v>0</v>
       </c>
-      <c r="W162" s="18"/>
+      <c r="W162" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="573">
-    <mergeCell ref="S162:U162"/>
-    <mergeCell ref="V162:W162"/>
-    <mergeCell ref="O157:U157"/>
-    <mergeCell ref="V157:W157"/>
-    <mergeCell ref="X157:Y157"/>
-    <mergeCell ref="O158:U158"/>
-    <mergeCell ref="V158:W158"/>
-    <mergeCell ref="X158:Y158"/>
-    <mergeCell ref="S160:U160"/>
-    <mergeCell ref="V160:W160"/>
-    <mergeCell ref="X160:Y160"/>
-    <mergeCell ref="O154:U154"/>
-    <mergeCell ref="V154:W154"/>
-    <mergeCell ref="X154:Y154"/>
-    <mergeCell ref="O155:U155"/>
-    <mergeCell ref="V155:W155"/>
-    <mergeCell ref="X155:Y155"/>
-    <mergeCell ref="O156:U156"/>
-    <mergeCell ref="V156:W156"/>
-    <mergeCell ref="X156:Y156"/>
-    <mergeCell ref="O151:U151"/>
-    <mergeCell ref="V151:W151"/>
-    <mergeCell ref="X151:Y151"/>
-    <mergeCell ref="O152:U152"/>
-    <mergeCell ref="V152:W152"/>
-    <mergeCell ref="X152:Y152"/>
-    <mergeCell ref="O153:U153"/>
-    <mergeCell ref="V153:W153"/>
-    <mergeCell ref="X153:Y153"/>
-    <mergeCell ref="O148:U148"/>
-    <mergeCell ref="V148:W148"/>
-    <mergeCell ref="X148:Y148"/>
-    <mergeCell ref="O149:U149"/>
-    <mergeCell ref="V149:W149"/>
-    <mergeCell ref="X149:Y149"/>
-    <mergeCell ref="O150:U150"/>
-    <mergeCell ref="V150:W150"/>
-    <mergeCell ref="X150:Y150"/>
-    <mergeCell ref="O145:U145"/>
-    <mergeCell ref="V145:W145"/>
-    <mergeCell ref="X145:Y145"/>
-    <mergeCell ref="O146:U146"/>
-    <mergeCell ref="V146:W146"/>
-    <mergeCell ref="X146:Y146"/>
-    <mergeCell ref="O147:U147"/>
-    <mergeCell ref="V147:W147"/>
-    <mergeCell ref="X147:Y147"/>
-    <mergeCell ref="O142:U142"/>
-    <mergeCell ref="V142:W142"/>
-    <mergeCell ref="X142:Y142"/>
-    <mergeCell ref="O143:U143"/>
-    <mergeCell ref="V143:W143"/>
-    <mergeCell ref="X143:Y143"/>
-    <mergeCell ref="O144:U144"/>
-    <mergeCell ref="V144:W144"/>
-    <mergeCell ref="X144:Y144"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="V137:W137"/>
-    <mergeCell ref="O140:U140"/>
-    <mergeCell ref="V140:W140"/>
-    <mergeCell ref="X140:Y140"/>
-    <mergeCell ref="O141:U141"/>
-    <mergeCell ref="V141:W141"/>
-    <mergeCell ref="X141:Y141"/>
-    <mergeCell ref="O125:U125"/>
-    <mergeCell ref="V125:W125"/>
-    <mergeCell ref="X125:Y125"/>
-    <mergeCell ref="S127:U127"/>
-    <mergeCell ref="V127:W127"/>
-    <mergeCell ref="X127:Y127"/>
-    <mergeCell ref="S129:U129"/>
-    <mergeCell ref="V129:W129"/>
-    <mergeCell ref="O133:AB134"/>
-    <mergeCell ref="O122:U122"/>
-    <mergeCell ref="V122:W122"/>
-    <mergeCell ref="X122:Y122"/>
-    <mergeCell ref="O123:U123"/>
-    <mergeCell ref="V123:W123"/>
-    <mergeCell ref="X123:Y123"/>
-    <mergeCell ref="O124:U124"/>
-    <mergeCell ref="V124:W124"/>
-    <mergeCell ref="X124:Y124"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="V119:W119"/>
-    <mergeCell ref="X119:Y119"/>
-    <mergeCell ref="O120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="O121:U121"/>
-    <mergeCell ref="V121:W121"/>
-    <mergeCell ref="X121:Y121"/>
-    <mergeCell ref="O116:U116"/>
-    <mergeCell ref="V116:W116"/>
-    <mergeCell ref="X116:Y116"/>
-    <mergeCell ref="O117:U117"/>
-    <mergeCell ref="V117:W117"/>
-    <mergeCell ref="X117:Y117"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="V118:W118"/>
-    <mergeCell ref="X118:Y118"/>
-    <mergeCell ref="O113:U113"/>
-    <mergeCell ref="V113:W113"/>
-    <mergeCell ref="X113:Y113"/>
-    <mergeCell ref="O114:U114"/>
-    <mergeCell ref="V114:W114"/>
-    <mergeCell ref="X114:Y114"/>
-    <mergeCell ref="O115:U115"/>
-    <mergeCell ref="V115:W115"/>
-    <mergeCell ref="X115:Y115"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="V110:W110"/>
-    <mergeCell ref="X110:Y110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="V111:W111"/>
-    <mergeCell ref="X111:Y111"/>
-    <mergeCell ref="O112:U112"/>
-    <mergeCell ref="V112:W112"/>
-    <mergeCell ref="X112:Y112"/>
-    <mergeCell ref="O107:U107"/>
-    <mergeCell ref="V107:W107"/>
-    <mergeCell ref="X107:Y107"/>
-    <mergeCell ref="O108:U108"/>
-    <mergeCell ref="V108:W108"/>
-    <mergeCell ref="X108:Y108"/>
-    <mergeCell ref="O109:U109"/>
-    <mergeCell ref="V109:W109"/>
-    <mergeCell ref="X109:Y109"/>
-    <mergeCell ref="S94:U94"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="S96:U96"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="O100:AB101"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="S104:T104"/>
-    <mergeCell ref="V104:W104"/>
-    <mergeCell ref="O90:U90"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="O91:U91"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="O92:U92"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="O87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="O88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="O89:U89"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="O84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="O85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="O86:U86"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="O81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="O82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="O83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="O78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="O79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="O80:U80"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="O76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="O77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="O67:AB68"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="O55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="O56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="O57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="O52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="O53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="O54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="O49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="O46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="O47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="O48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="O44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="O45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="O34:AB35"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="O41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A34:N35"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A67:N68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A100:N101"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="A120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="A133:N134"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="A141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:I12"/>
@@ -4151,277 +4147,284 @@
     <mergeCell ref="J153:K153"/>
     <mergeCell ref="A154:G154"/>
     <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="A150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="A151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="A152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="A147:G147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="A149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="A145:G145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="A141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="A133:N134"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="A140:G140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="A120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="A109:G109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="A111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A100:N101"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A67:N68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A34:N35"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O34:AB35"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="O41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="O44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="O45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="O46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="O47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="O48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="O49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="O52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="O53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="O54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="O55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="O56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="O57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="O67:AB68"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="O76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="O77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="O78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="O79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="O80:U80"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="O81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="O82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="O83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="O84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="O85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="O86:U86"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="O87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="O88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="O89:U89"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="O90:U90"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="O91:U91"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="O92:U92"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="S94:U94"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="S96:U96"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="O100:AB101"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="S104:T104"/>
+    <mergeCell ref="V104:W104"/>
+    <mergeCell ref="O107:U107"/>
+    <mergeCell ref="V107:W107"/>
+    <mergeCell ref="X107:Y107"/>
+    <mergeCell ref="O108:U108"/>
+    <mergeCell ref="V108:W108"/>
+    <mergeCell ref="X108:Y108"/>
+    <mergeCell ref="O109:U109"/>
+    <mergeCell ref="V109:W109"/>
+    <mergeCell ref="X109:Y109"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="V110:W110"/>
+    <mergeCell ref="X110:Y110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="V111:W111"/>
+    <mergeCell ref="X111:Y111"/>
+    <mergeCell ref="O112:U112"/>
+    <mergeCell ref="V112:W112"/>
+    <mergeCell ref="X112:Y112"/>
+    <mergeCell ref="O113:U113"/>
+    <mergeCell ref="V113:W113"/>
+    <mergeCell ref="X113:Y113"/>
+    <mergeCell ref="O114:U114"/>
+    <mergeCell ref="V114:W114"/>
+    <mergeCell ref="X114:Y114"/>
+    <mergeCell ref="O115:U115"/>
+    <mergeCell ref="V115:W115"/>
+    <mergeCell ref="X115:Y115"/>
+    <mergeCell ref="O116:U116"/>
+    <mergeCell ref="V116:W116"/>
+    <mergeCell ref="X116:Y116"/>
+    <mergeCell ref="O117:U117"/>
+    <mergeCell ref="V117:W117"/>
+    <mergeCell ref="X117:Y117"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="V118:W118"/>
+    <mergeCell ref="X118:Y118"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="V119:W119"/>
+    <mergeCell ref="X119:Y119"/>
+    <mergeCell ref="O120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="O121:U121"/>
+    <mergeCell ref="V121:W121"/>
+    <mergeCell ref="X121:Y121"/>
+    <mergeCell ref="O122:U122"/>
+    <mergeCell ref="V122:W122"/>
+    <mergeCell ref="X122:Y122"/>
+    <mergeCell ref="O123:U123"/>
+    <mergeCell ref="V123:W123"/>
+    <mergeCell ref="X123:Y123"/>
+    <mergeCell ref="O124:U124"/>
+    <mergeCell ref="V124:W124"/>
+    <mergeCell ref="X124:Y124"/>
+    <mergeCell ref="O125:U125"/>
+    <mergeCell ref="V125:W125"/>
+    <mergeCell ref="X125:Y125"/>
+    <mergeCell ref="S127:U127"/>
+    <mergeCell ref="V127:W127"/>
+    <mergeCell ref="X127:Y127"/>
+    <mergeCell ref="S129:U129"/>
+    <mergeCell ref="V129:W129"/>
+    <mergeCell ref="O133:AB134"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="V137:W137"/>
+    <mergeCell ref="O140:U140"/>
+    <mergeCell ref="V140:W140"/>
+    <mergeCell ref="X140:Y140"/>
+    <mergeCell ref="O141:U141"/>
+    <mergeCell ref="V141:W141"/>
+    <mergeCell ref="X141:Y141"/>
+    <mergeCell ref="O142:U142"/>
+    <mergeCell ref="V142:W142"/>
+    <mergeCell ref="X142:Y142"/>
+    <mergeCell ref="O143:U143"/>
+    <mergeCell ref="V143:W143"/>
+    <mergeCell ref="X143:Y143"/>
+    <mergeCell ref="O144:U144"/>
+    <mergeCell ref="V144:W144"/>
+    <mergeCell ref="X144:Y144"/>
+    <mergeCell ref="O145:U145"/>
+    <mergeCell ref="V145:W145"/>
+    <mergeCell ref="X145:Y145"/>
+    <mergeCell ref="O146:U146"/>
+    <mergeCell ref="V146:W146"/>
+    <mergeCell ref="X146:Y146"/>
+    <mergeCell ref="O147:U147"/>
+    <mergeCell ref="V147:W147"/>
+    <mergeCell ref="X147:Y147"/>
+    <mergeCell ref="O148:U148"/>
+    <mergeCell ref="V148:W148"/>
+    <mergeCell ref="X148:Y148"/>
+    <mergeCell ref="O149:U149"/>
+    <mergeCell ref="V149:W149"/>
+    <mergeCell ref="X149:Y149"/>
+    <mergeCell ref="O150:U150"/>
+    <mergeCell ref="V150:W150"/>
+    <mergeCell ref="X150:Y150"/>
+    <mergeCell ref="O151:U151"/>
+    <mergeCell ref="V151:W151"/>
+    <mergeCell ref="X151:Y151"/>
+    <mergeCell ref="O152:U152"/>
+    <mergeCell ref="V152:W152"/>
+    <mergeCell ref="X152:Y152"/>
+    <mergeCell ref="O153:U153"/>
+    <mergeCell ref="V153:W153"/>
+    <mergeCell ref="X153:Y153"/>
+    <mergeCell ref="O154:U154"/>
+    <mergeCell ref="V154:W154"/>
+    <mergeCell ref="X154:Y154"/>
+    <mergeCell ref="O155:U155"/>
+    <mergeCell ref="V155:W155"/>
+    <mergeCell ref="X155:Y155"/>
+    <mergeCell ref="O156:U156"/>
+    <mergeCell ref="V156:W156"/>
+    <mergeCell ref="X156:Y156"/>
+    <mergeCell ref="S162:U162"/>
+    <mergeCell ref="V162:W162"/>
+    <mergeCell ref="O157:U157"/>
+    <mergeCell ref="V157:W157"/>
+    <mergeCell ref="X157:Y157"/>
+    <mergeCell ref="O158:U158"/>
+    <mergeCell ref="V158:W158"/>
+    <mergeCell ref="X158:Y158"/>
+    <mergeCell ref="S160:U160"/>
+    <mergeCell ref="V160:W160"/>
+    <mergeCell ref="X160:Y160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/01_Projektmanagement/Zeiterfassung.xlsx
+++ b/01_Projektmanagement/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svm-c113.hsr.ch\adelay\Documents\SemesterArbeit\Semesterarbeit-HS-2017-2018\01_Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svm-c113.hsr.ch\pbuetiko\Documents\GitHub\Semesterarbeit-HS-2017-2018\01_Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB164"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A93" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:G113"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A61" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="X79" sqref="X79:Y79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,19 +934,19 @@
       <c r="C5" s="25"/>
       <c r="D5" s="23">
         <f>SUM(H42:I59)</f>
-        <v>14.75</v>
+        <v>17.75</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="25"/>
       <c r="G5" s="23">
         <f>SUM(J42:K59)</f>
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="25"/>
       <c r="J5" s="23">
         <f>SUM(H61,J61)</f>
-        <v>29.25</v>
+        <v>36.25</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="25"/>
@@ -959,19 +959,19 @@
       <c r="C6" s="25"/>
       <c r="D6" s="23">
         <f>SUM(V42:W59)</f>
-        <v>31.25</v>
+        <v>33.25</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
       <c r="G6" s="23">
         <f>SUM(X42:Y59)</f>
-        <v>27.75</v>
+        <v>33.75</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
       <c r="J6" s="23">
         <f>SUM(V61,X61)</f>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="25"/>
@@ -984,19 +984,19 @@
       <c r="C7" s="25"/>
       <c r="D7" s="23">
         <f>SUM(H75:I90)</f>
-        <v>35.75</v>
+        <v>37.75</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
       <c r="G7" s="23">
         <f>SUM(J75:K90)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="25"/>
       <c r="J7" s="23">
         <f>SUM(H92,J92)</f>
-        <v>70.75</v>
+        <v>74.75</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
@@ -1007,13 +1007,22 @@
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="23">
+        <f>SUM(V94)</f>
+        <v>33</v>
+      </c>
       <c r="E8" s="24"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="23"/>
+      <c r="G8" s="23">
+        <f>SUM(X94)</f>
+        <v>33</v>
+      </c>
       <c r="H8" s="24"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="23"/>
+      <c r="J8" s="23">
+        <f>SUM(G8,D8)</f>
+        <v>66</v>
+      </c>
       <c r="K8" s="24"/>
       <c r="L8" s="25"/>
     </row>
@@ -1112,7 +1121,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="28">
         <f>SUM(J4:L12)</f>
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1497,11 +1506,11 @@
       <c r="T45" s="12"/>
       <c r="U45" s="11"/>
       <c r="V45" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W45" s="11"/>
       <c r="X45" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y45" s="11"/>
     </row>
@@ -1537,7 +1546,7 @@
       </c>
       <c r="W46" s="11"/>
       <c r="X46" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y46" s="11"/>
     </row>
@@ -1588,11 +1597,11 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K48" s="11"/>
       <c r="O48" s="10" t="s">
@@ -1641,11 +1650,11 @@
       <c r="T49" s="12"/>
       <c r="U49" s="11"/>
       <c r="V49" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W49" s="11"/>
       <c r="X49" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y49" s="11"/>
     </row>
@@ -1937,12 +1946,12 @@
       <c r="G61" s="17"/>
       <c r="H61" s="13">
         <f>SUM(H42:I59)</f>
-        <v>14.75</v>
+        <v>17.75</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="13">
         <f>SUM(J42:K59)</f>
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="K61" s="13"/>
       <c r="S61" s="15" t="s">
@@ -1952,12 +1961,12 @@
       <c r="U61" s="17"/>
       <c r="V61" s="13">
         <f>SUM(V42:W59)</f>
-        <v>31.25</v>
+        <v>33.25</v>
       </c>
       <c r="W61" s="13"/>
       <c r="X61" s="13">
         <f>SUM(X42:Y59)</f>
-        <v>27.75</v>
+        <v>33.75</v>
       </c>
       <c r="Y61" s="13"/>
     </row>
@@ -1969,7 +1978,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13">
         <f>SUM(H61,J61)</f>
-        <v>29.25</v>
+        <v>36.25</v>
       </c>
       <c r="I63" s="13"/>
       <c r="S63" s="13" t="s">
@@ -1979,7 +1988,7 @@
       <c r="U63" s="13"/>
       <c r="V63" s="13">
         <f>SUM(V61,X61)</f>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="W63" s="13"/>
     </row>
@@ -2170,7 +2179,7 @@
       </c>
       <c r="I75" s="11"/>
       <c r="J75" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" s="11"/>
       <c r="O75" s="21" t="s">
@@ -2182,9 +2191,13 @@
       <c r="S75" s="14"/>
       <c r="T75" s="14"/>
       <c r="U75" s="14"/>
-      <c r="V75" s="10"/>
+      <c r="V75" s="10">
+        <v>5</v>
+      </c>
       <c r="W75" s="11"/>
-      <c r="X75" s="10"/>
+      <c r="X75" s="10">
+        <v>1</v>
+      </c>
       <c r="Y75" s="11"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -2198,11 +2211,11 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K76" s="11"/>
       <c r="O76" s="21" t="s">
@@ -2214,9 +2227,13 @@
       <c r="S76" s="14"/>
       <c r="T76" s="14"/>
       <c r="U76" s="14"/>
-      <c r="V76" s="10"/>
+      <c r="V76" s="10">
+        <v>24</v>
+      </c>
       <c r="W76" s="11"/>
-      <c r="X76" s="10"/>
+      <c r="X76" s="10">
+        <v>12</v>
+      </c>
       <c r="Y76" s="11"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -2248,7 +2265,9 @@
       <c r="U77" s="14"/>
       <c r="V77" s="10"/>
       <c r="W77" s="11"/>
-      <c r="X77" s="10"/>
+      <c r="X77" s="10">
+        <v>3</v>
+      </c>
       <c r="Y77" s="11"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -2262,7 +2281,7 @@
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
       <c r="H78" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="10">
@@ -2310,7 +2329,9 @@
       <c r="U79" s="14"/>
       <c r="V79" s="10"/>
       <c r="W79" s="11"/>
-      <c r="X79" s="10"/>
+      <c r="X79" s="10">
+        <v>2</v>
+      </c>
       <c r="Y79" s="11"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
@@ -2342,7 +2363,9 @@
       <c r="U80" s="14"/>
       <c r="V80" s="10"/>
       <c r="W80" s="11"/>
-      <c r="X80" s="10"/>
+      <c r="X80" s="10">
+        <v>5</v>
+      </c>
       <c r="Y80" s="11"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
@@ -2518,7 +2541,9 @@
       <c r="U86" s="14"/>
       <c r="V86" s="10"/>
       <c r="W86" s="11"/>
-      <c r="X86" s="10"/>
+      <c r="X86" s="10">
+        <v>3</v>
+      </c>
       <c r="Y86" s="11"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -2544,7 +2569,9 @@
       <c r="U87" s="14"/>
       <c r="V87" s="10"/>
       <c r="W87" s="11"/>
-      <c r="X87" s="10"/>
+      <c r="X87" s="10">
+        <v>2</v>
+      </c>
       <c r="Y87" s="11"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
@@ -2570,7 +2597,9 @@
       <c r="U88" s="14"/>
       <c r="V88" s="10"/>
       <c r="W88" s="11"/>
-      <c r="X88" s="10"/>
+      <c r="X88" s="10">
+        <v>2</v>
+      </c>
       <c r="Y88" s="11"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
@@ -2602,7 +2631,9 @@
       <c r="U89" s="14"/>
       <c r="V89" s="10"/>
       <c r="W89" s="11"/>
-      <c r="X89" s="10"/>
+      <c r="X89" s="10">
+        <v>2</v>
+      </c>
       <c r="Y89" s="11"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -2645,9 +2676,13 @@
       <c r="S91" s="14"/>
       <c r="T91" s="14"/>
       <c r="U91" s="14"/>
-      <c r="V91" s="10"/>
+      <c r="V91" s="10">
+        <v>1</v>
+      </c>
       <c r="W91" s="11"/>
-      <c r="X91" s="10"/>
+      <c r="X91" s="10">
+        <v>1</v>
+      </c>
       <c r="Y91" s="11"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
@@ -2658,12 +2693,12 @@
       <c r="G92" s="17"/>
       <c r="H92" s="13">
         <f>SUM(H75:I90)</f>
-        <v>35.75</v>
+        <v>37.75</v>
       </c>
       <c r="I92" s="13"/>
       <c r="J92" s="13">
         <f>SUM(J75:K90)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K92" s="13"/>
       <c r="O92" s="21" t="s">
@@ -2675,7 +2710,9 @@
       <c r="S92" s="14"/>
       <c r="T92" s="14"/>
       <c r="U92" s="14"/>
-      <c r="V92" s="10"/>
+      <c r="V92" s="10">
+        <v>3</v>
+      </c>
       <c r="W92" s="11"/>
       <c r="X92" s="10"/>
       <c r="Y92" s="11"/>
@@ -2688,7 +2725,7 @@
       <c r="G94" s="13"/>
       <c r="H94" s="13">
         <f>SUM(H92,J92)</f>
-        <v>70.75</v>
+        <v>74.75</v>
       </c>
       <c r="I94" s="13"/>
       <c r="S94" s="15" t="s">
@@ -2698,12 +2735,12 @@
       <c r="U94" s="17"/>
       <c r="V94" s="13">
         <f>SUM(V75:W92)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="W94" s="13"/>
       <c r="X94" s="13">
         <f>SUM(X75:Y92)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Y94" s="13"/>
     </row>
@@ -2715,7 +2752,7 @@
       <c r="U98" s="13"/>
       <c r="V98" s="13">
         <f>SUM(V94,X94)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="W98" s="13"/>
     </row>
@@ -4107,6 +4144,8 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="A42:G42"/>
@@ -4117,8 +4156,6 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="A34:N35"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="G11:I11"/>

--- a/01_Projektmanagement/Zeiterfassung.xlsx
+++ b/01_Projektmanagement/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svm-c113.hsr.ch\pbuetiko\Documents\GitHub\Semesterarbeit-HS-2017-2018\01_Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svm-c113.hsr.ch\adelay\Documents\SemesterArbeit\Semesterarbeit-HS-2017-2018\01_Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t>Zeiterfassung SAI17 - Gesamtüberblick</t>
   </si>
@@ -330,6 +330,18 @@
   </si>
   <si>
     <t>Arta.Statistics erzeugen</t>
+  </si>
+  <si>
+    <t>Arta.Standard überarbeiten &amp; korrigieren</t>
+  </si>
+  <si>
+    <t>Abschlussarbeiten</t>
+  </si>
+  <si>
+    <t>Vervollständigen und Abgabe</t>
+  </si>
+  <si>
+    <t>Erfahrungsbericht</t>
   </si>
 </sst>
 </file>
@@ -511,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -551,63 +563,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -628,6 +583,69 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,7 +819,10 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.5</c:v>
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,8 +925,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="412039592"/>
-        <c:axId val="412039200"/>
+        <c:axId val="301996264"/>
+        <c:axId val="301988816"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -997,7 +1018,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$4</c15:sqref>
@@ -1021,7 +1042,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5:$A$12</c15:sqref>
@@ -1059,7 +1080,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$5:$C$12</c15:sqref>
@@ -1080,7 +1101,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$4</c15:sqref>
@@ -1104,7 +1125,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5:$A$12</c15:sqref>
@@ -1142,7 +1163,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$5:$E$12</c15:sqref>
@@ -1163,7 +1184,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$4</c15:sqref>
@@ -1187,7 +1208,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5:$A$12</c15:sqref>
@@ -1225,7 +1246,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$5:$F$12</c15:sqref>
@@ -1246,7 +1267,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$4</c15:sqref>
@@ -1272,7 +1293,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5:$A$12</c15:sqref>
@@ -1310,7 +1331,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$5:$H$12</c15:sqref>
@@ -1331,7 +1352,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$4</c15:sqref>
@@ -1357,7 +1378,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5:$A$12</c15:sqref>
@@ -1395,7 +1416,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$5:$I$12</c15:sqref>
@@ -1414,7 +1435,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="412039592"/>
+        <c:axId val="301996264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1478,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412039200"/>
+        <c:crossAx val="301988816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1465,7 +1486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412039200"/>
+        <c:axId val="301988816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1537,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412039592"/>
+        <c:crossAx val="301996264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2474,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB163"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A127" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,268 +2505,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="27">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="39">
         <f>SUM(H43:I60)</f>
         <v>21.75</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="27">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="39">
         <f>SUM(J43:K60)</f>
         <v>20.75</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="27">
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="39">
         <f>SUM(H62,J62)</f>
         <v>42.5</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="27">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="39">
         <f>SUM(V43:W60)</f>
         <v>35.25</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="27">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="39">
         <f>SUM(X43:Y60)</f>
         <v>36.25</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="27">
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="39">
         <f>SUM(V62,X62)</f>
         <v>71.5</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="27">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39">
         <f>SUM(H76:I91)</f>
         <v>37.75</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="27">
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="39">
         <f>SUM(J76:K91)</f>
         <v>37</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="27">
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="39">
         <f>SUM(H93,J93)</f>
         <v>74.75</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="27">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="39">
         <f>SUM(V95)</f>
         <v>33</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="27">
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="39">
         <f>SUM(X95)</f>
         <v>33</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="27">
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="39">
         <f>SUM(G8,D8)</f>
         <v>66</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="27">
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="39">
         <f>SUM(H109:I126)</f>
         <v>39</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27">
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="39">
         <f>SUM(J109:K126)</f>
         <v>37</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="27">
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="39">
         <f>SUM(G9,D9)</f>
         <v>76</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="30">
+      <c r="B10" s="28"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26">
         <f>SUM(V130)</f>
-        <v>13.5</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="30">
+        <v>34.5</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26">
         <f>SUM(X130)</f>
         <v>28.5</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="30">
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="26">
         <f>SUM(G10,D10)</f>
-        <v>42</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+        <v>63</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="27">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="39">
+        <f>SUM(H142:I159)</f>
+        <v>27.5</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="39">
         <f>SUM(J161)</f>
         <v>13</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="27">
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="39">
         <f>SUM(D11:I11)</f>
-        <v>13</v>
-      </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+        <v>40.5</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="44">
+      <c r="D13" s="25">
         <f>SUM(D5:F12)</f>
-        <v>180.25</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="42">
+        <v>228.75</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="23">
         <f>SUM(G5:I12)</f>
         <v>205.5</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -2753,15 +2777,15 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -2776,14 +2800,14 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="26">
+      <c r="F16" s="44">
         <f>SUM(J4:L12)</f>
-        <v>385.75</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+        <v>434.25</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -2856,82 +2880,82 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19" t="s">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -2965,753 +2989,753 @@
       <c r="A39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="O39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
       <c r="R39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
       <c r="U39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33" t="s">
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33" t="s">
+      <c r="I42" s="35"/>
+      <c r="J42" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="33"/>
-      <c r="O42" s="33" t="s">
+      <c r="K42" s="35"/>
+      <c r="O42" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33" t="s">
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33" t="s">
+      <c r="W42" s="35"/>
+      <c r="X42" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="Y42" s="33"/>
+      <c r="Y42" s="35"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="30">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="26">
         <v>1</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="30">
+      <c r="I43" s="27"/>
+      <c r="J43" s="26">
         <v>0.5</v>
       </c>
-      <c r="K43" s="32"/>
-      <c r="O43" s="34" t="s">
+      <c r="K43" s="27"/>
+      <c r="O43" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="30">
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="26">
         <v>1</v>
       </c>
-      <c r="W43" s="32"/>
-      <c r="X43" s="30">
+      <c r="W43" s="27"/>
+      <c r="X43" s="26">
         <v>1</v>
       </c>
-      <c r="Y43" s="32"/>
+      <c r="Y43" s="27"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="30">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="26">
         <v>0.25</v>
       </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="30">
+      <c r="I44" s="27"/>
+      <c r="J44" s="26">
         <v>0.25</v>
       </c>
-      <c r="K44" s="32"/>
-      <c r="O44" s="34" t="s">
+      <c r="K44" s="27"/>
+      <c r="O44" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="30">
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="26">
         <v>1.5</v>
       </c>
-      <c r="Y44" s="32"/>
+      <c r="Y44" s="27"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="30">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="26">
         <v>5</v>
       </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="30">
+      <c r="I45" s="27"/>
+      <c r="J45" s="26">
         <v>7</v>
       </c>
-      <c r="K45" s="32"/>
-      <c r="O45" s="30" t="s">
+      <c r="K45" s="27"/>
+      <c r="O45" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="32"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="27"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="30">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="26">
         <v>0.5</v>
       </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="30">
+      <c r="I46" s="27"/>
+      <c r="J46" s="26">
         <v>1</v>
       </c>
-      <c r="K46" s="32"/>
-      <c r="O46" s="30" t="s">
+      <c r="K46" s="27"/>
+      <c r="O46" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="30">
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="26">
         <v>8</v>
       </c>
-      <c r="W46" s="32"/>
-      <c r="X46" s="30">
+      <c r="W46" s="27"/>
+      <c r="X46" s="26">
         <v>5</v>
       </c>
-      <c r="Y46" s="32"/>
+      <c r="Y46" s="27"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="30">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="26">
         <v>1</v>
       </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="30">
+      <c r="I47" s="27"/>
+      <c r="J47" s="26">
         <v>1</v>
       </c>
-      <c r="K47" s="32"/>
-      <c r="O47" s="30" t="s">
+      <c r="K47" s="27"/>
+      <c r="O47" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="30">
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="26">
         <v>9</v>
       </c>
-      <c r="W47" s="32"/>
-      <c r="X47" s="30">
+      <c r="W47" s="27"/>
+      <c r="X47" s="26">
         <v>4</v>
       </c>
-      <c r="Y47" s="32"/>
+      <c r="Y47" s="27"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="30">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="26">
         <v>3</v>
       </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="30">
+      <c r="I48" s="27"/>
+      <c r="J48" s="26">
         <v>2</v>
       </c>
-      <c r="K48" s="32"/>
-      <c r="O48" s="30" t="s">
+      <c r="K48" s="27"/>
+      <c r="O48" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="30">
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="26">
         <v>5</v>
       </c>
-      <c r="W48" s="32"/>
-      <c r="X48" s="30">
+      <c r="W48" s="27"/>
+      <c r="X48" s="26">
         <v>2</v>
       </c>
-      <c r="Y48" s="32"/>
+      <c r="Y48" s="27"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="30">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="26">
         <v>6</v>
       </c>
-      <c r="I49" s="32"/>
-      <c r="J49" s="30">
+      <c r="I49" s="27"/>
+      <c r="J49" s="26">
         <v>5</v>
       </c>
-      <c r="K49" s="32"/>
-      <c r="O49" s="30" t="s">
+      <c r="K49" s="27"/>
+      <c r="O49" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="30">
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="26">
         <v>2</v>
       </c>
-      <c r="W49" s="32"/>
-      <c r="X49" s="30">
+      <c r="W49" s="27"/>
+      <c r="X49" s="26">
         <v>2</v>
       </c>
-      <c r="Y49" s="32"/>
+      <c r="Y49" s="27"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="30">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="26">
         <v>3</v>
       </c>
-      <c r="I50" s="32"/>
-      <c r="J50" s="30">
+      <c r="I50" s="27"/>
+      <c r="J50" s="26">
         <v>2</v>
       </c>
-      <c r="K50" s="32"/>
-      <c r="O50" s="30" t="s">
+      <c r="K50" s="27"/>
+      <c r="O50" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="30">
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="26">
         <v>3</v>
       </c>
-      <c r="W50" s="32"/>
-      <c r="X50" s="30">
+      <c r="W50" s="27"/>
+      <c r="X50" s="26">
         <v>4</v>
       </c>
-      <c r="Y50" s="32"/>
+      <c r="Y50" s="27"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="30">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="26">
         <v>2</v>
       </c>
-      <c r="I51" s="32"/>
-      <c r="J51" s="30">
+      <c r="I51" s="27"/>
+      <c r="J51" s="26">
         <v>2</v>
       </c>
-      <c r="K51" s="32"/>
-      <c r="O51" s="30" t="s">
+      <c r="K51" s="27"/>
+      <c r="O51" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="30">
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="26">
         <v>0.5</v>
       </c>
-      <c r="W51" s="32"/>
-      <c r="X51" s="30">
+      <c r="W51" s="27"/>
+      <c r="X51" s="26">
         <v>8</v>
       </c>
-      <c r="Y51" s="32"/>
+      <c r="Y51" s="27"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="32"/>
-      <c r="O52" s="30" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="27"/>
+      <c r="O52" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="30">
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="26"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="26">
         <v>1.5</v>
       </c>
-      <c r="Y52" s="32"/>
+      <c r="Y52" s="27"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="32"/>
-      <c r="O53" s="34" t="s">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="27"/>
+      <c r="O53" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="30">
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="26">
         <v>1.5</v>
       </c>
-      <c r="W53" s="32"/>
-      <c r="X53" s="30">
+      <c r="W53" s="27"/>
+      <c r="X53" s="26">
         <v>1.5</v>
       </c>
-      <c r="Y53" s="32"/>
+      <c r="Y53" s="27"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="32"/>
-      <c r="O54" s="34" t="s">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="27"/>
+      <c r="O54" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="30">
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="26">
         <v>2</v>
       </c>
-      <c r="W54" s="32"/>
-      <c r="X54" s="30">
+      <c r="W54" s="27"/>
+      <c r="X54" s="26">
         <v>2.5</v>
       </c>
-      <c r="Y54" s="32"/>
+      <c r="Y54" s="27"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="32"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="32"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="32"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="27"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="26"/>
+      <c r="Y55" s="27"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="32"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="30"/>
-      <c r="Y56" s="32"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="27"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="27"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="32"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="32"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="32"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="27"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="27"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="32"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="32"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="32"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="27"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="27"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="32"/>
-      <c r="O59" s="34" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="27"/>
+      <c r="O59" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="30">
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
+      <c r="V59" s="26">
         <v>0.25</v>
       </c>
-      <c r="W59" s="32"/>
-      <c r="X59" s="30">
+      <c r="W59" s="27"/>
+      <c r="X59" s="26">
         <v>0.25</v>
       </c>
-      <c r="Y59" s="32"/>
+      <c r="Y59" s="27"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="32"/>
-      <c r="O60" s="34" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="27"/>
+      <c r="O60" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="30">
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="26">
         <v>3</v>
       </c>
-      <c r="W60" s="32"/>
-      <c r="X60" s="30">
+      <c r="W60" s="27"/>
+      <c r="X60" s="26">
         <v>3</v>
       </c>
-      <c r="Y60" s="32"/>
+      <c r="Y60" s="27"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24">
+      <c r="F62" s="32"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="29">
         <f>SUM(H43:I60)</f>
         <v>21.75</v>
       </c>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24">
+      <c r="I62" s="29"/>
+      <c r="J62" s="29">
         <f>SUM(J43:K60)</f>
         <v>20.75</v>
       </c>
-      <c r="K62" s="24"/>
-      <c r="S62" s="21" t="s">
+      <c r="K62" s="29"/>
+      <c r="S62" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="T62" s="22"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="24">
+      <c r="T62" s="32"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="29">
         <f>SUM(V43:W60)</f>
         <v>35.25</v>
       </c>
-      <c r="W62" s="24"/>
-      <c r="X62" s="24">
+      <c r="W62" s="29"/>
+      <c r="X62" s="29">
         <f>SUM(X43:Y60)</f>
         <v>36.25</v>
       </c>
-      <c r="Y62" s="24"/>
+      <c r="Y62" s="29"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E64" s="24" t="s">
+      <c r="E64" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24">
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29">
         <f>SUM(H62,J62)</f>
         <v>42.5</v>
       </c>
-      <c r="I64" s="24"/>
-      <c r="S64" s="24" t="s">
+      <c r="I64" s="29"/>
+      <c r="S64" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24">
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29">
         <f>SUM(V62,X62)</f>
         <v>71.5</v>
       </c>
-      <c r="W64" s="24"/>
+      <c r="W64" s="29"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19" t="s">
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
-      <c r="Z68" s="19"/>
-      <c r="AA68" s="19"/>
-      <c r="AB68" s="19"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="36"/>
+      <c r="Z68" s="36"/>
+      <c r="AA68" s="36"/>
+      <c r="AB68" s="36"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="19"/>
-      <c r="W69" s="19"/>
-      <c r="X69" s="19"/>
-      <c r="Y69" s="19"/>
-      <c r="Z69" s="19"/>
-      <c r="AA69" s="19"/>
-      <c r="AB69" s="19"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
+      <c r="Z69" s="36"/>
+      <c r="AA69" s="36"/>
+      <c r="AB69" s="36"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -3745,673 +3769,673 @@
       <c r="A72" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="38">
         <v>43019</v>
       </c>
-      <c r="C72" s="35"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E72" s="38">
         <v>43033</v>
       </c>
-      <c r="F72" s="35"/>
+      <c r="F72" s="37"/>
       <c r="G72" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="O72" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="36">
+      <c r="P72" s="38">
         <v>43034</v>
       </c>
-      <c r="Q72" s="35"/>
+      <c r="Q72" s="37"/>
       <c r="R72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S72" s="36">
+      <c r="S72" s="38">
         <v>43047</v>
       </c>
-      <c r="T72" s="35"/>
+      <c r="T72" s="37"/>
       <c r="U72" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V72" s="35"/>
-      <c r="W72" s="35"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33" t="s">
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33" t="s">
+      <c r="I75" s="35"/>
+      <c r="J75" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K75" s="33"/>
-      <c r="O75" s="33" t="s">
+      <c r="K75" s="35"/>
+      <c r="O75" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="33"/>
-      <c r="R75" s="33"/>
-      <c r="S75" s="33"/>
-      <c r="T75" s="33"/>
-      <c r="U75" s="33"/>
-      <c r="V75" s="33" t="s">
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
+      <c r="V75" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="W75" s="33"/>
-      <c r="X75" s="33" t="s">
+      <c r="W75" s="35"/>
+      <c r="X75" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="Y75" s="33"/>
+      <c r="Y75" s="35"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="30">
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="26">
         <v>12</v>
       </c>
-      <c r="I76" s="32"/>
-      <c r="J76" s="30">
+      <c r="I76" s="27"/>
+      <c r="J76" s="26">
         <v>2</v>
       </c>
-      <c r="K76" s="32"/>
-      <c r="O76" s="37" t="s">
+      <c r="K76" s="27"/>
+      <c r="O76" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
-      <c r="T76" s="34"/>
-      <c r="U76" s="34"/>
-      <c r="V76" s="30">
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="30"/>
+      <c r="U76" s="30"/>
+      <c r="V76" s="26">
         <v>5</v>
       </c>
-      <c r="W76" s="32"/>
-      <c r="X76" s="30">
+      <c r="W76" s="27"/>
+      <c r="X76" s="26">
         <v>1</v>
       </c>
-      <c r="Y76" s="32"/>
+      <c r="Y76" s="27"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="30">
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="26">
         <v>7</v>
       </c>
-      <c r="I77" s="32"/>
-      <c r="J77" s="30">
+      <c r="I77" s="27"/>
+      <c r="J77" s="26">
         <v>5</v>
       </c>
-      <c r="K77" s="32"/>
-      <c r="O77" s="37" t="s">
+      <c r="K77" s="27"/>
+      <c r="O77" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
-      <c r="S77" s="34"/>
-      <c r="T77" s="34"/>
-      <c r="U77" s="34"/>
-      <c r="V77" s="30">
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="30"/>
+      <c r="U77" s="30"/>
+      <c r="V77" s="26">
         <v>24</v>
       </c>
-      <c r="W77" s="32"/>
-      <c r="X77" s="30">
+      <c r="W77" s="27"/>
+      <c r="X77" s="26">
         <v>12</v>
       </c>
-      <c r="Y77" s="32"/>
+      <c r="Y77" s="27"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="30">
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="26">
         <v>2</v>
       </c>
-      <c r="I78" s="32"/>
-      <c r="J78" s="30">
+      <c r="I78" s="27"/>
+      <c r="J78" s="26">
         <v>2</v>
       </c>
-      <c r="K78" s="32"/>
-      <c r="O78" s="37" t="s">
+      <c r="K78" s="27"/>
+      <c r="O78" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
-      <c r="V78" s="30"/>
-      <c r="W78" s="32"/>
-      <c r="X78" s="30">
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="30"/>
+      <c r="U78" s="30"/>
+      <c r="V78" s="26"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="26">
         <v>3</v>
       </c>
-      <c r="Y78" s="32"/>
+      <c r="Y78" s="27"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="30">
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="26">
         <v>1</v>
       </c>
-      <c r="I79" s="32"/>
-      <c r="J79" s="30">
+      <c r="I79" s="27"/>
+      <c r="J79" s="26">
         <v>11</v>
       </c>
-      <c r="K79" s="32"/>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="34"/>
-      <c r="R79" s="34"/>
-      <c r="S79" s="34"/>
-      <c r="T79" s="34"/>
-      <c r="U79" s="34"/>
-      <c r="V79" s="30"/>
-      <c r="W79" s="32"/>
-      <c r="X79" s="30"/>
-      <c r="Y79" s="32"/>
+      <c r="K79" s="27"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="30"/>
+      <c r="R79" s="30"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="30"/>
+      <c r="U79" s="30"/>
+      <c r="V79" s="26"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="26"/>
+      <c r="Y79" s="27"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="30">
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="26">
         <v>1</v>
       </c>
-      <c r="I80" s="32"/>
-      <c r="J80" s="30">
+      <c r="I80" s="27"/>
+      <c r="J80" s="26">
         <v>4</v>
       </c>
-      <c r="K80" s="32"/>
-      <c r="O80" s="37" t="s">
+      <c r="K80" s="27"/>
+      <c r="O80" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="P80" s="34"/>
-      <c r="Q80" s="34"/>
-      <c r="R80" s="34"/>
-      <c r="S80" s="34"/>
-      <c r="T80" s="34"/>
-      <c r="U80" s="34"/>
-      <c r="V80" s="30"/>
-      <c r="W80" s="32"/>
-      <c r="X80" s="30">
+      <c r="P80" s="30"/>
+      <c r="Q80" s="30"/>
+      <c r="R80" s="30"/>
+      <c r="S80" s="30"/>
+      <c r="T80" s="30"/>
+      <c r="U80" s="30"/>
+      <c r="V80" s="26"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="26">
         <v>2</v>
       </c>
-      <c r="Y80" s="32"/>
+      <c r="Y80" s="27"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="30">
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="26">
         <v>1</v>
       </c>
-      <c r="I81" s="32"/>
-      <c r="J81" s="30">
+      <c r="I81" s="27"/>
+      <c r="J81" s="26">
         <v>1</v>
       </c>
-      <c r="K81" s="32"/>
-      <c r="O81" s="37" t="s">
+      <c r="K81" s="27"/>
+      <c r="O81" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="P81" s="34"/>
-      <c r="Q81" s="34"/>
-      <c r="R81" s="34"/>
-      <c r="S81" s="34"/>
-      <c r="T81" s="34"/>
-      <c r="U81" s="34"/>
-      <c r="V81" s="30"/>
-      <c r="W81" s="32"/>
-      <c r="X81" s="30">
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="30"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="30"/>
+      <c r="U81" s="30"/>
+      <c r="V81" s="26"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="26">
         <v>5</v>
       </c>
-      <c r="Y81" s="32"/>
+      <c r="Y81" s="27"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="30">
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="26">
         <v>0.25</v>
       </c>
-      <c r="I82" s="32"/>
-      <c r="J82" s="30">
+      <c r="I82" s="27"/>
+      <c r="J82" s="26">
         <v>0</v>
       </c>
-      <c r="K82" s="32"/>
-      <c r="O82" s="34"/>
-      <c r="P82" s="34"/>
-      <c r="Q82" s="34"/>
-      <c r="R82" s="34"/>
-      <c r="S82" s="34"/>
-      <c r="T82" s="34"/>
-      <c r="U82" s="34"/>
-      <c r="V82" s="30"/>
-      <c r="W82" s="32"/>
-      <c r="X82" s="30"/>
-      <c r="Y82" s="32"/>
+      <c r="K82" s="27"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="30"/>
+      <c r="R82" s="30"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="30"/>
+      <c r="U82" s="30"/>
+      <c r="V82" s="26"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="26"/>
+      <c r="Y82" s="27"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="30">
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="26">
         <v>0.5</v>
       </c>
-      <c r="I83" s="32"/>
-      <c r="J83" s="30">
+      <c r="I83" s="27"/>
+      <c r="J83" s="26">
         <v>0</v>
       </c>
-      <c r="K83" s="32"/>
-      <c r="O83" s="37" t="s">
+      <c r="K83" s="27"/>
+      <c r="O83" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="P83" s="34"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="34"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
-      <c r="U83" s="34"/>
-      <c r="V83" s="30"/>
-      <c r="W83" s="32"/>
-      <c r="X83" s="30"/>
-      <c r="Y83" s="32"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="30"/>
+      <c r="U83" s="30"/>
+      <c r="V83" s="26"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="26"/>
+      <c r="Y83" s="27"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="30">
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="26">
         <v>7</v>
       </c>
-      <c r="I84" s="32"/>
-      <c r="J84" s="30">
+      <c r="I84" s="27"/>
+      <c r="J84" s="26">
         <v>2</v>
       </c>
-      <c r="K84" s="32"/>
-      <c r="O84" s="37" t="s">
+      <c r="K84" s="27"/>
+      <c r="O84" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="30"/>
-      <c r="W84" s="32"/>
-      <c r="X84" s="30"/>
-      <c r="Y84" s="32"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="30"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="30"/>
+      <c r="U84" s="30"/>
+      <c r="V84" s="26"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="26"/>
+      <c r="Y84" s="27"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="32"/>
-      <c r="O85" s="34"/>
-      <c r="P85" s="34"/>
-      <c r="Q85" s="34"/>
-      <c r="R85" s="34"/>
-      <c r="S85" s="34"/>
-      <c r="T85" s="34"/>
-      <c r="U85" s="34"/>
-      <c r="V85" s="30"/>
-      <c r="W85" s="32"/>
-      <c r="X85" s="30"/>
-      <c r="Y85" s="32"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="27"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30"/>
+      <c r="R85" s="30"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="30"/>
+      <c r="U85" s="30"/>
+      <c r="V85" s="26"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="26"/>
+      <c r="Y85" s="27"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="30">
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="26">
         <v>4</v>
       </c>
-      <c r="I86" s="32"/>
-      <c r="J86" s="30">
+      <c r="I86" s="27"/>
+      <c r="J86" s="26">
         <v>8</v>
       </c>
-      <c r="K86" s="32"/>
-      <c r="O86" s="37" t="s">
+      <c r="K86" s="27"/>
+      <c r="O86" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="P86" s="34"/>
-      <c r="Q86" s="34"/>
-      <c r="R86" s="34"/>
-      <c r="S86" s="34"/>
-      <c r="T86" s="34"/>
-      <c r="U86" s="34"/>
-      <c r="V86" s="30"/>
-      <c r="W86" s="32"/>
-      <c r="X86" s="30"/>
-      <c r="Y86" s="32"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="30"/>
+      <c r="U86" s="30"/>
+      <c r="V86" s="26"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="26"/>
+      <c r="Y86" s="27"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="32"/>
-      <c r="O87" s="37" t="s">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="27"/>
+      <c r="O87" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
-      <c r="U87" s="34"/>
-      <c r="V87" s="30"/>
-      <c r="W87" s="32"/>
-      <c r="X87" s="30">
+      <c r="P87" s="30"/>
+      <c r="Q87" s="30"/>
+      <c r="R87" s="30"/>
+      <c r="S87" s="30"/>
+      <c r="T87" s="30"/>
+      <c r="U87" s="30"/>
+      <c r="V87" s="26"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="26">
         <v>3</v>
       </c>
-      <c r="Y87" s="32"/>
+      <c r="Y87" s="27"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="32"/>
-      <c r="O88" s="37" t="s">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="27"/>
+      <c r="O88" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
-      <c r="T88" s="34"/>
-      <c r="U88" s="34"/>
-      <c r="V88" s="30"/>
-      <c r="W88" s="32"/>
-      <c r="X88" s="30">
+      <c r="P88" s="30"/>
+      <c r="Q88" s="30"/>
+      <c r="R88" s="30"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="30"/>
+      <c r="U88" s="30"/>
+      <c r="V88" s="26"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="26">
         <v>2</v>
       </c>
-      <c r="Y88" s="32"/>
+      <c r="Y88" s="27"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="32"/>
-      <c r="O89" s="37" t="s">
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="27"/>
+      <c r="O89" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-      <c r="T89" s="34"/>
-      <c r="U89" s="34"/>
-      <c r="V89" s="30"/>
-      <c r="W89" s="32"/>
-      <c r="X89" s="30">
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="30"/>
+      <c r="V89" s="26"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="26">
         <v>2</v>
       </c>
-      <c r="Y89" s="32"/>
+      <c r="Y89" s="27"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="30">
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="26">
         <v>0.5</v>
       </c>
-      <c r="I90" s="32"/>
-      <c r="J90" s="30">
+      <c r="I90" s="27"/>
+      <c r="J90" s="26">
         <v>0.5</v>
       </c>
-      <c r="K90" s="32"/>
-      <c r="O90" s="37" t="s">
+      <c r="K90" s="27"/>
+      <c r="O90" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="P90" s="34"/>
-      <c r="Q90" s="34"/>
-      <c r="R90" s="34"/>
-      <c r="S90" s="34"/>
-      <c r="T90" s="34"/>
-      <c r="U90" s="34"/>
-      <c r="V90" s="30"/>
-      <c r="W90" s="32"/>
-      <c r="X90" s="30">
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="30"/>
+      <c r="S90" s="30"/>
+      <c r="T90" s="30"/>
+      <c r="U90" s="30"/>
+      <c r="V90" s="26"/>
+      <c r="W90" s="27"/>
+      <c r="X90" s="26">
         <v>2</v>
       </c>
-      <c r="Y90" s="32"/>
+      <c r="Y90" s="27"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="30">
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="26">
         <v>1.5</v>
       </c>
-      <c r="I91" s="32"/>
-      <c r="J91" s="30">
+      <c r="I91" s="27"/>
+      <c r="J91" s="26">
         <v>1.5</v>
       </c>
-      <c r="K91" s="32"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="34"/>
-      <c r="S91" s="34"/>
-      <c r="T91" s="34"/>
-      <c r="U91" s="34"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="32"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="32"/>
+      <c r="K91" s="27"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="30"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="30"/>
+      <c r="U91" s="30"/>
+      <c r="V91" s="26"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="26"/>
+      <c r="Y91" s="27"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O92" s="34" t="s">
+      <c r="O92" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="34"/>
-      <c r="S92" s="34"/>
-      <c r="T92" s="34"/>
-      <c r="U92" s="34"/>
-      <c r="V92" s="30">
+      <c r="P92" s="30"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="30"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="30"/>
+      <c r="U92" s="30"/>
+      <c r="V92" s="26">
         <v>1</v>
       </c>
-      <c r="W92" s="32"/>
-      <c r="X92" s="30">
+      <c r="W92" s="27"/>
+      <c r="X92" s="26">
         <v>1</v>
       </c>
-      <c r="Y92" s="32"/>
+      <c r="Y92" s="27"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E93" s="21" t="s">
+      <c r="E93" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="22"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="24">
+      <c r="F93" s="32"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="29">
         <f>SUM(H76:I91)</f>
         <v>37.75</v>
       </c>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24">
+      <c r="I93" s="29"/>
+      <c r="J93" s="29">
         <f>SUM(J76:K91)</f>
         <v>37</v>
       </c>
-      <c r="K93" s="24"/>
-      <c r="O93" s="37" t="s">
+      <c r="K93" s="29"/>
+      <c r="O93" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="P93" s="34"/>
-      <c r="Q93" s="34"/>
-      <c r="R93" s="34"/>
-      <c r="S93" s="34"/>
-      <c r="T93" s="34"/>
-      <c r="U93" s="34"/>
-      <c r="V93" s="30">
+      <c r="P93" s="30"/>
+      <c r="Q93" s="30"/>
+      <c r="R93" s="30"/>
+      <c r="S93" s="30"/>
+      <c r="T93" s="30"/>
+      <c r="U93" s="30"/>
+      <c r="V93" s="26">
         <v>3</v>
       </c>
-      <c r="W93" s="32"/>
-      <c r="X93" s="30"/>
-      <c r="Y93" s="32"/>
+      <c r="W93" s="27"/>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="27"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E95" s="24" t="s">
+      <c r="E95" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24">
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29">
         <f>SUM(H93,J93)</f>
         <v>74.75</v>
       </c>
-      <c r="I95" s="24"/>
-      <c r="S95" s="21" t="s">
+      <c r="I95" s="29"/>
+      <c r="S95" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="T95" s="22"/>
-      <c r="U95" s="23"/>
-      <c r="V95" s="24">
+      <c r="T95" s="32"/>
+      <c r="U95" s="33"/>
+      <c r="V95" s="29">
         <f>SUM(V76:W93)</f>
         <v>33</v>
       </c>
-      <c r="W95" s="24"/>
-      <c r="X95" s="24">
+      <c r="W95" s="29"/>
+      <c r="X95" s="29">
         <f>SUM(X76:Y93)</f>
         <v>33</v>
       </c>
-      <c r="Y95" s="24"/>
+      <c r="Y95" s="29"/>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S99" s="24" t="s">
+      <c r="S99" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T99" s="24"/>
-      <c r="U99" s="24"/>
-      <c r="V99" s="24">
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29">
         <f>SUM(V95,X95)</f>
         <v>66</v>
       </c>
-      <c r="W99" s="24"/>
+      <c r="W99" s="29"/>
     </row>
     <row r="101" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
@@ -4445,22 +4469,22 @@
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
-      <c r="O103" s="19" t="s">
+      <c r="O103" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="19"/>
-      <c r="S103" s="19"/>
-      <c r="T103" s="19"/>
-      <c r="U103" s="19"/>
-      <c r="V103" s="19"/>
-      <c r="W103" s="19"/>
-      <c r="X103" s="19"/>
-      <c r="Y103" s="19"/>
-      <c r="Z103" s="19"/>
-      <c r="AA103" s="19"/>
-      <c r="AB103" s="19"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="36"/>
+      <c r="U103" s="36"/>
+      <c r="V103" s="36"/>
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="36"/>
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
     </row>
     <row r="104" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
@@ -4481,37 +4505,37 @@
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
-      <c r="O104" s="19"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="19"/>
-      <c r="R104" s="19"/>
-      <c r="S104" s="19"/>
-      <c r="T104" s="19"/>
-      <c r="U104" s="19"/>
-      <c r="V104" s="19"/>
-      <c r="W104" s="19"/>
-      <c r="X104" s="19"/>
-      <c r="Y104" s="19"/>
-      <c r="Z104" s="19"/>
-      <c r="AA104" s="19"/>
-      <c r="AB104" s="19"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="36"/>
+      <c r="S104" s="36"/>
+      <c r="T104" s="36"/>
+      <c r="U104" s="36"/>
+      <c r="V104" s="36"/>
+      <c r="W104" s="36"/>
+      <c r="X104" s="36"/>
+      <c r="Y104" s="36"/>
+      <c r="Z104" s="36"/>
+      <c r="AA104" s="36"/>
+      <c r="AB104" s="36"/>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
       <c r="D105" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
       <c r="G105" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
     </row>
@@ -4534,660 +4558,668 @@
       <c r="O107" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P107" s="35"/>
-      <c r="Q107" s="35"/>
+      <c r="P107" s="37"/>
+      <c r="Q107" s="37"/>
       <c r="R107" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S107" s="35"/>
-      <c r="T107" s="35"/>
+      <c r="S107" s="37"/>
+      <c r="T107" s="37"/>
       <c r="U107" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V107" s="35"/>
-      <c r="W107" s="35"/>
+      <c r="V107" s="37"/>
+      <c r="W107" s="37"/>
       <c r="X107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33" t="s">
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33" t="s">
+      <c r="I108" s="35"/>
+      <c r="J108" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K108" s="33"/>
+      <c r="K108" s="35"/>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="30">
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="26">
         <v>4</v>
       </c>
-      <c r="I109" s="32"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="32"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="27"/>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A110" s="37" t="s">
+      <c r="A110" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="30">
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="26">
         <v>2</v>
       </c>
-      <c r="I110" s="32"/>
-      <c r="J110" s="30">
+      <c r="I110" s="27"/>
+      <c r="J110" s="26">
         <v>6</v>
       </c>
-      <c r="K110" s="32"/>
-      <c r="O110" s="33" t="s">
+      <c r="K110" s="27"/>
+      <c r="O110" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P110" s="33"/>
-      <c r="Q110" s="33"/>
-      <c r="R110" s="33"/>
-      <c r="S110" s="33"/>
-      <c r="T110" s="33"/>
-      <c r="U110" s="33"/>
-      <c r="V110" s="33" t="s">
+      <c r="P110" s="35"/>
+      <c r="Q110" s="35"/>
+      <c r="R110" s="35"/>
+      <c r="S110" s="35"/>
+      <c r="T110" s="35"/>
+      <c r="U110" s="35"/>
+      <c r="V110" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="W110" s="33"/>
-      <c r="X110" s="33" t="s">
+      <c r="W110" s="35"/>
+      <c r="X110" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="Y110" s="33"/>
+      <c r="Y110" s="35"/>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="32"/>
-      <c r="J111" s="30"/>
-      <c r="K111" s="32"/>
-      <c r="O111" s="37" t="s">
+      <c r="A111" s="34"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="27"/>
+      <c r="O111" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="P111" s="34"/>
-      <c r="Q111" s="34"/>
-      <c r="R111" s="34"/>
-      <c r="S111" s="34"/>
-      <c r="T111" s="34"/>
-      <c r="U111" s="34"/>
-      <c r="V111" s="30"/>
-      <c r="W111" s="32"/>
-      <c r="X111" s="30">
+      <c r="P111" s="30"/>
+      <c r="Q111" s="30"/>
+      <c r="R111" s="30"/>
+      <c r="S111" s="30"/>
+      <c r="T111" s="30"/>
+      <c r="U111" s="30"/>
+      <c r="V111" s="26">
+        <v>12</v>
+      </c>
+      <c r="W111" s="27"/>
+      <c r="X111" s="26">
         <v>1.5</v>
       </c>
-      <c r="Y111" s="32"/>
+      <c r="Y111" s="27"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A112" s="37" t="s">
+      <c r="A112" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="32"/>
-      <c r="J112" s="30"/>
-      <c r="K112" s="32"/>
-      <c r="O112" s="34"/>
-      <c r="P112" s="34"/>
-      <c r="Q112" s="34"/>
-      <c r="R112" s="34"/>
-      <c r="S112" s="34"/>
-      <c r="T112" s="34"/>
-      <c r="U112" s="34"/>
-      <c r="V112" s="30"/>
-      <c r="W112" s="32"/>
-      <c r="X112" s="30"/>
-      <c r="Y112" s="32"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="27"/>
+      <c r="O112" s="30"/>
+      <c r="P112" s="30"/>
+      <c r="Q112" s="30"/>
+      <c r="R112" s="30"/>
+      <c r="S112" s="30"/>
+      <c r="T112" s="30"/>
+      <c r="U112" s="30"/>
+      <c r="V112" s="26"/>
+      <c r="W112" s="27"/>
+      <c r="X112" s="26"/>
+      <c r="Y112" s="27"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="30">
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="26">
         <v>3</v>
       </c>
-      <c r="I113" s="32"/>
-      <c r="J113" s="30"/>
-      <c r="K113" s="32"/>
-      <c r="O113" s="37" t="s">
+      <c r="I113" s="27"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="27"/>
+      <c r="O113" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="P113" s="34"/>
-      <c r="Q113" s="34"/>
-      <c r="R113" s="34"/>
-      <c r="S113" s="34"/>
-      <c r="T113" s="34"/>
-      <c r="U113" s="34"/>
-      <c r="V113" s="30"/>
-      <c r="W113" s="32"/>
-      <c r="X113" s="30"/>
-      <c r="Y113" s="32"/>
+      <c r="P113" s="30"/>
+      <c r="Q113" s="30"/>
+      <c r="R113" s="30"/>
+      <c r="S113" s="30"/>
+      <c r="T113" s="30"/>
+      <c r="U113" s="30"/>
+      <c r="V113" s="26">
+        <v>5</v>
+      </c>
+      <c r="W113" s="27"/>
+      <c r="X113" s="26"/>
+      <c r="Y113" s="27"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A114" s="37" t="s">
+      <c r="A114" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="30">
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="26">
         <v>8</v>
       </c>
-      <c r="I114" s="32"/>
-      <c r="J114" s="30">
+      <c r="I114" s="27"/>
+      <c r="J114" s="26">
         <v>7</v>
       </c>
-      <c r="K114" s="32"/>
-      <c r="O114" s="34"/>
-      <c r="P114" s="34"/>
-      <c r="Q114" s="34"/>
-      <c r="R114" s="34"/>
-      <c r="S114" s="34"/>
-      <c r="T114" s="34"/>
-      <c r="U114" s="34"/>
-      <c r="V114" s="30"/>
-      <c r="W114" s="32"/>
-      <c r="X114" s="30"/>
-      <c r="Y114" s="32"/>
+      <c r="K114" s="27"/>
+      <c r="O114" s="30"/>
+      <c r="P114" s="30"/>
+      <c r="Q114" s="30"/>
+      <c r="R114" s="30"/>
+      <c r="S114" s="30"/>
+      <c r="T114" s="30"/>
+      <c r="U114" s="30"/>
+      <c r="V114" s="26"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="26"/>
+      <c r="Y114" s="27"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="30">
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="26">
         <v>4</v>
       </c>
-      <c r="I115" s="32"/>
-      <c r="J115" s="30">
+      <c r="I115" s="27"/>
+      <c r="J115" s="26">
         <v>4</v>
       </c>
-      <c r="K115" s="32"/>
-      <c r="O115" s="37" t="s">
+      <c r="K115" s="27"/>
+      <c r="O115" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="P115" s="34"/>
-      <c r="Q115" s="34"/>
-      <c r="R115" s="34"/>
-      <c r="S115" s="34"/>
-      <c r="T115" s="34"/>
-      <c r="U115" s="34"/>
-      <c r="V115" s="30">
+      <c r="P115" s="30"/>
+      <c r="Q115" s="30"/>
+      <c r="R115" s="30"/>
+      <c r="S115" s="30"/>
+      <c r="T115" s="30"/>
+      <c r="U115" s="30"/>
+      <c r="V115" s="26">
+        <v>4</v>
+      </c>
+      <c r="W115" s="27"/>
+      <c r="X115" s="26">
+        <v>6</v>
+      </c>
+      <c r="Y115" s="27"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A116" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="26">
+        <v>4</v>
+      </c>
+      <c r="I116" s="27"/>
+      <c r="J116" s="26">
+        <v>5</v>
+      </c>
+      <c r="K116" s="27"/>
+      <c r="O116" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="P116" s="30"/>
+      <c r="Q116" s="30"/>
+      <c r="R116" s="30"/>
+      <c r="S116" s="30"/>
+      <c r="T116" s="30"/>
+      <c r="U116" s="30"/>
+      <c r="V116" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="W116" s="27"/>
+      <c r="X116" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="Y116" s="27"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A117" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="26">
         <v>2</v>
       </c>
-      <c r="W115" s="32"/>
-      <c r="X115" s="30">
+      <c r="I117" s="27"/>
+      <c r="J117" s="26">
+        <v>4</v>
+      </c>
+      <c r="K117" s="27"/>
+      <c r="O117" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P117" s="30"/>
+      <c r="Q117" s="30"/>
+      <c r="R117" s="30"/>
+      <c r="S117" s="30"/>
+      <c r="T117" s="30"/>
+      <c r="U117" s="30"/>
+      <c r="V117" s="26">
+        <v>1</v>
+      </c>
+      <c r="W117" s="27"/>
+      <c r="X117" s="26">
         <v>6</v>
       </c>
-      <c r="Y115" s="32"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="30">
-        <v>4</v>
-      </c>
-      <c r="I116" s="32"/>
-      <c r="J116" s="30">
+      <c r="Y117" s="27"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A118" s="30"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="27"/>
+      <c r="O118" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P118" s="30"/>
+      <c r="Q118" s="30"/>
+      <c r="R118" s="30"/>
+      <c r="S118" s="30"/>
+      <c r="T118" s="30"/>
+      <c r="U118" s="30"/>
+      <c r="V118" s="26">
+        <v>1</v>
+      </c>
+      <c r="W118" s="27"/>
+      <c r="X118" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="Y118" s="27"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A119" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="27"/>
+      <c r="O119" s="34"/>
+      <c r="P119" s="30"/>
+      <c r="Q119" s="30"/>
+      <c r="R119" s="30"/>
+      <c r="S119" s="30"/>
+      <c r="T119" s="30"/>
+      <c r="U119" s="30"/>
+      <c r="V119" s="26"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="26"/>
+      <c r="Y119" s="27"/>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A120" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="26">
+        <v>1</v>
+      </c>
+      <c r="I120" s="27"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="27"/>
+      <c r="O120" s="30"/>
+      <c r="P120" s="30"/>
+      <c r="Q120" s="30"/>
+      <c r="R120" s="30"/>
+      <c r="S120" s="30"/>
+      <c r="T120" s="30"/>
+      <c r="U120" s="30"/>
+      <c r="V120" s="26"/>
+      <c r="W120" s="27"/>
+      <c r="X120" s="26"/>
+      <c r="Y120" s="27"/>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A121" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="26">
         <v>5</v>
       </c>
-      <c r="K116" s="32"/>
-      <c r="O116" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="P116" s="34"/>
-      <c r="Q116" s="34"/>
-      <c r="R116" s="34"/>
-      <c r="S116" s="34"/>
-      <c r="T116" s="34"/>
-      <c r="U116" s="34"/>
-      <c r="V116" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="W116" s="32"/>
-      <c r="X116" s="30">
-        <v>2.5</v>
-      </c>
-      <c r="Y116" s="32"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="30">
+      <c r="I121" s="27"/>
+      <c r="J121" s="26">
+        <v>5</v>
+      </c>
+      <c r="K121" s="27"/>
+      <c r="O121" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P121" s="30"/>
+      <c r="Q121" s="30"/>
+      <c r="R121" s="30"/>
+      <c r="S121" s="30"/>
+      <c r="T121" s="30"/>
+      <c r="U121" s="30"/>
+      <c r="V121" s="26">
+        <v>7</v>
+      </c>
+      <c r="W121" s="27"/>
+      <c r="X121" s="26">
+        <v>7</v>
+      </c>
+      <c r="Y121" s="27"/>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A122" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="26">
         <v>2</v>
       </c>
-      <c r="I117" s="32"/>
-      <c r="J117" s="30">
-        <v>4</v>
-      </c>
-      <c r="K117" s="32"/>
-      <c r="O117" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="P117" s="34"/>
-      <c r="Q117" s="34"/>
-      <c r="R117" s="34"/>
-      <c r="S117" s="34"/>
-      <c r="T117" s="34"/>
-      <c r="U117" s="34"/>
-      <c r="V117" s="30"/>
-      <c r="W117" s="32"/>
-      <c r="X117" s="30">
-        <v>6</v>
-      </c>
-      <c r="Y117" s="32"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="30"/>
-      <c r="I118" s="32"/>
-      <c r="J118" s="30"/>
-      <c r="K118" s="32"/>
-      <c r="O118" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="P118" s="34"/>
-      <c r="Q118" s="34"/>
-      <c r="R118" s="34"/>
-      <c r="S118" s="34"/>
-      <c r="T118" s="34"/>
-      <c r="U118" s="34"/>
-      <c r="V118" s="30"/>
-      <c r="W118" s="32"/>
-      <c r="X118" s="30">
-        <v>2.5</v>
-      </c>
-      <c r="Y118" s="32"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="30"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="30"/>
-      <c r="K119" s="32"/>
-      <c r="O119" s="37"/>
-      <c r="P119" s="34"/>
-      <c r="Q119" s="34"/>
-      <c r="R119" s="34"/>
-      <c r="S119" s="34"/>
-      <c r="T119" s="34"/>
-      <c r="U119" s="34"/>
-      <c r="V119" s="30"/>
-      <c r="W119" s="32"/>
-      <c r="X119" s="30"/>
-      <c r="Y119" s="32"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="30">
+      <c r="I122" s="27"/>
+      <c r="J122" s="26">
+        <v>2</v>
+      </c>
+      <c r="K122" s="27"/>
+      <c r="O122" s="30"/>
+      <c r="P122" s="30"/>
+      <c r="Q122" s="30"/>
+      <c r="R122" s="30"/>
+      <c r="S122" s="30"/>
+      <c r="T122" s="30"/>
+      <c r="U122" s="30"/>
+      <c r="V122" s="26"/>
+      <c r="W122" s="27"/>
+      <c r="X122" s="26"/>
+      <c r="Y122" s="27"/>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A123" s="30"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="27"/>
+      <c r="O123" s="30"/>
+      <c r="P123" s="30"/>
+      <c r="Q123" s="30"/>
+      <c r="R123" s="30"/>
+      <c r="S123" s="30"/>
+      <c r="T123" s="30"/>
+      <c r="U123" s="30"/>
+      <c r="V123" s="26"/>
+      <c r="W123" s="27"/>
+      <c r="X123" s="26"/>
+      <c r="Y123" s="27"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A124" s="30"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="27"/>
+      <c r="O124" s="30"/>
+      <c r="P124" s="30"/>
+      <c r="Q124" s="30"/>
+      <c r="R124" s="30"/>
+      <c r="S124" s="30"/>
+      <c r="T124" s="30"/>
+      <c r="U124" s="30"/>
+      <c r="V124" s="26"/>
+      <c r="W124" s="27"/>
+      <c r="X124" s="26"/>
+      <c r="Y124" s="27"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A125" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="26">
         <v>1</v>
       </c>
-      <c r="I120" s="32"/>
-      <c r="J120" s="30"/>
-      <c r="K120" s="32"/>
-      <c r="O120" s="34"/>
-      <c r="P120" s="34"/>
-      <c r="Q120" s="34"/>
-      <c r="R120" s="34"/>
-      <c r="S120" s="34"/>
-      <c r="T120" s="34"/>
-      <c r="U120" s="34"/>
-      <c r="V120" s="30"/>
-      <c r="W120" s="32"/>
-      <c r="X120" s="30"/>
-      <c r="Y120" s="32"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A121" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="30">
-        <v>5</v>
-      </c>
-      <c r="I121" s="32"/>
-      <c r="J121" s="30">
-        <v>5</v>
-      </c>
-      <c r="K121" s="32"/>
-      <c r="O121" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="P121" s="34"/>
-      <c r="Q121" s="34"/>
-      <c r="R121" s="34"/>
-      <c r="S121" s="34"/>
-      <c r="T121" s="34"/>
-      <c r="U121" s="34"/>
-      <c r="V121" s="30">
+      <c r="I125" s="27"/>
+      <c r="J125" s="26">
+        <v>1</v>
+      </c>
+      <c r="K125" s="27"/>
+      <c r="O125" s="30"/>
+      <c r="P125" s="30"/>
+      <c r="Q125" s="30"/>
+      <c r="R125" s="30"/>
+      <c r="S125" s="30"/>
+      <c r="T125" s="30"/>
+      <c r="U125" s="30"/>
+      <c r="V125" s="26"/>
+      <c r="W125" s="27"/>
+      <c r="X125" s="26"/>
+      <c r="Y125" s="27"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A126" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="26">
+        <v>3</v>
+      </c>
+      <c r="I126" s="27"/>
+      <c r="J126" s="26">
+        <v>3</v>
+      </c>
+      <c r="K126" s="27"/>
+      <c r="O126" s="30"/>
+      <c r="P126" s="30"/>
+      <c r="Q126" s="30"/>
+      <c r="R126" s="30"/>
+      <c r="S126" s="30"/>
+      <c r="T126" s="30"/>
+      <c r="U126" s="30"/>
+      <c r="V126" s="26"/>
+      <c r="W126" s="27"/>
+      <c r="X126" s="26"/>
+      <c r="Y126" s="27"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O127" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="P127" s="30"/>
+      <c r="Q127" s="30"/>
+      <c r="R127" s="30"/>
+      <c r="S127" s="30"/>
+      <c r="T127" s="30"/>
+      <c r="U127" s="30"/>
+      <c r="V127" s="26">
+        <v>1</v>
+      </c>
+      <c r="W127" s="27"/>
+      <c r="X127" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y127" s="27"/>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E128" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="W121" s="32"/>
-      <c r="X121" s="30">
-        <v>7</v>
-      </c>
-      <c r="Y121" s="32"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A122" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="30">
-        <v>2</v>
-      </c>
-      <c r="I122" s="32"/>
-      <c r="J122" s="30">
-        <v>2</v>
-      </c>
-      <c r="K122" s="32"/>
-      <c r="O122" s="34"/>
-      <c r="P122" s="34"/>
-      <c r="Q122" s="34"/>
-      <c r="R122" s="34"/>
-      <c r="S122" s="34"/>
-      <c r="T122" s="34"/>
-      <c r="U122" s="34"/>
-      <c r="V122" s="30"/>
-      <c r="W122" s="32"/>
-      <c r="X122" s="30"/>
-      <c r="Y122" s="32"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A123" s="34"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="32"/>
-      <c r="J123" s="30"/>
-      <c r="K123" s="32"/>
-      <c r="O123" s="34"/>
-      <c r="P123" s="34"/>
-      <c r="Q123" s="34"/>
-      <c r="R123" s="34"/>
-      <c r="S123" s="34"/>
-      <c r="T123" s="34"/>
-      <c r="U123" s="34"/>
-      <c r="V123" s="30"/>
-      <c r="W123" s="32"/>
-      <c r="X123" s="30"/>
-      <c r="Y123" s="32"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124" s="34"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="30"/>
-      <c r="I124" s="32"/>
-      <c r="J124" s="30"/>
-      <c r="K124" s="32"/>
-      <c r="O124" s="34"/>
-      <c r="P124" s="34"/>
-      <c r="Q124" s="34"/>
-      <c r="R124" s="34"/>
-      <c r="S124" s="34"/>
-      <c r="T124" s="34"/>
-      <c r="U124" s="34"/>
-      <c r="V124" s="30"/>
-      <c r="W124" s="32"/>
-      <c r="X124" s="30"/>
-      <c r="Y124" s="32"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A125" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="34"/>
-      <c r="H125" s="30">
-        <v>1</v>
-      </c>
-      <c r="I125" s="32"/>
-      <c r="J125" s="30">
-        <v>1</v>
-      </c>
-      <c r="K125" s="32"/>
-      <c r="O125" s="34"/>
-      <c r="P125" s="34"/>
-      <c r="Q125" s="34"/>
-      <c r="R125" s="34"/>
-      <c r="S125" s="34"/>
-      <c r="T125" s="34"/>
-      <c r="U125" s="34"/>
-      <c r="V125" s="30"/>
-      <c r="W125" s="32"/>
-      <c r="X125" s="30"/>
-      <c r="Y125" s="32"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A126" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="30">
-        <v>3</v>
-      </c>
-      <c r="I126" s="32"/>
-      <c r="J126" s="30">
-        <v>3</v>
-      </c>
-      <c r="K126" s="32"/>
-      <c r="O126" s="34"/>
-      <c r="P126" s="34"/>
-      <c r="Q126" s="34"/>
-      <c r="R126" s="34"/>
-      <c r="S126" s="34"/>
-      <c r="T126" s="34"/>
-      <c r="U126" s="34"/>
-      <c r="V126" s="30"/>
-      <c r="W126" s="32"/>
-      <c r="X126" s="30"/>
-      <c r="Y126" s="32"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O127" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="P127" s="34"/>
-      <c r="Q127" s="34"/>
-      <c r="R127" s="34"/>
-      <c r="S127" s="34"/>
-      <c r="T127" s="34"/>
-      <c r="U127" s="34"/>
-      <c r="V127" s="30">
-        <v>1</v>
-      </c>
-      <c r="W127" s="32"/>
-      <c r="X127" s="30">
-        <v>1</v>
-      </c>
-      <c r="Y127" s="32"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E128" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="22"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="24">
+      <c r="F128" s="32"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="29">
         <f>SUM(H109:I126)</f>
         <v>39</v>
       </c>
-      <c r="I128" s="24"/>
-      <c r="J128" s="24">
+      <c r="I128" s="29"/>
+      <c r="J128" s="29">
         <f>SUM(J109:K126)</f>
         <v>37</v>
       </c>
-      <c r="K128" s="24"/>
-      <c r="O128" s="34" t="s">
+      <c r="K128" s="29"/>
+      <c r="O128" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="P128" s="34"/>
-      <c r="Q128" s="34"/>
-      <c r="R128" s="34"/>
-      <c r="S128" s="34"/>
-      <c r="T128" s="34"/>
-      <c r="U128" s="34"/>
-      <c r="V128" s="30">
+      <c r="P128" s="30"/>
+      <c r="Q128" s="30"/>
+      <c r="R128" s="30"/>
+      <c r="S128" s="30"/>
+      <c r="T128" s="30"/>
+      <c r="U128" s="30"/>
+      <c r="V128" s="26">
         <v>2</v>
       </c>
-      <c r="W128" s="32"/>
-      <c r="X128" s="30">
+      <c r="W128" s="27"/>
+      <c r="X128" s="26">
         <v>2</v>
       </c>
-      <c r="Y128" s="32"/>
+      <c r="Y128" s="27"/>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E130" s="24" t="s">
+      <c r="E130" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24">
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29">
         <f>SUM(H128,J128)</f>
         <v>76</v>
       </c>
-      <c r="I130" s="24"/>
-      <c r="S130" s="21" t="s">
+      <c r="I130" s="29"/>
+      <c r="S130" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="T130" s="22"/>
-      <c r="U130" s="23"/>
-      <c r="V130" s="24">
+      <c r="T130" s="32"/>
+      <c r="U130" s="33"/>
+      <c r="V130" s="29">
         <f>SUM(V111:W128)</f>
-        <v>13.5</v>
-      </c>
-      <c r="W130" s="24"/>
-      <c r="X130" s="24">
+        <v>34.5</v>
+      </c>
+      <c r="W130" s="29"/>
+      <c r="X130" s="29">
         <f>SUM(X111:Y128)</f>
         <v>28.5</v>
       </c>
-      <c r="Y130" s="24"/>
+      <c r="Y130" s="29"/>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S132" s="24" t="s">
+      <c r="S132" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T132" s="24"/>
-      <c r="U132" s="24"/>
-      <c r="V132" s="24">
+      <c r="T132" s="29"/>
+      <c r="U132" s="29"/>
+      <c r="V132" s="29">
         <f>SUM(V130,X130)</f>
-        <v>42</v>
-      </c>
-      <c r="W132" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="W132" s="29"/>
     </row>
     <row r="134" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
@@ -5287,18 +5319,18 @@
       <c r="A138" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="35"/>
-      <c r="C138" s="35"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="37"/>
       <c r="D138" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="37"/>
       <c r="G138" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H138" s="35"/>
-      <c r="I138" s="35"/>
+      <c r="H138" s="37"/>
+      <c r="I138" s="37"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="O138" s="6" t="s">
@@ -5320,463 +5352,491 @@
       <c r="Y138" s="8"/>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A141" s="33" t="s">
+      <c r="A141" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B141" s="33"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33" t="s">
+      <c r="B141" s="35"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="35"/>
+      <c r="H141" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I141" s="33"/>
-      <c r="J141" s="33" t="s">
+      <c r="I141" s="35"/>
+      <c r="J141" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K141" s="33"/>
-      <c r="O141" s="38" t="s">
+      <c r="K141" s="35"/>
+      <c r="O141" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P141" s="39"/>
-      <c r="Q141" s="39"/>
-      <c r="R141" s="39"/>
-      <c r="S141" s="39"/>
-      <c r="T141" s="39"/>
-      <c r="U141" s="40"/>
-      <c r="V141" s="38" t="s">
+      <c r="P141" s="20"/>
+      <c r="Q141" s="20"/>
+      <c r="R141" s="20"/>
+      <c r="S141" s="20"/>
+      <c r="T141" s="20"/>
+      <c r="U141" s="21"/>
+      <c r="V141" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="W141" s="40"/>
-      <c r="X141" s="38" t="s">
+      <c r="W141" s="21"/>
+      <c r="X141" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Y141" s="40"/>
+      <c r="Y141" s="21"/>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A142" s="34" t="s">
+      <c r="A142" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="34"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="30"/>
-      <c r="I142" s="32"/>
-      <c r="J142" s="30"/>
-      <c r="K142" s="32"/>
-      <c r="O142" s="41"/>
-      <c r="P142" s="42"/>
-      <c r="Q142" s="42"/>
-      <c r="R142" s="42"/>
-      <c r="S142" s="42"/>
-      <c r="T142" s="42"/>
-      <c r="U142" s="43"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="26"/>
+      <c r="K142" s="27"/>
+      <c r="O142" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P142" s="23"/>
+      <c r="Q142" s="23"/>
+      <c r="R142" s="23"/>
+      <c r="S142" s="23"/>
+      <c r="T142" s="23"/>
+      <c r="U142" s="24"/>
       <c r="V142" s="10"/>
       <c r="W142" s="11"/>
       <c r="X142" s="10"/>
       <c r="Y142" s="11"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A143" s="34"/>
-      <c r="B143" s="34"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
-      <c r="E143" s="34"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="30"/>
-      <c r="I143" s="32"/>
-      <c r="J143" s="30"/>
-      <c r="K143" s="32"/>
-      <c r="O143" s="41"/>
-      <c r="P143" s="42"/>
-      <c r="Q143" s="42"/>
-      <c r="R143" s="42"/>
-      <c r="S143" s="42"/>
-      <c r="T143" s="42"/>
-      <c r="U143" s="43"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="27"/>
+      <c r="O143" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="P143" s="23"/>
+      <c r="Q143" s="23"/>
+      <c r="R143" s="23"/>
+      <c r="S143" s="23"/>
+      <c r="T143" s="23"/>
+      <c r="U143" s="24"/>
       <c r="V143" s="10"/>
       <c r="W143" s="11"/>
       <c r="X143" s="10"/>
       <c r="Y143" s="11"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A144" s="34"/>
-      <c r="B144" s="34"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
-      <c r="E144" s="34"/>
-      <c r="F144" s="34"/>
-      <c r="G144" s="34"/>
-      <c r="H144" s="30"/>
-      <c r="I144" s="32"/>
-      <c r="J144" s="30"/>
-      <c r="K144" s="32"/>
-      <c r="O144" s="41"/>
-      <c r="P144" s="42"/>
-      <c r="Q144" s="42"/>
-      <c r="R144" s="42"/>
-      <c r="S144" s="42"/>
-      <c r="T144" s="42"/>
-      <c r="U144" s="43"/>
+      <c r="A144" s="30"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="26"/>
+      <c r="K144" s="27"/>
+      <c r="O144" s="22"/>
+      <c r="P144" s="23"/>
+      <c r="Q144" s="23"/>
+      <c r="R144" s="23"/>
+      <c r="S144" s="23"/>
+      <c r="T144" s="23"/>
+      <c r="U144" s="24"/>
       <c r="V144" s="10"/>
       <c r="W144" s="11"/>
       <c r="X144" s="10"/>
       <c r="Y144" s="11"/>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A145" s="34" t="s">
+      <c r="A145" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="30"/>
-      <c r="I145" s="32"/>
-      <c r="J145" s="30"/>
-      <c r="K145" s="32"/>
-      <c r="O145" s="41"/>
-      <c r="P145" s="42"/>
-      <c r="Q145" s="42"/>
-      <c r="R145" s="42"/>
-      <c r="S145" s="42"/>
-      <c r="T145" s="42"/>
-      <c r="U145" s="43"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="26">
+        <v>1</v>
+      </c>
+      <c r="I145" s="27"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="27"/>
+      <c r="O145" s="22"/>
+      <c r="P145" s="23"/>
+      <c r="Q145" s="23"/>
+      <c r="R145" s="23"/>
+      <c r="S145" s="23"/>
+      <c r="T145" s="23"/>
+      <c r="U145" s="24"/>
       <c r="V145" s="10"/>
       <c r="W145" s="11"/>
       <c r="X145" s="10"/>
       <c r="Y145" s="11"/>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A146" s="37" t="s">
+      <c r="A146" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="34"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="30"/>
-      <c r="I146" s="32"/>
-      <c r="J146" s="30">
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="26">
+        <v>1</v>
+      </c>
+      <c r="I146" s="27"/>
+      <c r="J146" s="26">
         <v>2</v>
       </c>
-      <c r="K146" s="32"/>
-      <c r="O146" s="41"/>
-      <c r="P146" s="42"/>
-      <c r="Q146" s="42"/>
-      <c r="R146" s="42"/>
-      <c r="S146" s="42"/>
-      <c r="T146" s="42"/>
-      <c r="U146" s="43"/>
+      <c r="K146" s="27"/>
+      <c r="O146" s="22"/>
+      <c r="P146" s="23"/>
+      <c r="Q146" s="23"/>
+      <c r="R146" s="23"/>
+      <c r="S146" s="23"/>
+      <c r="T146" s="23"/>
+      <c r="U146" s="24"/>
       <c r="V146" s="10"/>
       <c r="W146" s="11"/>
       <c r="X146" s="10"/>
       <c r="Y146" s="11"/>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A147" s="37" t="s">
+      <c r="A147" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B147" s="34"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="34"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="32"/>
-      <c r="J147" s="30">
+      <c r="B147" s="30"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="26">
         <v>5</v>
       </c>
-      <c r="K147" s="32"/>
-      <c r="O147" s="41"/>
-      <c r="P147" s="42"/>
-      <c r="Q147" s="42"/>
-      <c r="R147" s="42"/>
-      <c r="S147" s="42"/>
-      <c r="T147" s="42"/>
-      <c r="U147" s="43"/>
+      <c r="K147" s="27"/>
+      <c r="O147" s="22"/>
+      <c r="P147" s="23"/>
+      <c r="Q147" s="23"/>
+      <c r="R147" s="23"/>
+      <c r="S147" s="23"/>
+      <c r="T147" s="23"/>
+      <c r="U147" s="24"/>
       <c r="V147" s="10"/>
       <c r="W147" s="11"/>
       <c r="X147" s="10"/>
       <c r="Y147" s="11"/>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A148" s="37" t="s">
+      <c r="A148" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B148" s="34"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="34"/>
-      <c r="F148" s="34"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="32"/>
-      <c r="J148" s="30"/>
-      <c r="K148" s="32"/>
-      <c r="O148" s="41"/>
-      <c r="P148" s="42"/>
-      <c r="Q148" s="42"/>
-      <c r="R148" s="42"/>
-      <c r="S148" s="42"/>
-      <c r="T148" s="42"/>
-      <c r="U148" s="43"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="26">
+        <v>1</v>
+      </c>
+      <c r="I148" s="27"/>
+      <c r="J148" s="26"/>
+      <c r="K148" s="27"/>
+      <c r="O148" s="22"/>
+      <c r="P148" s="23"/>
+      <c r="Q148" s="23"/>
+      <c r="R148" s="23"/>
+      <c r="S148" s="23"/>
+      <c r="T148" s="23"/>
+      <c r="U148" s="24"/>
       <c r="V148" s="10"/>
       <c r="W148" s="11"/>
       <c r="X148" s="10"/>
       <c r="Y148" s="11"/>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A149" s="34"/>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="30"/>
-      <c r="I149" s="32"/>
-      <c r="J149" s="30"/>
-      <c r="K149" s="32"/>
-      <c r="O149" s="41"/>
-      <c r="P149" s="42"/>
-      <c r="Q149" s="42"/>
-      <c r="R149" s="42"/>
-      <c r="S149" s="42"/>
-      <c r="T149" s="42"/>
-      <c r="U149" s="43"/>
+      <c r="A149" s="30"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="26"/>
+      <c r="K149" s="27"/>
+      <c r="O149" s="22"/>
+      <c r="P149" s="23"/>
+      <c r="Q149" s="23"/>
+      <c r="R149" s="23"/>
+      <c r="S149" s="23"/>
+      <c r="T149" s="23"/>
+      <c r="U149" s="24"/>
       <c r="V149" s="10"/>
       <c r="W149" s="11"/>
       <c r="X149" s="10"/>
       <c r="Y149" s="11"/>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A150" s="37" t="s">
+      <c r="A150" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B150" s="34"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="30"/>
-      <c r="I150" s="32"/>
-      <c r="J150" s="30">
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="26">
+        <v>1</v>
+      </c>
+      <c r="I150" s="27"/>
+      <c r="J150" s="26">
         <v>2</v>
       </c>
-      <c r="K150" s="32"/>
-      <c r="O150" s="41"/>
-      <c r="P150" s="42"/>
-      <c r="Q150" s="42"/>
-      <c r="R150" s="42"/>
-      <c r="S150" s="42"/>
-      <c r="T150" s="42"/>
-      <c r="U150" s="43"/>
+      <c r="K150" s="27"/>
+      <c r="O150" s="22"/>
+      <c r="P150" s="23"/>
+      <c r="Q150" s="23"/>
+      <c r="R150" s="23"/>
+      <c r="S150" s="23"/>
+      <c r="T150" s="23"/>
+      <c r="U150" s="24"/>
       <c r="V150" s="10"/>
       <c r="W150" s="11"/>
       <c r="X150" s="10"/>
       <c r="Y150" s="11"/>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A151" s="34"/>
-      <c r="B151" s="34"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="34"/>
-      <c r="G151" s="34"/>
-      <c r="H151" s="30"/>
-      <c r="I151" s="32"/>
-      <c r="J151" s="30"/>
-      <c r="K151" s="32"/>
-      <c r="O151" s="41"/>
-      <c r="P151" s="42"/>
-      <c r="Q151" s="42"/>
-      <c r="R151" s="42"/>
-      <c r="S151" s="42"/>
-      <c r="T151" s="42"/>
-      <c r="U151" s="43"/>
+      <c r="A151" s="30"/>
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="26"/>
+      <c r="K151" s="27"/>
+      <c r="O151" s="22"/>
+      <c r="P151" s="23"/>
+      <c r="Q151" s="23"/>
+      <c r="R151" s="23"/>
+      <c r="S151" s="23"/>
+      <c r="T151" s="23"/>
+      <c r="U151" s="24"/>
       <c r="V151" s="10"/>
       <c r="W151" s="11"/>
       <c r="X151" s="10"/>
       <c r="Y151" s="11"/>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A152" s="34"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="30"/>
-      <c r="I152" s="32"/>
-      <c r="J152" s="30"/>
-      <c r="K152" s="32"/>
-      <c r="O152" s="41"/>
-      <c r="P152" s="42"/>
-      <c r="Q152" s="42"/>
-      <c r="R152" s="42"/>
-      <c r="S152" s="42"/>
-      <c r="T152" s="42"/>
-      <c r="U152" s="43"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="26"/>
+      <c r="K152" s="27"/>
+      <c r="O152" s="22"/>
+      <c r="P152" s="23"/>
+      <c r="Q152" s="23"/>
+      <c r="R152" s="23"/>
+      <c r="S152" s="23"/>
+      <c r="T152" s="23"/>
+      <c r="U152" s="24"/>
       <c r="V152" s="10"/>
       <c r="W152" s="11"/>
       <c r="X152" s="10"/>
       <c r="Y152" s="11"/>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A153" s="37" t="s">
+      <c r="A153" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B153" s="34"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34"/>
-      <c r="H153" s="30"/>
-      <c r="I153" s="32"/>
-      <c r="J153" s="30">
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="26">
         <v>2</v>
       </c>
-      <c r="K153" s="32"/>
-      <c r="O153" s="41"/>
-      <c r="P153" s="42"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="42"/>
-      <c r="S153" s="42"/>
-      <c r="T153" s="42"/>
-      <c r="U153" s="43"/>
+      <c r="K153" s="27"/>
+      <c r="O153" s="22"/>
+      <c r="P153" s="23"/>
+      <c r="Q153" s="23"/>
+      <c r="R153" s="23"/>
+      <c r="S153" s="23"/>
+      <c r="T153" s="23"/>
+      <c r="U153" s="24"/>
       <c r="V153" s="10"/>
       <c r="W153" s="11"/>
       <c r="X153" s="10"/>
       <c r="Y153" s="11"/>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A154" s="34"/>
-      <c r="B154" s="34"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="34"/>
-      <c r="G154" s="34"/>
-      <c r="H154" s="30"/>
-      <c r="I154" s="32"/>
-      <c r="J154" s="30"/>
-      <c r="K154" s="32"/>
-      <c r="O154" s="41"/>
-      <c r="P154" s="42"/>
-      <c r="Q154" s="42"/>
-      <c r="R154" s="42"/>
-      <c r="S154" s="42"/>
-      <c r="T154" s="42"/>
-      <c r="U154" s="43"/>
+      <c r="A154" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I154" s="27"/>
+      <c r="J154" s="26"/>
+      <c r="K154" s="27"/>
+      <c r="O154" s="22"/>
+      <c r="P154" s="23"/>
+      <c r="Q154" s="23"/>
+      <c r="R154" s="23"/>
+      <c r="S154" s="23"/>
+      <c r="T154" s="23"/>
+      <c r="U154" s="24"/>
       <c r="V154" s="10"/>
       <c r="W154" s="11"/>
       <c r="X154" s="10"/>
       <c r="Y154" s="11"/>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
-      <c r="B155" s="34"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34"/>
-      <c r="H155" s="30"/>
-      <c r="I155" s="32"/>
-      <c r="J155" s="30"/>
-      <c r="K155" s="32"/>
-      <c r="O155" s="41"/>
-      <c r="P155" s="42"/>
-      <c r="Q155" s="42"/>
-      <c r="R155" s="42"/>
-      <c r="S155" s="42"/>
-      <c r="T155" s="42"/>
-      <c r="U155" s="43"/>
+      <c r="A155" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="26">
+        <v>18</v>
+      </c>
+      <c r="I155" s="27"/>
+      <c r="J155" s="26"/>
+      <c r="K155" s="27"/>
+      <c r="O155" s="22"/>
+      <c r="P155" s="23"/>
+      <c r="Q155" s="23"/>
+      <c r="R155" s="23"/>
+      <c r="S155" s="23"/>
+      <c r="T155" s="23"/>
+      <c r="U155" s="24"/>
       <c r="V155" s="10"/>
       <c r="W155" s="11"/>
       <c r="X155" s="10"/>
       <c r="Y155" s="11"/>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
-      <c r="B156" s="34"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="32"/>
-      <c r="J156" s="30"/>
-      <c r="K156" s="32"/>
-      <c r="O156" s="41"/>
-      <c r="P156" s="42"/>
-      <c r="Q156" s="42"/>
-      <c r="R156" s="42"/>
-      <c r="S156" s="42"/>
-      <c r="T156" s="42"/>
-      <c r="U156" s="43"/>
+      <c r="A156" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="26">
+        <v>3</v>
+      </c>
+      <c r="I156" s="27"/>
+      <c r="J156" s="26"/>
+      <c r="K156" s="27"/>
+      <c r="O156" s="22"/>
+      <c r="P156" s="23"/>
+      <c r="Q156" s="23"/>
+      <c r="R156" s="23"/>
+      <c r="S156" s="23"/>
+      <c r="T156" s="23"/>
+      <c r="U156" s="24"/>
       <c r="V156" s="10"/>
       <c r="W156" s="11"/>
       <c r="X156" s="10"/>
       <c r="Y156" s="11"/>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A157" s="34"/>
-      <c r="B157" s="34"/>
-      <c r="C157" s="34"/>
-      <c r="D157" s="34"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="34"/>
-      <c r="G157" s="34"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="32"/>
-      <c r="J157" s="30"/>
-      <c r="K157" s="32"/>
-      <c r="O157" s="41"/>
-      <c r="P157" s="42"/>
-      <c r="Q157" s="42"/>
-      <c r="R157" s="42"/>
-      <c r="S157" s="42"/>
-      <c r="T157" s="42"/>
-      <c r="U157" s="43"/>
+      <c r="A157" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="26"/>
+      <c r="K157" s="27"/>
+      <c r="O157" s="22"/>
+      <c r="P157" s="23"/>
+      <c r="Q157" s="23"/>
+      <c r="R157" s="23"/>
+      <c r="S157" s="23"/>
+      <c r="T157" s="23"/>
+      <c r="U157" s="24"/>
       <c r="V157" s="10"/>
       <c r="W157" s="11"/>
       <c r="X157" s="10"/>
       <c r="Y157" s="11"/>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A158" s="34" t="s">
+      <c r="A158" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B158" s="34"/>
-      <c r="C158" s="34"/>
-      <c r="D158" s="34"/>
-      <c r="E158" s="34"/>
-      <c r="F158" s="34"/>
-      <c r="G158" s="34"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="32"/>
-      <c r="J158" s="30">
+      <c r="B158" s="30"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="26">
         <v>1</v>
       </c>
-      <c r="K158" s="32"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="26">
+        <v>1</v>
+      </c>
+      <c r="K158" s="27"/>
       <c r="O158" s="10" t="s">
         <v>37</v>
       </c>
@@ -5786,27 +5846,33 @@
       <c r="S158" s="12"/>
       <c r="T158" s="12"/>
       <c r="U158" s="11"/>
-      <c r="V158" s="10"/>
+      <c r="V158" s="10">
+        <v>1</v>
+      </c>
       <c r="W158" s="11"/>
-      <c r="X158" s="10"/>
+      <c r="X158" s="10">
+        <v>1</v>
+      </c>
       <c r="Y158" s="11"/>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A159" s="34" t="s">
+      <c r="A159" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B159" s="34"/>
-      <c r="C159" s="34"/>
-      <c r="D159" s="34"/>
-      <c r="E159" s="34"/>
-      <c r="F159" s="34"/>
-      <c r="G159" s="34"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="32"/>
-      <c r="J159" s="30">
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="26">
         <v>1</v>
       </c>
-      <c r="K159" s="32"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="26">
+        <v>1</v>
+      </c>
+      <c r="K159" s="27"/>
       <c r="O159" s="10"/>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
@@ -5820,21 +5886,21 @@
       <c r="Y159" s="11"/>
     </row>
     <row r="161" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E161" s="21" t="s">
+      <c r="E161" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F161" s="22"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="24">
+      <c r="F161" s="32"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="29">
         <f>SUM(H142:I159)</f>
-        <v>0</v>
-      </c>
-      <c r="I161" s="24"/>
-      <c r="J161" s="24">
+        <v>27.5</v>
+      </c>
+      <c r="I161" s="29"/>
+      <c r="J161" s="29">
         <f>SUM(J142:K159)</f>
         <v>13</v>
       </c>
-      <c r="K161" s="24"/>
+      <c r="K161" s="29"/>
       <c r="S161" s="13" t="s">
         <v>7</v>
       </c>
@@ -5842,245 +5908,329 @@
       <c r="U161" s="15"/>
       <c r="V161" s="13">
         <f>SUM(V142:W159)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W161" s="15"/>
       <c r="X161" s="13">
         <f>SUM(X142:Y159)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y161" s="15"/>
     </row>
     <row r="163" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E163" s="24" t="s">
+      <c r="E163" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24">
+      <c r="F163" s="29"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29">
         <f>SUM(H161,J161)</f>
-        <v>13</v>
-      </c>
-      <c r="I163" s="24"/>
-      <c r="S163" s="24" t="s">
+        <v>40.5</v>
+      </c>
+      <c r="I163" s="29"/>
+      <c r="S163" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T163" s="24"/>
-      <c r="U163" s="24"/>
-      <c r="V163" s="24">
+      <c r="T163" s="29"/>
+      <c r="U163" s="29"/>
+      <c r="V163" s="29">
         <f>SUM(V161,X161)</f>
-        <v>0</v>
-      </c>
-      <c r="W163" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="W163" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="520">
-    <mergeCell ref="O142:U142"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="O46:U46"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="O45:U45"/>
-    <mergeCell ref="S163:U163"/>
-    <mergeCell ref="V163:W163"/>
-    <mergeCell ref="O157:U157"/>
-    <mergeCell ref="O154:U154"/>
-    <mergeCell ref="O155:U155"/>
-    <mergeCell ref="O156:U156"/>
-    <mergeCell ref="O151:U151"/>
-    <mergeCell ref="O152:U152"/>
-    <mergeCell ref="O153:U153"/>
-    <mergeCell ref="O148:U148"/>
-    <mergeCell ref="O149:U149"/>
-    <mergeCell ref="O150:U150"/>
-    <mergeCell ref="O145:U145"/>
-    <mergeCell ref="O146:U146"/>
-    <mergeCell ref="O147:U147"/>
-    <mergeCell ref="O143:U143"/>
-    <mergeCell ref="O144:U144"/>
-    <mergeCell ref="O128:U128"/>
-    <mergeCell ref="V128:W128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="S130:U130"/>
-    <mergeCell ref="V130:W130"/>
-    <mergeCell ref="X130:Y130"/>
-    <mergeCell ref="S132:U132"/>
-    <mergeCell ref="V132:W132"/>
-    <mergeCell ref="O125:U125"/>
-    <mergeCell ref="V125:W125"/>
-    <mergeCell ref="X125:Y125"/>
-    <mergeCell ref="O126:U126"/>
-    <mergeCell ref="V126:W126"/>
-    <mergeCell ref="X126:Y126"/>
-    <mergeCell ref="O127:U127"/>
-    <mergeCell ref="V127:W127"/>
-    <mergeCell ref="X127:Y127"/>
-    <mergeCell ref="O122:U122"/>
-    <mergeCell ref="V122:W122"/>
-    <mergeCell ref="X122:Y122"/>
-    <mergeCell ref="O123:U123"/>
-    <mergeCell ref="V123:W123"/>
-    <mergeCell ref="X123:Y123"/>
-    <mergeCell ref="O124:U124"/>
-    <mergeCell ref="V124:W124"/>
-    <mergeCell ref="X124:Y124"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="V119:W119"/>
-    <mergeCell ref="X119:Y119"/>
-    <mergeCell ref="O120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="O121:U121"/>
-    <mergeCell ref="V121:W121"/>
-    <mergeCell ref="X121:Y121"/>
-    <mergeCell ref="O116:U116"/>
-    <mergeCell ref="V116:W116"/>
-    <mergeCell ref="X116:Y116"/>
-    <mergeCell ref="O117:U117"/>
-    <mergeCell ref="V117:W117"/>
-    <mergeCell ref="X117:Y117"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="V118:W118"/>
-    <mergeCell ref="X118:Y118"/>
-    <mergeCell ref="O113:U113"/>
-    <mergeCell ref="V113:W113"/>
-    <mergeCell ref="X113:Y113"/>
-    <mergeCell ref="O114:U114"/>
-    <mergeCell ref="V114:W114"/>
-    <mergeCell ref="X114:Y114"/>
-    <mergeCell ref="O115:U115"/>
-    <mergeCell ref="V115:W115"/>
-    <mergeCell ref="X115:Y115"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="V110:W110"/>
-    <mergeCell ref="X110:Y110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="V111:W111"/>
-    <mergeCell ref="X111:Y111"/>
-    <mergeCell ref="O112:U112"/>
-    <mergeCell ref="V112:W112"/>
-    <mergeCell ref="X112:Y112"/>
-    <mergeCell ref="S95:U95"/>
-    <mergeCell ref="V95:W95"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="S99:U99"/>
-    <mergeCell ref="V99:W99"/>
-    <mergeCell ref="O103:AB104"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="S107:T107"/>
-    <mergeCell ref="V107:W107"/>
-    <mergeCell ref="O91:U91"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="O92:U92"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="O93:U93"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="O88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="O89:U89"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="O90:U90"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="O85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="O86:U86"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="O87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="O82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="O83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="O84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="O79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="O80:U80"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="O81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="O76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="O77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="O78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="O68:AB69"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="O60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="O56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="O57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="O53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="O54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="O55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="O52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="O47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="O48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="O49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A35:N36"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A68:N69"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="A120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="A141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="A156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="E163:G163"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="A158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="A159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="J159:K159"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
@@ -6105,296 +6255,212 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="E163:G163"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="A157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="A158:G158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="A159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="A156:G156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="A151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="A152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="A153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="A154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="A149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="A150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="A145:G145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="A147:G147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="A141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="A126:G126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="A120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="A111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="A109:G109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A68:N69"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A35:N36"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="O47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="O48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="O49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="O52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="O53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="O54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="O55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="O56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="O57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="O60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="O68:AB69"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="O76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="O77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="O78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="O79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="O80:U80"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="O81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="O82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="O83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="O84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="O85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="O86:U86"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="O87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="O88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="O89:U89"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="O90:U90"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="O91:U91"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="O92:U92"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="O93:U93"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="S95:U95"/>
+    <mergeCell ref="V95:W95"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="S99:U99"/>
+    <mergeCell ref="V99:W99"/>
+    <mergeCell ref="O103:AB104"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="V107:W107"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="V110:W110"/>
+    <mergeCell ref="X110:Y110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="V111:W111"/>
+    <mergeCell ref="X111:Y111"/>
+    <mergeCell ref="O112:U112"/>
+    <mergeCell ref="V112:W112"/>
+    <mergeCell ref="X112:Y112"/>
+    <mergeCell ref="O113:U113"/>
+    <mergeCell ref="V113:W113"/>
+    <mergeCell ref="X113:Y113"/>
+    <mergeCell ref="O114:U114"/>
+    <mergeCell ref="V114:W114"/>
+    <mergeCell ref="X114:Y114"/>
+    <mergeCell ref="O115:U115"/>
+    <mergeCell ref="V115:W115"/>
+    <mergeCell ref="X115:Y115"/>
+    <mergeCell ref="O116:U116"/>
+    <mergeCell ref="V116:W116"/>
+    <mergeCell ref="X116:Y116"/>
+    <mergeCell ref="O117:U117"/>
+    <mergeCell ref="V117:W117"/>
+    <mergeCell ref="X117:Y117"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="V118:W118"/>
+    <mergeCell ref="X118:Y118"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="V119:W119"/>
+    <mergeCell ref="X119:Y119"/>
+    <mergeCell ref="O120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="O121:U121"/>
+    <mergeCell ref="V121:W121"/>
+    <mergeCell ref="X121:Y121"/>
+    <mergeCell ref="O122:U122"/>
+    <mergeCell ref="V122:W122"/>
+    <mergeCell ref="X122:Y122"/>
+    <mergeCell ref="O123:U123"/>
+    <mergeCell ref="V123:W123"/>
+    <mergeCell ref="X123:Y123"/>
+    <mergeCell ref="O124:U124"/>
+    <mergeCell ref="V124:W124"/>
+    <mergeCell ref="X124:Y124"/>
+    <mergeCell ref="O148:U148"/>
+    <mergeCell ref="O149:U149"/>
+    <mergeCell ref="O150:U150"/>
+    <mergeCell ref="O145:U145"/>
+    <mergeCell ref="O146:U146"/>
+    <mergeCell ref="O147:U147"/>
+    <mergeCell ref="O143:U143"/>
+    <mergeCell ref="O144:U144"/>
+    <mergeCell ref="O128:U128"/>
+    <mergeCell ref="S130:U130"/>
+    <mergeCell ref="S132:U132"/>
+    <mergeCell ref="S163:U163"/>
+    <mergeCell ref="V163:W163"/>
+    <mergeCell ref="O157:U157"/>
+    <mergeCell ref="O154:U154"/>
+    <mergeCell ref="O155:U155"/>
+    <mergeCell ref="O156:U156"/>
+    <mergeCell ref="O151:U151"/>
+    <mergeCell ref="O152:U152"/>
+    <mergeCell ref="O153:U153"/>
+    <mergeCell ref="O142:U142"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="O46:U46"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="O45:U45"/>
+    <mergeCell ref="V128:W128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="V130:W130"/>
+    <mergeCell ref="X130:Y130"/>
+    <mergeCell ref="V132:W132"/>
+    <mergeCell ref="O125:U125"/>
+    <mergeCell ref="V125:W125"/>
+    <mergeCell ref="X125:Y125"/>
+    <mergeCell ref="O126:U126"/>
+    <mergeCell ref="V126:W126"/>
+    <mergeCell ref="X126:Y126"/>
+    <mergeCell ref="O127:U127"/>
+    <mergeCell ref="V127:W127"/>
+    <mergeCell ref="X127:Y127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/01_Projektmanagement/Zeiterfassung.xlsx
+++ b/01_Projektmanagement/Zeiterfassung.xlsx
@@ -572,31 +572,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,19 +587,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -632,20 +605,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,7 +822,10 @@
                   <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.5</c:v>
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,7 +912,10 @@
                   <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,8 +931,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="301996264"/>
-        <c:axId val="301988816"/>
+        <c:axId val="313285344"/>
+        <c:axId val="313286128"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1435,7 +1441,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="301996264"/>
+        <c:axId val="313285344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1484,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301988816"/>
+        <c:crossAx val="313286128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1486,7 +1492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301988816"/>
+        <c:axId val="313286128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1543,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301996264"/>
+        <c:crossAx val="313285344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2495,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB163"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A127" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A122" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2505,271 +2511,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="30">
         <f>SUM(H43:I60)</f>
         <v>21.75</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="39">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30">
         <f>SUM(J43:K60)</f>
         <v>20.75</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="39">
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="30">
         <f>SUM(H62,J62)</f>
         <v>42.5</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="41"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="39">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="30">
         <f>SUM(V43:W60)</f>
         <v>35.25</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="39">
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30">
         <f>SUM(X43:Y60)</f>
         <v>36.25</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="39">
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="30">
         <f>SUM(V62,X62)</f>
         <v>71.5</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="30">
         <f>SUM(H76:I91)</f>
         <v>37.75</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="39">
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="30">
         <f>SUM(J76:K91)</f>
         <v>37</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="39">
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="30">
         <f>SUM(H93,J93)</f>
         <v>74.75</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="39">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="30">
         <f>SUM(V95)</f>
         <v>33</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39">
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="30">
         <f>SUM(X95)</f>
         <v>33</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="39">
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="30">
         <f>SUM(G8,D8)</f>
         <v>66</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="39">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="30">
         <f>SUM(H109:I126)</f>
         <v>39</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="39">
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="30">
         <f>SUM(J109:K126)</f>
         <v>37</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="39">
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30">
         <f>SUM(G9,D9)</f>
         <v>76</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="33">
         <f>SUM(V130)</f>
         <v>34.5</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26">
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="33">
         <f>SUM(X130)</f>
         <v>28.5</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="26">
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="33">
         <f>SUM(G10,D10)</f>
         <v>63</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="27"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="39">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="30">
         <f>SUM(H142:I159)</f>
-        <v>27.5</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="39">
+        <v>29.75</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="30">
         <f>SUM(J161)</f>
-        <v>13</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="39">
+        <v>12.25</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="30">
         <f>SUM(D11:I11)</f>
-        <v>40.5</v>
-      </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+        <v>42</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="27"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="33">
+        <f>SUM(V142:W159)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="33">
+        <f>SUM(X142:Y159)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="33">
+        <f>SUM(V161,X161)</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="25">
+      <c r="D13" s="46">
         <f>SUM(D5:F12)</f>
-        <v>228.75</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="23">
+        <v>232</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="43">
         <f>SUM(G5:I12)</f>
-        <v>205.5</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+        <v>205.75</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -2777,15 +2792,15 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -2800,14 +2815,14 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="44">
+      <c r="F16" s="29">
         <f>SUM(J4:L12)</f>
-        <v>434.25</v>
-      </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+        <v>437.75</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -2880,82 +2895,82 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -2989,753 +3004,753 @@
       <c r="A39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="O39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
       <c r="R39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
       <c r="U39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35" t="s">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35" t="s">
+      <c r="I42" s="36"/>
+      <c r="J42" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="35"/>
-      <c r="O42" s="35" t="s">
+      <c r="K42" s="36"/>
+      <c r="O42" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35" t="s">
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35" t="s">
+      <c r="W42" s="36"/>
+      <c r="X42" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Y42" s="35"/>
+      <c r="Y42" s="36"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="26">
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="33">
         <v>1</v>
       </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="26">
+      <c r="I43" s="35"/>
+      <c r="J43" s="33">
         <v>0.5</v>
       </c>
-      <c r="K43" s="27"/>
-      <c r="O43" s="30" t="s">
+      <c r="K43" s="35"/>
+      <c r="O43" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="26">
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="33">
         <v>1</v>
       </c>
-      <c r="W43" s="27"/>
-      <c r="X43" s="26">
+      <c r="W43" s="35"/>
+      <c r="X43" s="33">
         <v>1</v>
       </c>
-      <c r="Y43" s="27"/>
+      <c r="Y43" s="35"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="26">
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="33">
         <v>0.25</v>
       </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="26">
+      <c r="I44" s="35"/>
+      <c r="J44" s="33">
         <v>0.25</v>
       </c>
-      <c r="K44" s="27"/>
-      <c r="O44" s="30" t="s">
+      <c r="K44" s="35"/>
+      <c r="O44" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="26">
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="33">
         <v>1.5</v>
       </c>
-      <c r="Y44" s="27"/>
+      <c r="Y44" s="35"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="26">
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="33">
         <v>5</v>
       </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="26">
+      <c r="I45" s="35"/>
+      <c r="J45" s="33">
         <v>7</v>
       </c>
-      <c r="K45" s="27"/>
-      <c r="O45" s="26" t="s">
+      <c r="K45" s="35"/>
+      <c r="O45" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="27"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="35"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="26">
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="33">
         <v>0.5</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="26">
+      <c r="I46" s="35"/>
+      <c r="J46" s="33">
         <v>1</v>
       </c>
-      <c r="K46" s="27"/>
-      <c r="O46" s="26" t="s">
+      <c r="K46" s="35"/>
+      <c r="O46" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="26">
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="33">
         <v>8</v>
       </c>
-      <c r="W46" s="27"/>
-      <c r="X46" s="26">
+      <c r="W46" s="35"/>
+      <c r="X46" s="33">
         <v>5</v>
       </c>
-      <c r="Y46" s="27"/>
+      <c r="Y46" s="35"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="26">
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="33">
         <v>1</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="26">
+      <c r="I47" s="35"/>
+      <c r="J47" s="33">
         <v>1</v>
       </c>
-      <c r="K47" s="27"/>
-      <c r="O47" s="26" t="s">
+      <c r="K47" s="35"/>
+      <c r="O47" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="26">
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="33">
         <v>9</v>
       </c>
-      <c r="W47" s="27"/>
-      <c r="X47" s="26">
+      <c r="W47" s="35"/>
+      <c r="X47" s="33">
         <v>4</v>
       </c>
-      <c r="Y47" s="27"/>
+      <c r="Y47" s="35"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="26">
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="33">
         <v>3</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="26">
+      <c r="I48" s="35"/>
+      <c r="J48" s="33">
         <v>2</v>
       </c>
-      <c r="K48" s="27"/>
-      <c r="O48" s="26" t="s">
+      <c r="K48" s="35"/>
+      <c r="O48" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="26">
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="33">
         <v>5</v>
       </c>
-      <c r="W48" s="27"/>
-      <c r="X48" s="26">
+      <c r="W48" s="35"/>
+      <c r="X48" s="33">
         <v>2</v>
       </c>
-      <c r="Y48" s="27"/>
+      <c r="Y48" s="35"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="26">
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="33">
         <v>6</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="26">
+      <c r="I49" s="35"/>
+      <c r="J49" s="33">
         <v>5</v>
       </c>
-      <c r="K49" s="27"/>
-      <c r="O49" s="26" t="s">
+      <c r="K49" s="35"/>
+      <c r="O49" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="26">
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="33">
         <v>2</v>
       </c>
-      <c r="W49" s="27"/>
-      <c r="X49" s="26">
+      <c r="W49" s="35"/>
+      <c r="X49" s="33">
         <v>2</v>
       </c>
-      <c r="Y49" s="27"/>
+      <c r="Y49" s="35"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="26">
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="33">
         <v>3</v>
       </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="26">
+      <c r="I50" s="35"/>
+      <c r="J50" s="33">
         <v>2</v>
       </c>
-      <c r="K50" s="27"/>
-      <c r="O50" s="26" t="s">
+      <c r="K50" s="35"/>
+      <c r="O50" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="26">
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="33">
         <v>3</v>
       </c>
-      <c r="W50" s="27"/>
-      <c r="X50" s="26">
+      <c r="W50" s="35"/>
+      <c r="X50" s="33">
         <v>4</v>
       </c>
-      <c r="Y50" s="27"/>
+      <c r="Y50" s="35"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="26">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="33">
         <v>2</v>
       </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="26">
+      <c r="I51" s="35"/>
+      <c r="J51" s="33">
         <v>2</v>
       </c>
-      <c r="K51" s="27"/>
-      <c r="O51" s="26" t="s">
+      <c r="K51" s="35"/>
+      <c r="O51" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="26">
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="33">
         <v>0.5</v>
       </c>
-      <c r="W51" s="27"/>
-      <c r="X51" s="26">
+      <c r="W51" s="35"/>
+      <c r="X51" s="33">
         <v>8</v>
       </c>
-      <c r="Y51" s="27"/>
+      <c r="Y51" s="35"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="27"/>
-      <c r="O52" s="26" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="35"/>
+      <c r="O52" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="26">
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="33">
         <v>1.5</v>
       </c>
-      <c r="Y52" s="27"/>
+      <c r="Y52" s="35"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="27"/>
-      <c r="O53" s="30" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="35"/>
+      <c r="O53" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="26">
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="33">
         <v>1.5</v>
       </c>
-      <c r="W53" s="27"/>
-      <c r="X53" s="26">
+      <c r="W53" s="35"/>
+      <c r="X53" s="33">
         <v>1.5</v>
       </c>
-      <c r="Y53" s="27"/>
+      <c r="Y53" s="35"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="27"/>
-      <c r="O54" s="30" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="35"/>
+      <c r="O54" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="26">
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="33">
         <v>2</v>
       </c>
-      <c r="W54" s="27"/>
-      <c r="X54" s="26">
+      <c r="W54" s="35"/>
+      <c r="X54" s="33">
         <v>2.5</v>
       </c>
-      <c r="Y54" s="27"/>
+      <c r="Y54" s="35"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="27"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="26"/>
-      <c r="Y55" s="27"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="35"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="35"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="27"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="26"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="26"/>
-      <c r="Y56" s="27"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="35"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="35"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="27"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="27"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="35"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="35"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="27"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="27"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="35"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="35"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="27"/>
-      <c r="O59" s="30" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="35"/>
+      <c r="O59" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-      <c r="V59" s="26">
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="33">
         <v>0.25</v>
       </c>
-      <c r="W59" s="27"/>
-      <c r="X59" s="26">
+      <c r="W59" s="35"/>
+      <c r="X59" s="33">
         <v>0.25</v>
       </c>
-      <c r="Y59" s="27"/>
+      <c r="Y59" s="35"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="27"/>
-      <c r="O60" s="30" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="35"/>
+      <c r="O60" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="26">
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="33">
         <v>3</v>
       </c>
-      <c r="W60" s="27"/>
-      <c r="X60" s="26">
+      <c r="W60" s="35"/>
+      <c r="X60" s="33">
         <v>3</v>
       </c>
-      <c r="Y60" s="27"/>
+      <c r="Y60" s="35"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="32"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="29">
+      <c r="F62" s="25"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27">
         <f>SUM(H43:I60)</f>
         <v>21.75</v>
       </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29">
+      <c r="I62" s="27"/>
+      <c r="J62" s="27">
         <f>SUM(J43:K60)</f>
         <v>20.75</v>
       </c>
-      <c r="K62" s="29"/>
-      <c r="S62" s="31" t="s">
+      <c r="K62" s="27"/>
+      <c r="S62" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="T62" s="32"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="29">
+      <c r="T62" s="25"/>
+      <c r="U62" s="26"/>
+      <c r="V62" s="27">
         <f>SUM(V43:W60)</f>
         <v>35.25</v>
       </c>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29">
+      <c r="W62" s="27"/>
+      <c r="X62" s="27">
         <f>SUM(X43:Y60)</f>
         <v>36.25</v>
       </c>
-      <c r="Y62" s="29"/>
+      <c r="Y62" s="27"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29">
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27">
         <f>SUM(H62,J62)</f>
         <v>42.5</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="S64" s="29" t="s">
+      <c r="I64" s="27"/>
+      <c r="S64" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="29">
+      <c r="T64" s="27"/>
+      <c r="U64" s="27"/>
+      <c r="V64" s="27">
         <f>SUM(V62,X62)</f>
         <v>71.5</v>
       </c>
-      <c r="W64" s="29"/>
+      <c r="W64" s="27"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="36"/>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="36"/>
-      <c r="Z68" s="36"/>
-      <c r="AA68" s="36"/>
-      <c r="AB68" s="36"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
-      <c r="Z69" s="36"/>
-      <c r="AA69" s="36"/>
-      <c r="AB69" s="36"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -3769,673 +3784,673 @@
       <c r="A72" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72" s="39">
         <v>43019</v>
       </c>
-      <c r="C72" s="37"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="38">
+      <c r="E72" s="39">
         <v>43033</v>
       </c>
-      <c r="F72" s="37"/>
+      <c r="F72" s="38"/>
       <c r="G72" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="O72" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="38">
+      <c r="P72" s="39">
         <v>43034</v>
       </c>
-      <c r="Q72" s="37"/>
+      <c r="Q72" s="38"/>
       <c r="R72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S72" s="38">
+      <c r="S72" s="39">
         <v>43047</v>
       </c>
-      <c r="T72" s="37"/>
+      <c r="T72" s="38"/>
       <c r="U72" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35" t="s">
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35" t="s">
+      <c r="I75" s="36"/>
+      <c r="J75" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K75" s="35"/>
-      <c r="O75" s="35" t="s">
+      <c r="K75" s="36"/>
+      <c r="O75" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="35"/>
-      <c r="V75" s="35" t="s">
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
+      <c r="V75" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="W75" s="35"/>
-      <c r="X75" s="35" t="s">
+      <c r="W75" s="36"/>
+      <c r="X75" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Y75" s="35"/>
+      <c r="Y75" s="36"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="26">
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="33">
         <v>12</v>
       </c>
-      <c r="I76" s="27"/>
-      <c r="J76" s="26">
+      <c r="I76" s="35"/>
+      <c r="J76" s="33">
         <v>2</v>
       </c>
-      <c r="K76" s="27"/>
-      <c r="O76" s="34" t="s">
+      <c r="K76" s="35"/>
+      <c r="O76" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="30"/>
-      <c r="T76" s="30"/>
-      <c r="U76" s="30"/>
-      <c r="V76" s="26">
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="33">
         <v>5</v>
       </c>
-      <c r="W76" s="27"/>
-      <c r="X76" s="26">
+      <c r="W76" s="35"/>
+      <c r="X76" s="33">
         <v>1</v>
       </c>
-      <c r="Y76" s="27"/>
+      <c r="Y76" s="35"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="26">
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="33">
         <v>7</v>
       </c>
-      <c r="I77" s="27"/>
-      <c r="J77" s="26">
+      <c r="I77" s="35"/>
+      <c r="J77" s="33">
         <v>5</v>
       </c>
-      <c r="K77" s="27"/>
-      <c r="O77" s="34" t="s">
+      <c r="K77" s="35"/>
+      <c r="O77" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="30"/>
-      <c r="T77" s="30"/>
-      <c r="U77" s="30"/>
-      <c r="V77" s="26">
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="33">
         <v>24</v>
       </c>
-      <c r="W77" s="27"/>
-      <c r="X77" s="26">
+      <c r="W77" s="35"/>
+      <c r="X77" s="33">
         <v>12</v>
       </c>
-      <c r="Y77" s="27"/>
+      <c r="Y77" s="35"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="26">
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="33">
         <v>2</v>
       </c>
-      <c r="I78" s="27"/>
-      <c r="J78" s="26">
+      <c r="I78" s="35"/>
+      <c r="J78" s="33">
         <v>2</v>
       </c>
-      <c r="K78" s="27"/>
-      <c r="O78" s="34" t="s">
+      <c r="K78" s="35"/>
+      <c r="O78" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="30"/>
-      <c r="T78" s="30"/>
-      <c r="U78" s="30"/>
-      <c r="V78" s="26"/>
-      <c r="W78" s="27"/>
-      <c r="X78" s="26">
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="37"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="35"/>
+      <c r="X78" s="33">
         <v>3</v>
       </c>
-      <c r="Y78" s="27"/>
+      <c r="Y78" s="35"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="26">
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="33">
         <v>1</v>
       </c>
-      <c r="I79" s="27"/>
-      <c r="J79" s="26">
+      <c r="I79" s="35"/>
+      <c r="J79" s="33">
         <v>11</v>
       </c>
-      <c r="K79" s="27"/>
-      <c r="O79" s="30"/>
-      <c r="P79" s="30"/>
-      <c r="Q79" s="30"/>
-      <c r="R79" s="30"/>
-      <c r="S79" s="30"/>
-      <c r="T79" s="30"/>
-      <c r="U79" s="30"/>
-      <c r="V79" s="26"/>
-      <c r="W79" s="27"/>
-      <c r="X79" s="26"/>
-      <c r="Y79" s="27"/>
+      <c r="K79" s="35"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="33"/>
+      <c r="W79" s="35"/>
+      <c r="X79" s="33"/>
+      <c r="Y79" s="35"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="26">
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="33">
         <v>1</v>
       </c>
-      <c r="I80" s="27"/>
-      <c r="J80" s="26">
+      <c r="I80" s="35"/>
+      <c r="J80" s="33">
         <v>4</v>
       </c>
-      <c r="K80" s="27"/>
-      <c r="O80" s="34" t="s">
+      <c r="K80" s="35"/>
+      <c r="O80" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="30"/>
-      <c r="S80" s="30"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="30"/>
-      <c r="V80" s="26"/>
-      <c r="W80" s="27"/>
-      <c r="X80" s="26">
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="33"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="33">
         <v>2</v>
       </c>
-      <c r="Y80" s="27"/>
+      <c r="Y80" s="35"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="26">
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="33">
         <v>1</v>
       </c>
-      <c r="I81" s="27"/>
-      <c r="J81" s="26">
+      <c r="I81" s="35"/>
+      <c r="J81" s="33">
         <v>1</v>
       </c>
-      <c r="K81" s="27"/>
-      <c r="O81" s="34" t="s">
+      <c r="K81" s="35"/>
+      <c r="O81" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="30"/>
-      <c r="R81" s="30"/>
-      <c r="S81" s="30"/>
-      <c r="T81" s="30"/>
-      <c r="U81" s="30"/>
-      <c r="V81" s="26"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="26">
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="33"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="33">
         <v>5</v>
       </c>
-      <c r="Y81" s="27"/>
+      <c r="Y81" s="35"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="26">
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="33">
         <v>0.25</v>
       </c>
-      <c r="I82" s="27"/>
-      <c r="J82" s="26">
+      <c r="I82" s="35"/>
+      <c r="J82" s="33">
         <v>0</v>
       </c>
-      <c r="K82" s="27"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="30"/>
-      <c r="U82" s="30"/>
-      <c r="V82" s="26"/>
-      <c r="W82" s="27"/>
-      <c r="X82" s="26"/>
-      <c r="Y82" s="27"/>
+      <c r="K82" s="35"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="33"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="33"/>
+      <c r="Y82" s="35"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="26">
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="33">
         <v>0.5</v>
       </c>
-      <c r="I83" s="27"/>
-      <c r="J83" s="26">
+      <c r="I83" s="35"/>
+      <c r="J83" s="33">
         <v>0</v>
       </c>
-      <c r="K83" s="27"/>
-      <c r="O83" s="34" t="s">
+      <c r="K83" s="35"/>
+      <c r="O83" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="30"/>
-      <c r="S83" s="30"/>
-      <c r="T83" s="30"/>
-      <c r="U83" s="30"/>
-      <c r="V83" s="26"/>
-      <c r="W83" s="27"/>
-      <c r="X83" s="26"/>
-      <c r="Y83" s="27"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="33"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="33"/>
+      <c r="Y83" s="35"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="26">
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="33">
         <v>7</v>
       </c>
-      <c r="I84" s="27"/>
-      <c r="J84" s="26">
+      <c r="I84" s="35"/>
+      <c r="J84" s="33">
         <v>2</v>
       </c>
-      <c r="K84" s="27"/>
-      <c r="O84" s="34" t="s">
+      <c r="K84" s="35"/>
+      <c r="O84" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="26"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="26"/>
-      <c r="Y84" s="27"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="33"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="35"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="27"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30"/>
-      <c r="R85" s="30"/>
-      <c r="S85" s="30"/>
-      <c r="T85" s="30"/>
-      <c r="U85" s="30"/>
-      <c r="V85" s="26"/>
-      <c r="W85" s="27"/>
-      <c r="X85" s="26"/>
-      <c r="Y85" s="27"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="35"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="33"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="33"/>
+      <c r="Y85" s="35"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="26">
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="33">
         <v>4</v>
       </c>
-      <c r="I86" s="27"/>
-      <c r="J86" s="26">
+      <c r="I86" s="35"/>
+      <c r="J86" s="33">
         <v>8</v>
       </c>
-      <c r="K86" s="27"/>
-      <c r="O86" s="34" t="s">
+      <c r="K86" s="35"/>
+      <c r="O86" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="30"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="30"/>
-      <c r="T86" s="30"/>
-      <c r="U86" s="30"/>
-      <c r="V86" s="26"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="26"/>
-      <c r="Y86" s="27"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="33"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="33"/>
+      <c r="Y86" s="35"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="27"/>
-      <c r="O87" s="34" t="s">
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="35"/>
+      <c r="O87" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="P87" s="30"/>
-      <c r="Q87" s="30"/>
-      <c r="R87" s="30"/>
-      <c r="S87" s="30"/>
-      <c r="T87" s="30"/>
-      <c r="U87" s="30"/>
-      <c r="V87" s="26"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="26">
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="33"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="33">
         <v>3</v>
       </c>
-      <c r="Y87" s="27"/>
+      <c r="Y87" s="35"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="27"/>
-      <c r="O88" s="34" t="s">
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="35"/>
+      <c r="O88" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="30"/>
-      <c r="R88" s="30"/>
-      <c r="S88" s="30"/>
-      <c r="T88" s="30"/>
-      <c r="U88" s="30"/>
-      <c r="V88" s="26"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="26">
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="33"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="33">
         <v>2</v>
       </c>
-      <c r="Y88" s="27"/>
+      <c r="Y88" s="35"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="27"/>
-      <c r="O89" s="34" t="s">
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="35"/>
+      <c r="O89" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="30"/>
-      <c r="V89" s="26"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="26">
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="33"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="33">
         <v>2</v>
       </c>
-      <c r="Y89" s="27"/>
+      <c r="Y89" s="35"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="26">
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="33">
         <v>0.5</v>
       </c>
-      <c r="I90" s="27"/>
-      <c r="J90" s="26">
+      <c r="I90" s="35"/>
+      <c r="J90" s="33">
         <v>0.5</v>
       </c>
-      <c r="K90" s="27"/>
-      <c r="O90" s="34" t="s">
+      <c r="K90" s="35"/>
+      <c r="O90" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="P90" s="30"/>
-      <c r="Q90" s="30"/>
-      <c r="R90" s="30"/>
-      <c r="S90" s="30"/>
-      <c r="T90" s="30"/>
-      <c r="U90" s="30"/>
-      <c r="V90" s="26"/>
-      <c r="W90" s="27"/>
-      <c r="X90" s="26">
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="33"/>
+      <c r="W90" s="35"/>
+      <c r="X90" s="33">
         <v>2</v>
       </c>
-      <c r="Y90" s="27"/>
+      <c r="Y90" s="35"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="26">
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="33">
         <v>1.5</v>
       </c>
-      <c r="I91" s="27"/>
-      <c r="J91" s="26">
+      <c r="I91" s="35"/>
+      <c r="J91" s="33">
         <v>1.5</v>
       </c>
-      <c r="K91" s="27"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="26"/>
-      <c r="W91" s="27"/>
-      <c r="X91" s="26"/>
-      <c r="Y91" s="27"/>
+      <c r="K91" s="35"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="33"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="33"/>
+      <c r="Y91" s="35"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O92" s="30" t="s">
+      <c r="O92" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="P92" s="30"/>
-      <c r="Q92" s="30"/>
-      <c r="R92" s="30"/>
-      <c r="S92" s="30"/>
-      <c r="T92" s="30"/>
-      <c r="U92" s="30"/>
-      <c r="V92" s="26">
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="33">
         <v>1</v>
       </c>
-      <c r="W92" s="27"/>
-      <c r="X92" s="26">
+      <c r="W92" s="35"/>
+      <c r="X92" s="33">
         <v>1</v>
       </c>
-      <c r="Y92" s="27"/>
+      <c r="Y92" s="35"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E93" s="31" t="s">
+      <c r="E93" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="32"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="29">
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27">
         <f>SUM(H76:I91)</f>
         <v>37.75</v>
       </c>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29">
+      <c r="I93" s="27"/>
+      <c r="J93" s="27">
         <f>SUM(J76:K91)</f>
         <v>37</v>
       </c>
-      <c r="K93" s="29"/>
-      <c r="O93" s="34" t="s">
+      <c r="K93" s="27"/>
+      <c r="O93" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="30"/>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
-      <c r="T93" s="30"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="26">
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
+      <c r="T93" s="37"/>
+      <c r="U93" s="37"/>
+      <c r="V93" s="33">
         <v>3</v>
       </c>
-      <c r="W93" s="27"/>
-      <c r="X93" s="26"/>
-      <c r="Y93" s="27"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="33"/>
+      <c r="Y93" s="35"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E95" s="29" t="s">
+      <c r="E95" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29">
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27">
         <f>SUM(H93,J93)</f>
         <v>74.75</v>
       </c>
-      <c r="I95" s="29"/>
-      <c r="S95" s="31" t="s">
+      <c r="I95" s="27"/>
+      <c r="S95" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="T95" s="32"/>
-      <c r="U95" s="33"/>
-      <c r="V95" s="29">
+      <c r="T95" s="25"/>
+      <c r="U95" s="26"/>
+      <c r="V95" s="27">
         <f>SUM(V76:W93)</f>
         <v>33</v>
       </c>
-      <c r="W95" s="29"/>
-      <c r="X95" s="29">
+      <c r="W95" s="27"/>
+      <c r="X95" s="27">
         <f>SUM(X76:Y93)</f>
         <v>33</v>
       </c>
-      <c r="Y95" s="29"/>
+      <c r="Y95" s="27"/>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S99" s="29" t="s">
+      <c r="S99" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="T99" s="29"/>
-      <c r="U99" s="29"/>
-      <c r="V99" s="29">
+      <c r="T99" s="27"/>
+      <c r="U99" s="27"/>
+      <c r="V99" s="27">
         <f>SUM(V95,X95)</f>
         <v>66</v>
       </c>
-      <c r="W99" s="29"/>
+      <c r="W99" s="27"/>
     </row>
     <row r="101" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
@@ -4469,22 +4484,22 @@
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
-      <c r="O103" s="36" t="s">
+      <c r="O103" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
-      <c r="S103" s="36"/>
-      <c r="T103" s="36"/>
-      <c r="U103" s="36"/>
-      <c r="V103" s="36"/>
-      <c r="W103" s="36"/>
-      <c r="X103" s="36"/>
-      <c r="Y103" s="36"/>
-      <c r="Z103" s="36"/>
-      <c r="AA103" s="36"/>
-      <c r="AB103" s="36"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="22"/>
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="22"/>
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="22"/>
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
     </row>
     <row r="104" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
@@ -4505,37 +4520,37 @@
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
-      <c r="O104" s="36"/>
-      <c r="P104" s="36"/>
-      <c r="Q104" s="36"/>
-      <c r="R104" s="36"/>
-      <c r="S104" s="36"/>
-      <c r="T104" s="36"/>
-      <c r="U104" s="36"/>
-      <c r="V104" s="36"/>
-      <c r="W104" s="36"/>
-      <c r="X104" s="36"/>
-      <c r="Y104" s="36"/>
-      <c r="Z104" s="36"/>
-      <c r="AA104" s="36"/>
-      <c r="AB104" s="36"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="22"/>
+      <c r="S104" s="22"/>
+      <c r="T104" s="22"/>
+      <c r="U104" s="22"/>
+      <c r="V104" s="22"/>
+      <c r="W104" s="22"/>
+      <c r="X104" s="22"/>
+      <c r="Y104" s="22"/>
+      <c r="Z104" s="22"/>
+      <c r="AA104" s="22"/>
+      <c r="AB104" s="22"/>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
       <c r="D105" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
       <c r="G105" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
     </row>
@@ -4558,668 +4573,668 @@
       <c r="O107" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P107" s="37"/>
-      <c r="Q107" s="37"/>
+      <c r="P107" s="38"/>
+      <c r="Q107" s="38"/>
       <c r="R107" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S107" s="37"/>
-      <c r="T107" s="37"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="38"/>
       <c r="U107" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V107" s="37"/>
-      <c r="W107" s="37"/>
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
       <c r="X107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A108" s="35" t="s">
+      <c r="A108" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35" t="s">
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35" t="s">
+      <c r="I108" s="36"/>
+      <c r="J108" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K108" s="35"/>
+      <c r="K108" s="36"/>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="26">
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="33">
         <v>4</v>
       </c>
-      <c r="I109" s="27"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="27"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="35"/>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="26">
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="33">
         <v>2</v>
       </c>
-      <c r="I110" s="27"/>
-      <c r="J110" s="26">
+      <c r="I110" s="35"/>
+      <c r="J110" s="33">
         <v>6</v>
       </c>
-      <c r="K110" s="27"/>
-      <c r="O110" s="35" t="s">
+      <c r="K110" s="35"/>
+      <c r="O110" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="P110" s="35"/>
-      <c r="Q110" s="35"/>
-      <c r="R110" s="35"/>
-      <c r="S110" s="35"/>
-      <c r="T110" s="35"/>
-      <c r="U110" s="35"/>
-      <c r="V110" s="35" t="s">
+      <c r="P110" s="36"/>
+      <c r="Q110" s="36"/>
+      <c r="R110" s="36"/>
+      <c r="S110" s="36"/>
+      <c r="T110" s="36"/>
+      <c r="U110" s="36"/>
+      <c r="V110" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="W110" s="35"/>
-      <c r="X110" s="35" t="s">
+      <c r="W110" s="36"/>
+      <c r="X110" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Y110" s="35"/>
+      <c r="Y110" s="36"/>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="27"/>
-      <c r="O111" s="34" t="s">
+      <c r="A111" s="40"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="35"/>
+      <c r="O111" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="P111" s="30"/>
-      <c r="Q111" s="30"/>
-      <c r="R111" s="30"/>
-      <c r="S111" s="30"/>
-      <c r="T111" s="30"/>
-      <c r="U111" s="30"/>
-      <c r="V111" s="26">
+      <c r="P111" s="37"/>
+      <c r="Q111" s="37"/>
+      <c r="R111" s="37"/>
+      <c r="S111" s="37"/>
+      <c r="T111" s="37"/>
+      <c r="U111" s="37"/>
+      <c r="V111" s="33">
         <v>12</v>
       </c>
-      <c r="W111" s="27"/>
-      <c r="X111" s="26">
+      <c r="W111" s="35"/>
+      <c r="X111" s="33">
         <v>1.5</v>
       </c>
-      <c r="Y111" s="27"/>
+      <c r="Y111" s="35"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="27"/>
-      <c r="O112" s="30"/>
-      <c r="P112" s="30"/>
-      <c r="Q112" s="30"/>
-      <c r="R112" s="30"/>
-      <c r="S112" s="30"/>
-      <c r="T112" s="30"/>
-      <c r="U112" s="30"/>
-      <c r="V112" s="26"/>
-      <c r="W112" s="27"/>
-      <c r="X112" s="26"/>
-      <c r="Y112" s="27"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="35"/>
+      <c r="O112" s="37"/>
+      <c r="P112" s="37"/>
+      <c r="Q112" s="37"/>
+      <c r="R112" s="37"/>
+      <c r="S112" s="37"/>
+      <c r="T112" s="37"/>
+      <c r="U112" s="37"/>
+      <c r="V112" s="33"/>
+      <c r="W112" s="35"/>
+      <c r="X112" s="33"/>
+      <c r="Y112" s="35"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="34" t="s">
+      <c r="A113" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="26">
+      <c r="B113" s="37"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="33">
         <v>3</v>
       </c>
-      <c r="I113" s="27"/>
-      <c r="J113" s="26"/>
-      <c r="K113" s="27"/>
-      <c r="O113" s="34" t="s">
+      <c r="I113" s="35"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="35"/>
+      <c r="O113" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="P113" s="30"/>
-      <c r="Q113" s="30"/>
-      <c r="R113" s="30"/>
-      <c r="S113" s="30"/>
-      <c r="T113" s="30"/>
-      <c r="U113" s="30"/>
-      <c r="V113" s="26">
+      <c r="P113" s="37"/>
+      <c r="Q113" s="37"/>
+      <c r="R113" s="37"/>
+      <c r="S113" s="37"/>
+      <c r="T113" s="37"/>
+      <c r="U113" s="37"/>
+      <c r="V113" s="33">
         <v>5</v>
       </c>
-      <c r="W113" s="27"/>
-      <c r="X113" s="26"/>
-      <c r="Y113" s="27"/>
+      <c r="W113" s="35"/>
+      <c r="X113" s="33"/>
+      <c r="Y113" s="35"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="26">
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="33">
         <v>8</v>
       </c>
-      <c r="I114" s="27"/>
-      <c r="J114" s="26">
+      <c r="I114" s="35"/>
+      <c r="J114" s="33">
         <v>7</v>
       </c>
-      <c r="K114" s="27"/>
-      <c r="O114" s="30"/>
-      <c r="P114" s="30"/>
-      <c r="Q114" s="30"/>
-      <c r="R114" s="30"/>
-      <c r="S114" s="30"/>
-      <c r="T114" s="30"/>
-      <c r="U114" s="30"/>
-      <c r="V114" s="26"/>
-      <c r="W114" s="27"/>
-      <c r="X114" s="26"/>
-      <c r="Y114" s="27"/>
+      <c r="K114" s="35"/>
+      <c r="O114" s="37"/>
+      <c r="P114" s="37"/>
+      <c r="Q114" s="37"/>
+      <c r="R114" s="37"/>
+      <c r="S114" s="37"/>
+      <c r="T114" s="37"/>
+      <c r="U114" s="37"/>
+      <c r="V114" s="33"/>
+      <c r="W114" s="35"/>
+      <c r="X114" s="33"/>
+      <c r="Y114" s="35"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="34" t="s">
+      <c r="A115" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="26">
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="33">
         <v>4</v>
       </c>
-      <c r="I115" s="27"/>
-      <c r="J115" s="26">
+      <c r="I115" s="35"/>
+      <c r="J115" s="33">
         <v>4</v>
       </c>
-      <c r="K115" s="27"/>
-      <c r="O115" s="34" t="s">
+      <c r="K115" s="35"/>
+      <c r="O115" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P115" s="30"/>
-      <c r="Q115" s="30"/>
-      <c r="R115" s="30"/>
-      <c r="S115" s="30"/>
-      <c r="T115" s="30"/>
-      <c r="U115" s="30"/>
-      <c r="V115" s="26">
+      <c r="P115" s="37"/>
+      <c r="Q115" s="37"/>
+      <c r="R115" s="37"/>
+      <c r="S115" s="37"/>
+      <c r="T115" s="37"/>
+      <c r="U115" s="37"/>
+      <c r="V115" s="33">
         <v>4</v>
       </c>
-      <c r="W115" s="27"/>
-      <c r="X115" s="26">
+      <c r="W115" s="35"/>
+      <c r="X115" s="33">
         <v>6</v>
       </c>
-      <c r="Y115" s="27"/>
+      <c r="Y115" s="35"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="26">
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="33">
         <v>4</v>
       </c>
-      <c r="I116" s="27"/>
-      <c r="J116" s="26">
+      <c r="I116" s="35"/>
+      <c r="J116" s="33">
         <v>5</v>
       </c>
-      <c r="K116" s="27"/>
-      <c r="O116" s="34" t="s">
+      <c r="K116" s="35"/>
+      <c r="O116" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="P116" s="30"/>
-      <c r="Q116" s="30"/>
-      <c r="R116" s="30"/>
-      <c r="S116" s="30"/>
-      <c r="T116" s="30"/>
-      <c r="U116" s="30"/>
-      <c r="V116" s="26">
+      <c r="P116" s="37"/>
+      <c r="Q116" s="37"/>
+      <c r="R116" s="37"/>
+      <c r="S116" s="37"/>
+      <c r="T116" s="37"/>
+      <c r="U116" s="37"/>
+      <c r="V116" s="33">
         <v>1.5</v>
       </c>
-      <c r="W116" s="27"/>
-      <c r="X116" s="26">
+      <c r="W116" s="35"/>
+      <c r="X116" s="33">
         <v>2.5</v>
       </c>
-      <c r="Y116" s="27"/>
+      <c r="Y116" s="35"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="26">
+      <c r="B117" s="37"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="33">
         <v>2</v>
       </c>
-      <c r="I117" s="27"/>
-      <c r="J117" s="26">
+      <c r="I117" s="35"/>
+      <c r="J117" s="33">
         <v>4</v>
       </c>
-      <c r="K117" s="27"/>
-      <c r="O117" s="34" t="s">
+      <c r="K117" s="35"/>
+      <c r="O117" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="P117" s="30"/>
-      <c r="Q117" s="30"/>
-      <c r="R117" s="30"/>
-      <c r="S117" s="30"/>
-      <c r="T117" s="30"/>
-      <c r="U117" s="30"/>
-      <c r="V117" s="26">
+      <c r="P117" s="37"/>
+      <c r="Q117" s="37"/>
+      <c r="R117" s="37"/>
+      <c r="S117" s="37"/>
+      <c r="T117" s="37"/>
+      <c r="U117" s="37"/>
+      <c r="V117" s="33">
         <v>1</v>
       </c>
-      <c r="W117" s="27"/>
-      <c r="X117" s="26">
+      <c r="W117" s="35"/>
+      <c r="X117" s="33">
         <v>6</v>
       </c>
-      <c r="Y117" s="27"/>
+      <c r="Y117" s="35"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="27"/>
-      <c r="O118" s="34" t="s">
+      <c r="A118" s="37"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="35"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="35"/>
+      <c r="O118" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="P118" s="30"/>
-      <c r="Q118" s="30"/>
-      <c r="R118" s="30"/>
-      <c r="S118" s="30"/>
-      <c r="T118" s="30"/>
-      <c r="U118" s="30"/>
-      <c r="V118" s="26">
+      <c r="P118" s="37"/>
+      <c r="Q118" s="37"/>
+      <c r="R118" s="37"/>
+      <c r="S118" s="37"/>
+      <c r="T118" s="37"/>
+      <c r="U118" s="37"/>
+      <c r="V118" s="33">
         <v>1</v>
       </c>
-      <c r="W118" s="27"/>
-      <c r="X118" s="26">
+      <c r="W118" s="35"/>
+      <c r="X118" s="33">
         <v>2.5</v>
       </c>
-      <c r="Y118" s="27"/>
+      <c r="Y118" s="35"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119" s="34" t="s">
+      <c r="A119" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="26"/>
-      <c r="K119" s="27"/>
-      <c r="O119" s="34"/>
-      <c r="P119" s="30"/>
-      <c r="Q119" s="30"/>
-      <c r="R119" s="30"/>
-      <c r="S119" s="30"/>
-      <c r="T119" s="30"/>
-      <c r="U119" s="30"/>
-      <c r="V119" s="26"/>
-      <c r="W119" s="27"/>
-      <c r="X119" s="26"/>
-      <c r="Y119" s="27"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="35"/>
+      <c r="O119" s="40"/>
+      <c r="P119" s="37"/>
+      <c r="Q119" s="37"/>
+      <c r="R119" s="37"/>
+      <c r="S119" s="37"/>
+      <c r="T119" s="37"/>
+      <c r="U119" s="37"/>
+      <c r="V119" s="33"/>
+      <c r="W119" s="35"/>
+      <c r="X119" s="33"/>
+      <c r="Y119" s="35"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" s="34" t="s">
+      <c r="A120" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="26">
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="33">
         <v>1</v>
       </c>
-      <c r="I120" s="27"/>
-      <c r="J120" s="26"/>
-      <c r="K120" s="27"/>
-      <c r="O120" s="30"/>
-      <c r="P120" s="30"/>
-      <c r="Q120" s="30"/>
-      <c r="R120" s="30"/>
-      <c r="S120" s="30"/>
-      <c r="T120" s="30"/>
-      <c r="U120" s="30"/>
-      <c r="V120" s="26"/>
-      <c r="W120" s="27"/>
-      <c r="X120" s="26"/>
-      <c r="Y120" s="27"/>
+      <c r="I120" s="35"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="35"/>
+      <c r="O120" s="37"/>
+      <c r="P120" s="37"/>
+      <c r="Q120" s="37"/>
+      <c r="R120" s="37"/>
+      <c r="S120" s="37"/>
+      <c r="T120" s="37"/>
+      <c r="U120" s="37"/>
+      <c r="V120" s="33"/>
+      <c r="W120" s="35"/>
+      <c r="X120" s="33"/>
+      <c r="Y120" s="35"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A121" s="34" t="s">
+      <c r="A121" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="26">
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="33">
         <v>5</v>
       </c>
-      <c r="I121" s="27"/>
-      <c r="J121" s="26">
+      <c r="I121" s="35"/>
+      <c r="J121" s="33">
         <v>5</v>
       </c>
-      <c r="K121" s="27"/>
-      <c r="O121" s="34" t="s">
+      <c r="K121" s="35"/>
+      <c r="O121" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P121" s="30"/>
-      <c r="Q121" s="30"/>
-      <c r="R121" s="30"/>
-      <c r="S121" s="30"/>
-      <c r="T121" s="30"/>
-      <c r="U121" s="30"/>
-      <c r="V121" s="26">
+      <c r="P121" s="37"/>
+      <c r="Q121" s="37"/>
+      <c r="R121" s="37"/>
+      <c r="S121" s="37"/>
+      <c r="T121" s="37"/>
+      <c r="U121" s="37"/>
+      <c r="V121" s="33">
         <v>7</v>
       </c>
-      <c r="W121" s="27"/>
-      <c r="X121" s="26">
+      <c r="W121" s="35"/>
+      <c r="X121" s="33">
         <v>7</v>
       </c>
-      <c r="Y121" s="27"/>
+      <c r="Y121" s="35"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A122" s="34" t="s">
+      <c r="A122" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="30"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="26">
+      <c r="B122" s="37"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="33">
         <v>2</v>
       </c>
-      <c r="I122" s="27"/>
-      <c r="J122" s="26">
+      <c r="I122" s="35"/>
+      <c r="J122" s="33">
         <v>2</v>
       </c>
-      <c r="K122" s="27"/>
-      <c r="O122" s="30"/>
-      <c r="P122" s="30"/>
-      <c r="Q122" s="30"/>
-      <c r="R122" s="30"/>
-      <c r="S122" s="30"/>
-      <c r="T122" s="30"/>
-      <c r="U122" s="30"/>
-      <c r="V122" s="26"/>
-      <c r="W122" s="27"/>
-      <c r="X122" s="26"/>
-      <c r="Y122" s="27"/>
+      <c r="K122" s="35"/>
+      <c r="O122" s="37"/>
+      <c r="P122" s="37"/>
+      <c r="Q122" s="37"/>
+      <c r="R122" s="37"/>
+      <c r="S122" s="37"/>
+      <c r="T122" s="37"/>
+      <c r="U122" s="37"/>
+      <c r="V122" s="33"/>
+      <c r="W122" s="35"/>
+      <c r="X122" s="33"/>
+      <c r="Y122" s="35"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="26"/>
-      <c r="K123" s="27"/>
-      <c r="O123" s="30"/>
-      <c r="P123" s="30"/>
-      <c r="Q123" s="30"/>
-      <c r="R123" s="30"/>
-      <c r="S123" s="30"/>
-      <c r="T123" s="30"/>
-      <c r="U123" s="30"/>
-      <c r="V123" s="26"/>
-      <c r="W123" s="27"/>
-      <c r="X123" s="26"/>
-      <c r="Y123" s="27"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="35"/>
+      <c r="O123" s="37"/>
+      <c r="P123" s="37"/>
+      <c r="Q123" s="37"/>
+      <c r="R123" s="37"/>
+      <c r="S123" s="37"/>
+      <c r="T123" s="37"/>
+      <c r="U123" s="37"/>
+      <c r="V123" s="33"/>
+      <c r="W123" s="35"/>
+      <c r="X123" s="33"/>
+      <c r="Y123" s="35"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="30"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="27"/>
-      <c r="O124" s="30"/>
-      <c r="P124" s="30"/>
-      <c r="Q124" s="30"/>
-      <c r="R124" s="30"/>
-      <c r="S124" s="30"/>
-      <c r="T124" s="30"/>
-      <c r="U124" s="30"/>
-      <c r="V124" s="26"/>
-      <c r="W124" s="27"/>
-      <c r="X124" s="26"/>
-      <c r="Y124" s="27"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="35"/>
+      <c r="O124" s="37"/>
+      <c r="P124" s="37"/>
+      <c r="Q124" s="37"/>
+      <c r="R124" s="37"/>
+      <c r="S124" s="37"/>
+      <c r="T124" s="37"/>
+      <c r="U124" s="37"/>
+      <c r="V124" s="33"/>
+      <c r="W124" s="35"/>
+      <c r="X124" s="33"/>
+      <c r="Y124" s="35"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="30"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="26">
+      <c r="B125" s="37"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="33">
         <v>1</v>
       </c>
-      <c r="I125" s="27"/>
-      <c r="J125" s="26">
+      <c r="I125" s="35"/>
+      <c r="J125" s="33">
         <v>1</v>
       </c>
-      <c r="K125" s="27"/>
-      <c r="O125" s="30"/>
-      <c r="P125" s="30"/>
-      <c r="Q125" s="30"/>
-      <c r="R125" s="30"/>
-      <c r="S125" s="30"/>
-      <c r="T125" s="30"/>
-      <c r="U125" s="30"/>
-      <c r="V125" s="26"/>
-      <c r="W125" s="27"/>
-      <c r="X125" s="26"/>
-      <c r="Y125" s="27"/>
+      <c r="K125" s="35"/>
+      <c r="O125" s="37"/>
+      <c r="P125" s="37"/>
+      <c r="Q125" s="37"/>
+      <c r="R125" s="37"/>
+      <c r="S125" s="37"/>
+      <c r="T125" s="37"/>
+      <c r="U125" s="37"/>
+      <c r="V125" s="33"/>
+      <c r="W125" s="35"/>
+      <c r="X125" s="33"/>
+      <c r="Y125" s="35"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A126" s="34" t="s">
+      <c r="A126" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="26">
+      <c r="B126" s="37"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="33">
         <v>3</v>
       </c>
-      <c r="I126" s="27"/>
-      <c r="J126" s="26">
+      <c r="I126" s="35"/>
+      <c r="J126" s="33">
         <v>3</v>
       </c>
-      <c r="K126" s="27"/>
-      <c r="O126" s="30"/>
-      <c r="P126" s="30"/>
-      <c r="Q126" s="30"/>
-      <c r="R126" s="30"/>
-      <c r="S126" s="30"/>
-      <c r="T126" s="30"/>
-      <c r="U126" s="30"/>
-      <c r="V126" s="26"/>
-      <c r="W126" s="27"/>
-      <c r="X126" s="26"/>
-      <c r="Y126" s="27"/>
+      <c r="K126" s="35"/>
+      <c r="O126" s="37"/>
+      <c r="P126" s="37"/>
+      <c r="Q126" s="37"/>
+      <c r="R126" s="37"/>
+      <c r="S126" s="37"/>
+      <c r="T126" s="37"/>
+      <c r="U126" s="37"/>
+      <c r="V126" s="33"/>
+      <c r="W126" s="35"/>
+      <c r="X126" s="33"/>
+      <c r="Y126" s="35"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O127" s="30" t="s">
+      <c r="O127" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="P127" s="30"/>
-      <c r="Q127" s="30"/>
-      <c r="R127" s="30"/>
-      <c r="S127" s="30"/>
-      <c r="T127" s="30"/>
-      <c r="U127" s="30"/>
-      <c r="V127" s="26">
+      <c r="P127" s="37"/>
+      <c r="Q127" s="37"/>
+      <c r="R127" s="37"/>
+      <c r="S127" s="37"/>
+      <c r="T127" s="37"/>
+      <c r="U127" s="37"/>
+      <c r="V127" s="33">
         <v>1</v>
       </c>
-      <c r="W127" s="27"/>
-      <c r="X127" s="26">
+      <c r="W127" s="35"/>
+      <c r="X127" s="33">
         <v>1</v>
       </c>
-      <c r="Y127" s="27"/>
+      <c r="Y127" s="35"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E128" s="31" t="s">
+      <c r="E128" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F128" s="32"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="29">
+      <c r="F128" s="25"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="27">
         <f>SUM(H109:I126)</f>
         <v>39</v>
       </c>
-      <c r="I128" s="29"/>
-      <c r="J128" s="29">
+      <c r="I128" s="27"/>
+      <c r="J128" s="27">
         <f>SUM(J109:K126)</f>
         <v>37</v>
       </c>
-      <c r="K128" s="29"/>
-      <c r="O128" s="30" t="s">
+      <c r="K128" s="27"/>
+      <c r="O128" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="P128" s="30"/>
-      <c r="Q128" s="30"/>
-      <c r="R128" s="30"/>
-      <c r="S128" s="30"/>
-      <c r="T128" s="30"/>
-      <c r="U128" s="30"/>
-      <c r="V128" s="26">
+      <c r="P128" s="37"/>
+      <c r="Q128" s="37"/>
+      <c r="R128" s="37"/>
+      <c r="S128" s="37"/>
+      <c r="T128" s="37"/>
+      <c r="U128" s="37"/>
+      <c r="V128" s="33">
         <v>2</v>
       </c>
-      <c r="W128" s="27"/>
-      <c r="X128" s="26">
+      <c r="W128" s="35"/>
+      <c r="X128" s="33">
         <v>2</v>
       </c>
-      <c r="Y128" s="27"/>
+      <c r="Y128" s="35"/>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E130" s="29" t="s">
+      <c r="E130" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="29">
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27">
         <f>SUM(H128,J128)</f>
         <v>76</v>
       </c>
-      <c r="I130" s="29"/>
-      <c r="S130" s="31" t="s">
+      <c r="I130" s="27"/>
+      <c r="S130" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="T130" s="32"/>
-      <c r="U130" s="33"/>
-      <c r="V130" s="29">
+      <c r="T130" s="25"/>
+      <c r="U130" s="26"/>
+      <c r="V130" s="27">
         <f>SUM(V111:W128)</f>
         <v>34.5</v>
       </c>
-      <c r="W130" s="29"/>
-      <c r="X130" s="29">
+      <c r="W130" s="27"/>
+      <c r="X130" s="27">
         <f>SUM(X111:Y128)</f>
         <v>28.5</v>
       </c>
-      <c r="Y130" s="29"/>
+      <c r="Y130" s="27"/>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S132" s="29" t="s">
+      <c r="S132" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="T132" s="29"/>
-      <c r="U132" s="29"/>
-      <c r="V132" s="29">
+      <c r="T132" s="27"/>
+      <c r="U132" s="27"/>
+      <c r="V132" s="27">
         <f>SUM(V130,X130)</f>
         <v>63</v>
       </c>
-      <c r="W132" s="29"/>
+      <c r="W132" s="27"/>
     </row>
     <row r="134" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
@@ -5319,18 +5334,18 @@
       <c r="A138" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="38"/>
       <c r="D138" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="38"/>
       <c r="G138" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="38"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="O138" s="6" t="s">
@@ -5352,23 +5367,23 @@
       <c r="Y138" s="8"/>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A141" s="35" t="s">
+      <c r="A141" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B141" s="35"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
-      <c r="F141" s="35"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="35" t="s">
+      <c r="B141" s="36"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I141" s="35"/>
-      <c r="J141" s="35" t="s">
+      <c r="I141" s="36"/>
+      <c r="J141" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K141" s="35"/>
+      <c r="K141" s="36"/>
       <c r="O141" s="19" t="s">
         <v>6</v>
       </c>
@@ -5388,455 +5403,457 @@
       <c r="Y141" s="21"/>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A142" s="30" t="s">
+      <c r="A142" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B142" s="30"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="26"/>
-      <c r="K142" s="27"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="33"/>
+      <c r="I142" s="35"/>
+      <c r="J142" s="33"/>
+      <c r="K142" s="35"/>
       <c r="O142" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="P142" s="23"/>
-      <c r="Q142" s="23"/>
-      <c r="R142" s="23"/>
-      <c r="S142" s="23"/>
-      <c r="T142" s="23"/>
-      <c r="U142" s="24"/>
+      <c r="P142" s="43"/>
+      <c r="Q142" s="43"/>
+      <c r="R142" s="43"/>
+      <c r="S142" s="43"/>
+      <c r="T142" s="43"/>
+      <c r="U142" s="44"/>
       <c r="V142" s="10"/>
       <c r="W142" s="11"/>
       <c r="X142" s="10"/>
       <c r="Y142" s="11"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A143" s="30"/>
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="30"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="26"/>
-      <c r="K143" s="27"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="37"/>
+      <c r="F143" s="37"/>
+      <c r="G143" s="37"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="33"/>
+      <c r="K143" s="35"/>
       <c r="O143" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="P143" s="23"/>
-      <c r="Q143" s="23"/>
-      <c r="R143" s="23"/>
-      <c r="S143" s="23"/>
-      <c r="T143" s="23"/>
-      <c r="U143" s="24"/>
+      <c r="P143" s="43"/>
+      <c r="Q143" s="43"/>
+      <c r="R143" s="43"/>
+      <c r="S143" s="43"/>
+      <c r="T143" s="43"/>
+      <c r="U143" s="44"/>
       <c r="V143" s="10"/>
       <c r="W143" s="11"/>
       <c r="X143" s="10"/>
       <c r="Y143" s="11"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A144" s="30"/>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="26"/>
-      <c r="K144" s="27"/>
-      <c r="O144" s="22"/>
-      <c r="P144" s="23"/>
-      <c r="Q144" s="23"/>
-      <c r="R144" s="23"/>
-      <c r="S144" s="23"/>
-      <c r="T144" s="23"/>
-      <c r="U144" s="24"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="37"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="37"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="33"/>
+      <c r="I144" s="35"/>
+      <c r="J144" s="33"/>
+      <c r="K144" s="35"/>
+      <c r="O144" s="42"/>
+      <c r="P144" s="43"/>
+      <c r="Q144" s="43"/>
+      <c r="R144" s="43"/>
+      <c r="S144" s="43"/>
+      <c r="T144" s="43"/>
+      <c r="U144" s="44"/>
       <c r="V144" s="10"/>
       <c r="W144" s="11"/>
       <c r="X144" s="10"/>
       <c r="Y144" s="11"/>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A145" s="30" t="s">
+      <c r="A145" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="26">
+      <c r="B145" s="37"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="33">
         <v>1</v>
       </c>
-      <c r="I145" s="27"/>
-      <c r="J145" s="26"/>
-      <c r="K145" s="27"/>
-      <c r="O145" s="22"/>
-      <c r="P145" s="23"/>
-      <c r="Q145" s="23"/>
-      <c r="R145" s="23"/>
-      <c r="S145" s="23"/>
-      <c r="T145" s="23"/>
-      <c r="U145" s="24"/>
+      <c r="I145" s="35"/>
+      <c r="J145" s="33"/>
+      <c r="K145" s="35"/>
+      <c r="O145" s="42"/>
+      <c r="P145" s="43"/>
+      <c r="Q145" s="43"/>
+      <c r="R145" s="43"/>
+      <c r="S145" s="43"/>
+      <c r="T145" s="43"/>
+      <c r="U145" s="44"/>
       <c r="V145" s="10"/>
       <c r="W145" s="11"/>
       <c r="X145" s="10"/>
       <c r="Y145" s="11"/>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A146" s="34" t="s">
+      <c r="A146" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="26">
+      <c r="B146" s="37"/>
+      <c r="C146" s="37"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="37"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="33">
         <v>1</v>
       </c>
-      <c r="I146" s="27"/>
-      <c r="J146" s="26">
+      <c r="I146" s="35"/>
+      <c r="J146" s="33">
         <v>2</v>
       </c>
-      <c r="K146" s="27"/>
-      <c r="O146" s="22"/>
-      <c r="P146" s="23"/>
-      <c r="Q146" s="23"/>
-      <c r="R146" s="23"/>
-      <c r="S146" s="23"/>
-      <c r="T146" s="23"/>
-      <c r="U146" s="24"/>
+      <c r="K146" s="35"/>
+      <c r="O146" s="42"/>
+      <c r="P146" s="43"/>
+      <c r="Q146" s="43"/>
+      <c r="R146" s="43"/>
+      <c r="S146" s="43"/>
+      <c r="T146" s="43"/>
+      <c r="U146" s="44"/>
       <c r="V146" s="10"/>
       <c r="W146" s="11"/>
       <c r="X146" s="10"/>
       <c r="Y146" s="11"/>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A147" s="34" t="s">
+      <c r="A147" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B147" s="30"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="26"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="26">
+      <c r="B147" s="37"/>
+      <c r="C147" s="37"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="37"/>
+      <c r="F147" s="37"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="33"/>
+      <c r="I147" s="35"/>
+      <c r="J147" s="33">
         <v>5</v>
       </c>
-      <c r="K147" s="27"/>
-      <c r="O147" s="22"/>
-      <c r="P147" s="23"/>
-      <c r="Q147" s="23"/>
-      <c r="R147" s="23"/>
-      <c r="S147" s="23"/>
-      <c r="T147" s="23"/>
-      <c r="U147" s="24"/>
+      <c r="K147" s="35"/>
+      <c r="O147" s="42"/>
+      <c r="P147" s="43"/>
+      <c r="Q147" s="43"/>
+      <c r="R147" s="43"/>
+      <c r="S147" s="43"/>
+      <c r="T147" s="43"/>
+      <c r="U147" s="44"/>
       <c r="V147" s="10"/>
       <c r="W147" s="11"/>
       <c r="X147" s="10"/>
       <c r="Y147" s="11"/>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A148" s="34" t="s">
+      <c r="A148" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="26">
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="37"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="33">
         <v>1</v>
       </c>
-      <c r="I148" s="27"/>
-      <c r="J148" s="26"/>
-      <c r="K148" s="27"/>
-      <c r="O148" s="22"/>
-      <c r="P148" s="23"/>
-      <c r="Q148" s="23"/>
-      <c r="R148" s="23"/>
-      <c r="S148" s="23"/>
-      <c r="T148" s="23"/>
-      <c r="U148" s="24"/>
+      <c r="I148" s="35"/>
+      <c r="J148" s="33"/>
+      <c r="K148" s="35"/>
+      <c r="O148" s="42"/>
+      <c r="P148" s="43"/>
+      <c r="Q148" s="43"/>
+      <c r="R148" s="43"/>
+      <c r="S148" s="43"/>
+      <c r="T148" s="43"/>
+      <c r="U148" s="44"/>
       <c r="V148" s="10"/>
       <c r="W148" s="11"/>
       <c r="X148" s="10"/>
       <c r="Y148" s="11"/>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A149" s="30"/>
-      <c r="B149" s="30"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="26"/>
-      <c r="K149" s="27"/>
-      <c r="O149" s="22"/>
-      <c r="P149" s="23"/>
-      <c r="Q149" s="23"/>
-      <c r="R149" s="23"/>
-      <c r="S149" s="23"/>
-      <c r="T149" s="23"/>
-      <c r="U149" s="24"/>
+      <c r="A149" s="37"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="35"/>
+      <c r="J149" s="33"/>
+      <c r="K149" s="35"/>
+      <c r="O149" s="42"/>
+      <c r="P149" s="43"/>
+      <c r="Q149" s="43"/>
+      <c r="R149" s="43"/>
+      <c r="S149" s="43"/>
+      <c r="T149" s="43"/>
+      <c r="U149" s="44"/>
       <c r="V149" s="10"/>
       <c r="W149" s="11"/>
       <c r="X149" s="10"/>
       <c r="Y149" s="11"/>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="30"/>
-      <c r="F150" s="30"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="26">
+      <c r="B150" s="37"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="37"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="33">
         <v>1</v>
       </c>
-      <c r="I150" s="27"/>
-      <c r="J150" s="26">
+      <c r="I150" s="35"/>
+      <c r="J150" s="33">
         <v>2</v>
       </c>
-      <c r="K150" s="27"/>
-      <c r="O150" s="22"/>
-      <c r="P150" s="23"/>
-      <c r="Q150" s="23"/>
-      <c r="R150" s="23"/>
-      <c r="S150" s="23"/>
-      <c r="T150" s="23"/>
-      <c r="U150" s="24"/>
+      <c r="K150" s="35"/>
+      <c r="O150" s="42"/>
+      <c r="P150" s="43"/>
+      <c r="Q150" s="43"/>
+      <c r="R150" s="43"/>
+      <c r="S150" s="43"/>
+      <c r="T150" s="43"/>
+      <c r="U150" s="44"/>
       <c r="V150" s="10"/>
       <c r="W150" s="11"/>
       <c r="X150" s="10"/>
       <c r="Y150" s="11"/>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A151" s="30"/>
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="26"/>
-      <c r="K151" s="27"/>
-      <c r="O151" s="22"/>
-      <c r="P151" s="23"/>
-      <c r="Q151" s="23"/>
-      <c r="R151" s="23"/>
-      <c r="S151" s="23"/>
-      <c r="T151" s="23"/>
-      <c r="U151" s="24"/>
+      <c r="A151" s="37"/>
+      <c r="B151" s="37"/>
+      <c r="C151" s="37"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="37"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="33"/>
+      <c r="I151" s="35"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="35"/>
+      <c r="O151" s="42"/>
+      <c r="P151" s="43"/>
+      <c r="Q151" s="43"/>
+      <c r="R151" s="43"/>
+      <c r="S151" s="43"/>
+      <c r="T151" s="43"/>
+      <c r="U151" s="44"/>
       <c r="V151" s="10"/>
       <c r="W151" s="11"/>
       <c r="X151" s="10"/>
       <c r="Y151" s="11"/>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A152" s="30"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="26"/>
-      <c r="K152" s="27"/>
-      <c r="O152" s="22"/>
-      <c r="P152" s="23"/>
-      <c r="Q152" s="23"/>
-      <c r="R152" s="23"/>
-      <c r="S152" s="23"/>
-      <c r="T152" s="23"/>
-      <c r="U152" s="24"/>
+      <c r="A152" s="37"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="33"/>
+      <c r="I152" s="35"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="35"/>
+      <c r="O152" s="42"/>
+      <c r="P152" s="43"/>
+      <c r="Q152" s="43"/>
+      <c r="R152" s="43"/>
+      <c r="S152" s="43"/>
+      <c r="T152" s="43"/>
+      <c r="U152" s="44"/>
       <c r="V152" s="10"/>
       <c r="W152" s="11"/>
       <c r="X152" s="10"/>
       <c r="Y152" s="11"/>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A153" s="34" t="s">
+      <c r="A153" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B153" s="30"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="30"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="26">
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="33"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="33">
         <v>2</v>
       </c>
-      <c r="K153" s="27"/>
-      <c r="O153" s="22"/>
-      <c r="P153" s="23"/>
-      <c r="Q153" s="23"/>
-      <c r="R153" s="23"/>
-      <c r="S153" s="23"/>
-      <c r="T153" s="23"/>
-      <c r="U153" s="24"/>
+      <c r="K153" s="35"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="43"/>
+      <c r="Q153" s="43"/>
+      <c r="R153" s="43"/>
+      <c r="S153" s="43"/>
+      <c r="T153" s="43"/>
+      <c r="U153" s="44"/>
       <c r="V153" s="10"/>
       <c r="W153" s="11"/>
       <c r="X153" s="10"/>
       <c r="Y153" s="11"/>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A154" s="34" t="s">
+      <c r="A154" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B154" s="30"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
-      <c r="E154" s="30"/>
-      <c r="F154" s="30"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="26">
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="37"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="37"/>
+      <c r="H154" s="33">
         <v>0.5</v>
       </c>
-      <c r="I154" s="27"/>
-      <c r="J154" s="26"/>
-      <c r="K154" s="27"/>
-      <c r="O154" s="22"/>
-      <c r="P154" s="23"/>
-      <c r="Q154" s="23"/>
-      <c r="R154" s="23"/>
-      <c r="S154" s="23"/>
-      <c r="T154" s="23"/>
-      <c r="U154" s="24"/>
+      <c r="I154" s="35"/>
+      <c r="J154" s="33"/>
+      <c r="K154" s="35"/>
+      <c r="O154" s="42"/>
+      <c r="P154" s="43"/>
+      <c r="Q154" s="43"/>
+      <c r="R154" s="43"/>
+      <c r="S154" s="43"/>
+      <c r="T154" s="43"/>
+      <c r="U154" s="44"/>
       <c r="V154" s="10"/>
       <c r="W154" s="11"/>
       <c r="X154" s="10"/>
       <c r="Y154" s="11"/>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B155" s="30"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="26">
-        <v>18</v>
-      </c>
-      <c r="I155" s="27"/>
-      <c r="J155" s="26"/>
-      <c r="K155" s="27"/>
-      <c r="O155" s="22"/>
-      <c r="P155" s="23"/>
-      <c r="Q155" s="23"/>
-      <c r="R155" s="23"/>
-      <c r="S155" s="23"/>
-      <c r="T155" s="23"/>
-      <c r="U155" s="24"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="37"/>
+      <c r="D155" s="37"/>
+      <c r="E155" s="37"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="37"/>
+      <c r="H155" s="33">
+        <v>14</v>
+      </c>
+      <c r="I155" s="35"/>
+      <c r="J155" s="33"/>
+      <c r="K155" s="35"/>
+      <c r="O155" s="42"/>
+      <c r="P155" s="43"/>
+      <c r="Q155" s="43"/>
+      <c r="R155" s="43"/>
+      <c r="S155" s="43"/>
+      <c r="T155" s="43"/>
+      <c r="U155" s="44"/>
       <c r="V155" s="10"/>
       <c r="W155" s="11"/>
       <c r="X155" s="10"/>
       <c r="Y155" s="11"/>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A156" s="46" t="s">
+      <c r="A156" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="28"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="26">
+      <c r="B156" s="34"/>
+      <c r="C156" s="34"/>
+      <c r="D156" s="34"/>
+      <c r="E156" s="34"/>
+      <c r="F156" s="34"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="33">
         <v>3</v>
       </c>
-      <c r="I156" s="27"/>
-      <c r="J156" s="26"/>
-      <c r="K156" s="27"/>
-      <c r="O156" s="22"/>
-      <c r="P156" s="23"/>
-      <c r="Q156" s="23"/>
-      <c r="R156" s="23"/>
-      <c r="S156" s="23"/>
-      <c r="T156" s="23"/>
-      <c r="U156" s="24"/>
+      <c r="I156" s="35"/>
+      <c r="J156" s="33"/>
+      <c r="K156" s="35"/>
+      <c r="O156" s="42"/>
+      <c r="P156" s="43"/>
+      <c r="Q156" s="43"/>
+      <c r="R156" s="43"/>
+      <c r="S156" s="43"/>
+      <c r="T156" s="43"/>
+      <c r="U156" s="44"/>
       <c r="V156" s="10"/>
       <c r="W156" s="11"/>
       <c r="X156" s="10"/>
       <c r="Y156" s="11"/>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A157" s="46" t="s">
+      <c r="A157" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B157" s="28"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="28"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="26"/>
-      <c r="K157" s="27"/>
-      <c r="O157" s="22"/>
-      <c r="P157" s="23"/>
-      <c r="Q157" s="23"/>
-      <c r="R157" s="23"/>
-      <c r="S157" s="23"/>
-      <c r="T157" s="23"/>
-      <c r="U157" s="24"/>
+      <c r="B157" s="34"/>
+      <c r="C157" s="34"/>
+      <c r="D157" s="34"/>
+      <c r="E157" s="34"/>
+      <c r="F157" s="34"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="33">
+        <v>7</v>
+      </c>
+      <c r="I157" s="35"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="35"/>
+      <c r="O157" s="42"/>
+      <c r="P157" s="43"/>
+      <c r="Q157" s="43"/>
+      <c r="R157" s="43"/>
+      <c r="S157" s="43"/>
+      <c r="T157" s="43"/>
+      <c r="U157" s="44"/>
       <c r="V157" s="10"/>
       <c r="W157" s="11"/>
       <c r="X157" s="10"/>
       <c r="Y157" s="11"/>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A158" s="30" t="s">
+      <c r="A158" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="26">
+      <c r="B158" s="37"/>
+      <c r="C158" s="37"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="37"/>
+      <c r="H158" s="33">
         <v>1</v>
       </c>
-      <c r="I158" s="27"/>
-      <c r="J158" s="26">
+      <c r="I158" s="35"/>
+      <c r="J158" s="33">
         <v>1</v>
       </c>
-      <c r="K158" s="27"/>
+      <c r="K158" s="35"/>
       <c r="O158" s="10" t="s">
         <v>37</v>
       </c>
@@ -5856,23 +5873,23 @@
       <c r="Y158" s="11"/>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A159" s="30" t="s">
+      <c r="A159" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B159" s="30"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="26">
-        <v>1</v>
-      </c>
-      <c r="I159" s="27"/>
-      <c r="J159" s="26">
-        <v>1</v>
-      </c>
-      <c r="K159" s="27"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="37"/>
+      <c r="H159" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="I159" s="35"/>
+      <c r="J159" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="K159" s="35"/>
       <c r="O159" s="10"/>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
@@ -5886,21 +5903,21 @@
       <c r="Y159" s="11"/>
     </row>
     <row r="161" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E161" s="31" t="s">
+      <c r="E161" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F161" s="32"/>
-      <c r="G161" s="33"/>
-      <c r="H161" s="29">
+      <c r="F161" s="25"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="27">
         <f>SUM(H142:I159)</f>
-        <v>27.5</v>
-      </c>
-      <c r="I161" s="29"/>
-      <c r="J161" s="29">
+        <v>29.75</v>
+      </c>
+      <c r="I161" s="27"/>
+      <c r="J161" s="27">
         <f>SUM(J142:K159)</f>
-        <v>13</v>
-      </c>
-      <c r="K161" s="29"/>
+        <v>12.25</v>
+      </c>
+      <c r="K161" s="27"/>
       <c r="S161" s="13" t="s">
         <v>7</v>
       </c>
@@ -5918,29 +5935,525 @@
       <c r="Y161" s="15"/>
     </row>
     <row r="163" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E163" s="29" t="s">
+      <c r="E163" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29">
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27">
         <f>SUM(H161,J161)</f>
-        <v>40.5</v>
-      </c>
-      <c r="I163" s="29"/>
-      <c r="S163" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I163" s="27"/>
+      <c r="S163" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="T163" s="29"/>
-      <c r="U163" s="29"/>
-      <c r="V163" s="29">
+      <c r="T163" s="27"/>
+      <c r="U163" s="27"/>
+      <c r="V163" s="27">
         <f>SUM(V161,X161)</f>
         <v>2</v>
       </c>
-      <c r="W163" s="29"/>
+      <c r="W163" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="520">
+    <mergeCell ref="V132:W132"/>
+    <mergeCell ref="O125:U125"/>
+    <mergeCell ref="V125:W125"/>
+    <mergeCell ref="X125:Y125"/>
+    <mergeCell ref="O126:U126"/>
+    <mergeCell ref="V126:W126"/>
+    <mergeCell ref="X126:Y126"/>
+    <mergeCell ref="O127:U127"/>
+    <mergeCell ref="V127:W127"/>
+    <mergeCell ref="X127:Y127"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="O46:U46"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="O45:U45"/>
+    <mergeCell ref="V128:W128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="V130:W130"/>
+    <mergeCell ref="X130:Y130"/>
+    <mergeCell ref="S163:U163"/>
+    <mergeCell ref="V163:W163"/>
+    <mergeCell ref="O157:U157"/>
+    <mergeCell ref="O154:U154"/>
+    <mergeCell ref="O155:U155"/>
+    <mergeCell ref="O156:U156"/>
+    <mergeCell ref="O151:U151"/>
+    <mergeCell ref="O152:U152"/>
+    <mergeCell ref="O153:U153"/>
+    <mergeCell ref="O148:U148"/>
+    <mergeCell ref="O149:U149"/>
+    <mergeCell ref="O150:U150"/>
+    <mergeCell ref="O145:U145"/>
+    <mergeCell ref="O146:U146"/>
+    <mergeCell ref="O147:U147"/>
+    <mergeCell ref="O143:U143"/>
+    <mergeCell ref="O144:U144"/>
+    <mergeCell ref="O128:U128"/>
+    <mergeCell ref="S130:U130"/>
+    <mergeCell ref="S132:U132"/>
+    <mergeCell ref="O142:U142"/>
+    <mergeCell ref="O122:U122"/>
+    <mergeCell ref="V122:W122"/>
+    <mergeCell ref="X122:Y122"/>
+    <mergeCell ref="O123:U123"/>
+    <mergeCell ref="V123:W123"/>
+    <mergeCell ref="X123:Y123"/>
+    <mergeCell ref="O124:U124"/>
+    <mergeCell ref="V124:W124"/>
+    <mergeCell ref="X124:Y124"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="V119:W119"/>
+    <mergeCell ref="X119:Y119"/>
+    <mergeCell ref="O120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="O121:U121"/>
+    <mergeCell ref="V121:W121"/>
+    <mergeCell ref="X121:Y121"/>
+    <mergeCell ref="O116:U116"/>
+    <mergeCell ref="V116:W116"/>
+    <mergeCell ref="X116:Y116"/>
+    <mergeCell ref="O117:U117"/>
+    <mergeCell ref="V117:W117"/>
+    <mergeCell ref="X117:Y117"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="V118:W118"/>
+    <mergeCell ref="X118:Y118"/>
+    <mergeCell ref="O113:U113"/>
+    <mergeCell ref="V113:W113"/>
+    <mergeCell ref="X113:Y113"/>
+    <mergeCell ref="O114:U114"/>
+    <mergeCell ref="V114:W114"/>
+    <mergeCell ref="X114:Y114"/>
+    <mergeCell ref="O115:U115"/>
+    <mergeCell ref="V115:W115"/>
+    <mergeCell ref="X115:Y115"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="V110:W110"/>
+    <mergeCell ref="X110:Y110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="V111:W111"/>
+    <mergeCell ref="X111:Y111"/>
+    <mergeCell ref="O112:U112"/>
+    <mergeCell ref="V112:W112"/>
+    <mergeCell ref="X112:Y112"/>
+    <mergeCell ref="S95:U95"/>
+    <mergeCell ref="V95:W95"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="S99:U99"/>
+    <mergeCell ref="V99:W99"/>
+    <mergeCell ref="O103:AB104"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="V107:W107"/>
+    <mergeCell ref="O91:U91"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="O92:U92"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="O93:U93"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="O88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="O89:U89"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="O90:U90"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="O85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="O86:U86"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="O87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="O82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="O83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="O84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="O79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="O80:U80"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="O81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="O76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="O77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="O78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="O68:AB69"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="O60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="O56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="O57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="O53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="O54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="O55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="O52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="O47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="O48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="O49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="O44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="O35:AB36"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="E163:G163"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="A158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="A159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="A156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="A141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="A120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A68:N69"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A35:N36"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -5965,502 +6478,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A35:N36"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A68:N69"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="A109:G109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="A111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="A120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="A141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="A126:G126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="A145:G145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="A147:G147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="A149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="A150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="A156:G156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="A151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="A152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="A153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="A154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="E161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="E163:G163"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="A157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="A158:G158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="A159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="O44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="O35:AB36"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="O47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="O48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="O49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="O52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="O53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="O54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="O55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="O56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="O57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="O60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="O68:AB69"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="O76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="O77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="O78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="O79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="O80:U80"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="O81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="O82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="O83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="O84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="O85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="O86:U86"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="O87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="O88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="O89:U89"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="O90:U90"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="O91:U91"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="O92:U92"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="O93:U93"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="S95:U95"/>
-    <mergeCell ref="V95:W95"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="S99:U99"/>
-    <mergeCell ref="V99:W99"/>
-    <mergeCell ref="O103:AB104"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="S107:T107"/>
-    <mergeCell ref="V107:W107"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="V110:W110"/>
-    <mergeCell ref="X110:Y110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="V111:W111"/>
-    <mergeCell ref="X111:Y111"/>
-    <mergeCell ref="O112:U112"/>
-    <mergeCell ref="V112:W112"/>
-    <mergeCell ref="X112:Y112"/>
-    <mergeCell ref="O113:U113"/>
-    <mergeCell ref="V113:W113"/>
-    <mergeCell ref="X113:Y113"/>
-    <mergeCell ref="O114:U114"/>
-    <mergeCell ref="V114:W114"/>
-    <mergeCell ref="X114:Y114"/>
-    <mergeCell ref="O115:U115"/>
-    <mergeCell ref="V115:W115"/>
-    <mergeCell ref="X115:Y115"/>
-    <mergeCell ref="O116:U116"/>
-    <mergeCell ref="V116:W116"/>
-    <mergeCell ref="X116:Y116"/>
-    <mergeCell ref="O117:U117"/>
-    <mergeCell ref="V117:W117"/>
-    <mergeCell ref="X117:Y117"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="V118:W118"/>
-    <mergeCell ref="X118:Y118"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="V119:W119"/>
-    <mergeCell ref="X119:Y119"/>
-    <mergeCell ref="O120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="O121:U121"/>
-    <mergeCell ref="V121:W121"/>
-    <mergeCell ref="X121:Y121"/>
-    <mergeCell ref="O122:U122"/>
-    <mergeCell ref="V122:W122"/>
-    <mergeCell ref="X122:Y122"/>
-    <mergeCell ref="O123:U123"/>
-    <mergeCell ref="V123:W123"/>
-    <mergeCell ref="X123:Y123"/>
-    <mergeCell ref="O124:U124"/>
-    <mergeCell ref="V124:W124"/>
-    <mergeCell ref="X124:Y124"/>
-    <mergeCell ref="O148:U148"/>
-    <mergeCell ref="O149:U149"/>
-    <mergeCell ref="O150:U150"/>
-    <mergeCell ref="O145:U145"/>
-    <mergeCell ref="O146:U146"/>
-    <mergeCell ref="O147:U147"/>
-    <mergeCell ref="O143:U143"/>
-    <mergeCell ref="O144:U144"/>
-    <mergeCell ref="O128:U128"/>
-    <mergeCell ref="S130:U130"/>
-    <mergeCell ref="S132:U132"/>
-    <mergeCell ref="S163:U163"/>
-    <mergeCell ref="V163:W163"/>
-    <mergeCell ref="O157:U157"/>
-    <mergeCell ref="O154:U154"/>
-    <mergeCell ref="O155:U155"/>
-    <mergeCell ref="O156:U156"/>
-    <mergeCell ref="O151:U151"/>
-    <mergeCell ref="O152:U152"/>
-    <mergeCell ref="O153:U153"/>
-    <mergeCell ref="O142:U142"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="O46:U46"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="O45:U45"/>
-    <mergeCell ref="V128:W128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="V130:W130"/>
-    <mergeCell ref="X130:Y130"/>
-    <mergeCell ref="V132:W132"/>
-    <mergeCell ref="O125:U125"/>
-    <mergeCell ref="V125:W125"/>
-    <mergeCell ref="X125:Y125"/>
-    <mergeCell ref="O126:U126"/>
-    <mergeCell ref="V126:W126"/>
-    <mergeCell ref="X126:Y126"/>
-    <mergeCell ref="O127:U127"/>
-    <mergeCell ref="V127:W127"/>
-    <mergeCell ref="X127:Y127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/01_Projektmanagement/Zeiterfassung.xlsx
+++ b/01_Projektmanagement/Zeiterfassung.xlsx
@@ -611,19 +611,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,22 +623,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -659,17 +635,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,8 +960,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="303804320"/>
-        <c:axId val="305246312"/>
+        <c:axId val="306410376"/>
+        <c:axId val="306414688"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1470,7 +1470,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="303804320"/>
+        <c:axId val="306410376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1513,7 +1513,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305246312"/>
+        <c:crossAx val="306414688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1521,7 +1521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305246312"/>
+        <c:axId val="306414688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +1572,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303804320"/>
+        <c:crossAx val="306410376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2531,7 +2531,7 @@
   <dimension ref="A1:AB164"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:N19"/>
+      <selection activeCell="D23" sqref="D23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,277 +2544,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41" t="s">
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="37">
         <f>SUM(H44:I61)</f>
         <v>21.75</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="45">
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="37">
         <f>SUM(J44:K61)</f>
         <v>20.75</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="45">
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="37">
         <f>SUM(H63,J63)</f>
         <v>42.5</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="45">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="37">
         <f>SUM(V44:W61)</f>
         <v>35.25</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="45">
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="37">
         <f>SUM(X44:Y61)</f>
         <v>36.25</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="45">
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="37">
         <f>SUM(V63,X63)</f>
         <v>71.5</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="45">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37">
         <f>SUM(H77:I92)</f>
         <v>37.75</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="45">
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="37">
         <f>SUM(J77:K92)</f>
         <v>37</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="45">
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="37">
         <f>SUM(H94,J94)</f>
         <v>74.75</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="45">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="37">
         <f>SUM(V96)</f>
         <v>33</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="45">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="37">
         <f>SUM(X96)</f>
         <v>38</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="45">
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="37">
         <f>SUM(G8,D8)</f>
         <v>71</v>
       </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="45">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="37">
         <f>SUM(H110:I127)</f>
         <v>39</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="45">
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="37">
         <f>SUM(J110:K127)</f>
         <v>37</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="45">
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="37">
         <f>SUM(G9,D9)</f>
         <v>76</v>
       </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="40">
         <f>SUM(V128)</f>
         <v>34.5</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="34">
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="40">
         <f>SUM(X128)</f>
         <v>32.5</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="34">
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="40">
         <f>SUM(G10,D10)</f>
         <v>67</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="35"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="45">
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="37">
         <f>SUM(H143:I160)</f>
         <v>24.75</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="45">
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="37">
         <f>SUM(J162)</f>
         <v>24.25</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="45">
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="37">
         <f>SUM(D11:I11)</f>
         <v>49</v>
       </c>
-      <c r="K11" s="46"/>
-      <c r="L11" s="47"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="34">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="40">
         <f>SUM(V143:W160)</f>
         <v>14</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="34">
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40">
         <f>SUM(X143:Y160)</f>
         <v>18</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="34">
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="40">
         <f>SUM(V162,X162)</f>
         <v>32</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="35"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="50">
+      <c r="D13" s="46">
         <f>SUM(D5:F12)</f>
         <v>240</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50">
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46">
         <f>SUM(G5:I12)</f>
         <v>243.75</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
@@ -2834,11 +2834,11 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2861,12 +2861,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="51">
+      <c r="F17" s="36">
         <f>SUM(J4:L12)</f>
         <v>483.75</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2943,82 +2943,82 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -3052,749 +3052,749 @@
       <c r="A40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="O40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
       <c r="R40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
       <c r="U40" s="7"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41" t="s">
+      <c r="I43" s="43"/>
+      <c r="J43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="41"/>
-      <c r="O43" s="41" t="s">
+      <c r="K43" s="43"/>
+      <c r="O43" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41" t="s">
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41" t="s">
+      <c r="W43" s="43"/>
+      <c r="X43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Y43" s="41"/>
+      <c r="Y43" s="43"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34">
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="40">
         <v>1</v>
       </c>
-      <c r="I44" s="35"/>
-      <c r="J44" s="34">
+      <c r="I44" s="42"/>
+      <c r="J44" s="40">
         <v>0.5</v>
       </c>
-      <c r="K44" s="35"/>
-      <c r="O44" s="33" t="s">
+      <c r="K44" s="42"/>
+      <c r="O44" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="34">
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="40">
         <v>1</v>
       </c>
-      <c r="W44" s="35"/>
-      <c r="X44" s="34">
+      <c r="W44" s="42"/>
+      <c r="X44" s="40">
         <v>1</v>
       </c>
-      <c r="Y44" s="35"/>
+      <c r="Y44" s="42"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="34">
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="40">
         <v>0.25</v>
       </c>
-      <c r="I45" s="35"/>
-      <c r="J45" s="34">
+      <c r="I45" s="42"/>
+      <c r="J45" s="40">
         <v>0.25</v>
       </c>
-      <c r="K45" s="35"/>
-      <c r="O45" s="33" t="s">
+      <c r="K45" s="42"/>
+      <c r="O45" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="34">
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="40">
         <v>1.5</v>
       </c>
-      <c r="Y45" s="35"/>
+      <c r="Y45" s="42"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="34">
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="40">
         <v>5</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="34">
+      <c r="I46" s="42"/>
+      <c r="J46" s="40">
         <v>7</v>
       </c>
-      <c r="K46" s="35"/>
-      <c r="O46" s="34" t="s">
+      <c r="K46" s="42"/>
+      <c r="O46" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="35"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="42"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="40">
         <v>0.5</v>
       </c>
-      <c r="I47" s="35"/>
-      <c r="J47" s="34">
+      <c r="I47" s="42"/>
+      <c r="J47" s="40">
         <v>1</v>
       </c>
-      <c r="K47" s="35"/>
-      <c r="O47" s="34" t="s">
+      <c r="K47" s="42"/>
+      <c r="O47" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="34">
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="40">
         <v>8</v>
       </c>
-      <c r="W47" s="35"/>
-      <c r="X47" s="34">
+      <c r="W47" s="42"/>
+      <c r="X47" s="40">
         <v>5</v>
       </c>
-      <c r="Y47" s="35"/>
+      <c r="Y47" s="42"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34">
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="40">
         <v>1</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="34">
+      <c r="I48" s="42"/>
+      <c r="J48" s="40">
         <v>1</v>
       </c>
-      <c r="K48" s="35"/>
-      <c r="O48" s="34" t="s">
+      <c r="K48" s="42"/>
+      <c r="O48" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="34">
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="40">
         <v>9</v>
       </c>
-      <c r="W48" s="35"/>
-      <c r="X48" s="34">
+      <c r="W48" s="42"/>
+      <c r="X48" s="40">
         <v>4</v>
       </c>
-      <c r="Y48" s="35"/>
+      <c r="Y48" s="42"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="34">
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="40">
         <v>3</v>
       </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="34">
+      <c r="I49" s="42"/>
+      <c r="J49" s="40">
         <v>2</v>
       </c>
-      <c r="K49" s="35"/>
-      <c r="O49" s="34" t="s">
+      <c r="K49" s="42"/>
+      <c r="O49" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="34">
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="40">
         <v>5</v>
       </c>
-      <c r="W49" s="35"/>
-      <c r="X49" s="34">
+      <c r="W49" s="42"/>
+      <c r="X49" s="40">
         <v>2</v>
       </c>
-      <c r="Y49" s="35"/>
+      <c r="Y49" s="42"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="34">
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="40">
         <v>6</v>
       </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="34">
+      <c r="I50" s="42"/>
+      <c r="J50" s="40">
         <v>5</v>
       </c>
-      <c r="K50" s="35"/>
-      <c r="O50" s="34" t="s">
+      <c r="K50" s="42"/>
+      <c r="O50" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="34">
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="40">
         <v>2</v>
       </c>
-      <c r="W50" s="35"/>
-      <c r="X50" s="34">
+      <c r="W50" s="42"/>
+      <c r="X50" s="40">
         <v>2</v>
       </c>
-      <c r="Y50" s="35"/>
+      <c r="Y50" s="42"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34">
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="40">
         <v>3</v>
       </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="34">
+      <c r="I51" s="42"/>
+      <c r="J51" s="40">
         <v>2</v>
       </c>
-      <c r="K51" s="35"/>
-      <c r="O51" s="34" t="s">
+      <c r="K51" s="42"/>
+      <c r="O51" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="34">
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="40">
         <v>3</v>
       </c>
-      <c r="W51" s="35"/>
-      <c r="X51" s="34">
+      <c r="W51" s="42"/>
+      <c r="X51" s="40">
         <v>4</v>
       </c>
-      <c r="Y51" s="35"/>
+      <c r="Y51" s="42"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34">
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="40">
         <v>2</v>
       </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="34">
+      <c r="I52" s="42"/>
+      <c r="J52" s="40">
         <v>2</v>
       </c>
-      <c r="K52" s="35"/>
-      <c r="O52" s="34" t="s">
+      <c r="K52" s="42"/>
+      <c r="O52" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="34">
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="40">
         <v>0.5</v>
       </c>
-      <c r="W52" s="35"/>
-      <c r="X52" s="34">
+      <c r="W52" s="42"/>
+      <c r="X52" s="40">
         <v>8</v>
       </c>
-      <c r="Y52" s="35"/>
+      <c r="Y52" s="42"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="35"/>
-      <c r="O53" s="34" t="s">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="42"/>
+      <c r="O53" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="34">
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="40">
         <v>1.5</v>
       </c>
-      <c r="Y53" s="35"/>
+      <c r="Y53" s="42"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="35"/>
-      <c r="O54" s="33" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="42"/>
+      <c r="O54" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="34">
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="40">
         <v>1.5</v>
       </c>
-      <c r="W54" s="35"/>
-      <c r="X54" s="34">
+      <c r="W54" s="42"/>
+      <c r="X54" s="40">
         <v>1.5</v>
       </c>
-      <c r="Y54" s="35"/>
+      <c r="Y54" s="42"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="35"/>
-      <c r="O55" s="33" t="s">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="42"/>
+      <c r="O55" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="34">
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="40">
         <v>2</v>
       </c>
-      <c r="W55" s="35"/>
-      <c r="X55" s="34">
+      <c r="W55" s="42"/>
+      <c r="X55" s="40">
         <v>2.5</v>
       </c>
-      <c r="Y55" s="35"/>
+      <c r="Y55" s="42"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="35"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="35"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="42"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="42"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="35"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="35"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="42"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="42"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="35"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="35"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="42"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="42"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="35"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="35"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="42"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="42"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="35"/>
-      <c r="O60" s="33" t="s">
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="42"/>
+      <c r="O60" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="34">
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="40">
         <v>0.25</v>
       </c>
-      <c r="W60" s="35"/>
-      <c r="X60" s="34">
+      <c r="W60" s="42"/>
+      <c r="X60" s="40">
         <v>0.25</v>
       </c>
-      <c r="Y60" s="35"/>
+      <c r="Y60" s="42"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="35"/>
-      <c r="O61" s="33" t="s">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="42"/>
+      <c r="O61" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="34">
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="40">
         <v>3</v>
       </c>
-      <c r="W61" s="35"/>
-      <c r="X61" s="34">
+      <c r="W61" s="42"/>
+      <c r="X61" s="40">
         <v>3</v>
       </c>
-      <c r="Y61" s="35"/>
+      <c r="Y61" s="42"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="38"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="32">
+      <c r="F63" s="35"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="47">
         <f>SUM(H44:I61)</f>
         <v>21.75</v>
       </c>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32">
+      <c r="I63" s="47"/>
+      <c r="J63" s="47">
         <f>SUM(J44:K61)</f>
         <v>20.75</v>
       </c>
-      <c r="K63" s="32"/>
-      <c r="S63" s="37" t="s">
+      <c r="K63" s="47"/>
+      <c r="S63" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="T63" s="38"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="32">
+      <c r="T63" s="35"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="47">
         <f>SUM(V44:W61)</f>
         <v>35.25</v>
       </c>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32">
+      <c r="W63" s="47"/>
+      <c r="X63" s="47">
         <f>SUM(X44:Y61)</f>
         <v>36.25</v>
       </c>
-      <c r="Y63" s="32"/>
+      <c r="Y63" s="47"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E65" s="32" t="s">
+      <c r="E65" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32">
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47">
         <f>SUM(H63,J63)</f>
         <v>42.5</v>
       </c>
-      <c r="I65" s="32"/>
-      <c r="S65" s="32" t="s">
+      <c r="I65" s="47"/>
+      <c r="S65" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32">
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47">
         <f>SUM(V63,X63)</f>
         <v>71.5</v>
       </c>
-      <c r="W65" s="32"/>
+      <c r="W65" s="47"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="42" t="s">
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="42"/>
-      <c r="T69" s="42"/>
-      <c r="U69" s="42"/>
-      <c r="V69" s="42"/>
-      <c r="W69" s="42"/>
-      <c r="X69" s="42"/>
-      <c r="Y69" s="42"/>
-      <c r="Z69" s="42"/>
-      <c r="AA69" s="42"/>
-      <c r="AB69" s="42"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="32"/>
+      <c r="U69" s="32"/>
+      <c r="V69" s="32"/>
+      <c r="W69" s="32"/>
+      <c r="X69" s="32"/>
+      <c r="Y69" s="32"/>
+      <c r="Z69" s="32"/>
+      <c r="AA69" s="32"/>
+      <c r="AB69" s="32"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="42"/>
-      <c r="S70" s="42"/>
-      <c r="T70" s="42"/>
-      <c r="U70" s="42"/>
-      <c r="V70" s="42"/>
-      <c r="W70" s="42"/>
-      <c r="X70" s="42"/>
-      <c r="Y70" s="42"/>
-      <c r="Z70" s="42"/>
-      <c r="AA70" s="42"/>
-      <c r="AB70" s="42"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="32"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+      <c r="X70" s="32"/>
+      <c r="Y70" s="32"/>
+      <c r="Z70" s="32"/>
+      <c r="AA70" s="32"/>
+      <c r="AB70" s="32"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -3828,673 +3828,673 @@
       <c r="A73" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="44">
+      <c r="B73" s="48">
         <v>43019</v>
       </c>
-      <c r="C73" s="43"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E73" s="44">
+      <c r="E73" s="48">
         <v>43033</v>
       </c>
-      <c r="F73" s="43"/>
+      <c r="F73" s="45"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="O73" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P73" s="44">
+      <c r="P73" s="48">
         <v>43034</v>
       </c>
-      <c r="Q73" s="43"/>
+      <c r="Q73" s="45"/>
       <c r="R73" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S73" s="44">
+      <c r="S73" s="48">
         <v>43047</v>
       </c>
-      <c r="T73" s="43"/>
+      <c r="T73" s="45"/>
       <c r="U73" s="7"/>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
+      <c r="V73" s="45"/>
+      <c r="W73" s="45"/>
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41" t="s">
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41" t="s">
+      <c r="I76" s="43"/>
+      <c r="J76" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="41"/>
-      <c r="O76" s="41" t="s">
+      <c r="K76" s="43"/>
+      <c r="O76" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
-      <c r="T76" s="41"/>
-      <c r="U76" s="41"/>
-      <c r="V76" s="41" t="s">
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="W76" s="41"/>
-      <c r="X76" s="41" t="s">
+      <c r="W76" s="43"/>
+      <c r="X76" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Y76" s="41"/>
+      <c r="Y76" s="43"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="34">
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="40">
         <v>12</v>
       </c>
-      <c r="I77" s="35"/>
-      <c r="J77" s="34">
+      <c r="I77" s="42"/>
+      <c r="J77" s="40">
         <v>2</v>
       </c>
-      <c r="K77" s="35"/>
-      <c r="O77" s="40" t="s">
+      <c r="K77" s="42"/>
+      <c r="O77" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="P77" s="33"/>
-      <c r="Q77" s="33"/>
-      <c r="R77" s="33"/>
-      <c r="S77" s="33"/>
-      <c r="T77" s="33"/>
-      <c r="U77" s="33"/>
-      <c r="V77" s="34">
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="44"/>
+      <c r="V77" s="40">
         <v>5</v>
       </c>
-      <c r="W77" s="35"/>
-      <c r="X77" s="34">
+      <c r="W77" s="42"/>
+      <c r="X77" s="40">
         <v>1</v>
       </c>
-      <c r="Y77" s="35"/>
+      <c r="Y77" s="42"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="34">
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="40">
         <v>7</v>
       </c>
-      <c r="I78" s="35"/>
-      <c r="J78" s="34">
+      <c r="I78" s="42"/>
+      <c r="J78" s="40">
         <v>5</v>
       </c>
-      <c r="K78" s="35"/>
-      <c r="O78" s="40" t="s">
+      <c r="K78" s="42"/>
+      <c r="O78" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="P78" s="33"/>
-      <c r="Q78" s="33"/>
-      <c r="R78" s="33"/>
-      <c r="S78" s="33"/>
-      <c r="T78" s="33"/>
-      <c r="U78" s="33"/>
-      <c r="V78" s="34">
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
+      <c r="U78" s="44"/>
+      <c r="V78" s="40">
         <v>24</v>
       </c>
-      <c r="W78" s="35"/>
-      <c r="X78" s="34">
+      <c r="W78" s="42"/>
+      <c r="X78" s="40">
         <v>12</v>
       </c>
-      <c r="Y78" s="35"/>
+      <c r="Y78" s="42"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="34">
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="40">
         <v>2</v>
       </c>
-      <c r="I79" s="35"/>
-      <c r="J79" s="34">
+      <c r="I79" s="42"/>
+      <c r="J79" s="40">
         <v>2</v>
       </c>
-      <c r="K79" s="35"/>
-      <c r="O79" s="40" t="s">
+      <c r="K79" s="42"/>
+      <c r="O79" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="33"/>
-      <c r="R79" s="33"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="33"/>
-      <c r="U79" s="33"/>
-      <c r="V79" s="34"/>
-      <c r="W79" s="35"/>
-      <c r="X79" s="34">
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="44"/>
+      <c r="U79" s="44"/>
+      <c r="V79" s="40"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="40">
         <v>3</v>
       </c>
-      <c r="Y79" s="35"/>
+      <c r="Y79" s="42"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="34">
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="40">
         <v>1</v>
       </c>
-      <c r="I80" s="35"/>
-      <c r="J80" s="34">
+      <c r="I80" s="42"/>
+      <c r="J80" s="40">
         <v>11</v>
       </c>
-      <c r="K80" s="35"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="33"/>
-      <c r="S80" s="33"/>
-      <c r="T80" s="33"/>
-      <c r="U80" s="33"/>
-      <c r="V80" s="34"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="34"/>
-      <c r="Y80" s="35"/>
+      <c r="K80" s="42"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="44"/>
+      <c r="T80" s="44"/>
+      <c r="U80" s="44"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="42"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="34">
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="40">
         <v>1</v>
       </c>
-      <c r="I81" s="35"/>
-      <c r="J81" s="34">
+      <c r="I81" s="42"/>
+      <c r="J81" s="40">
         <v>4</v>
       </c>
-      <c r="K81" s="35"/>
-      <c r="O81" s="40" t="s">
+      <c r="K81" s="42"/>
+      <c r="O81" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="33"/>
-      <c r="S81" s="33"/>
-      <c r="T81" s="33"/>
-      <c r="U81" s="33"/>
-      <c r="V81" s="34"/>
-      <c r="W81" s="35"/>
-      <c r="X81" s="34">
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="44"/>
+      <c r="S81" s="44"/>
+      <c r="T81" s="44"/>
+      <c r="U81" s="44"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="40">
         <v>2</v>
       </c>
-      <c r="Y81" s="35"/>
+      <c r="Y81" s="42"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="34">
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="40">
         <v>1</v>
       </c>
-      <c r="I82" s="35"/>
-      <c r="J82" s="34">
+      <c r="I82" s="42"/>
+      <c r="J82" s="40">
         <v>1</v>
       </c>
-      <c r="K82" s="35"/>
-      <c r="O82" s="40" t="s">
+      <c r="K82" s="42"/>
+      <c r="O82" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="33"/>
-      <c r="R82" s="33"/>
-      <c r="S82" s="33"/>
-      <c r="T82" s="33"/>
-      <c r="U82" s="33"/>
-      <c r="V82" s="34"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="34">
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="44"/>
+      <c r="T82" s="44"/>
+      <c r="U82" s="44"/>
+      <c r="V82" s="40"/>
+      <c r="W82" s="42"/>
+      <c r="X82" s="40">
         <v>5</v>
       </c>
-      <c r="Y82" s="35"/>
+      <c r="Y82" s="42"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="34">
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="40">
         <v>0.25</v>
       </c>
-      <c r="I83" s="35"/>
-      <c r="J83" s="34">
+      <c r="I83" s="42"/>
+      <c r="J83" s="40">
         <v>0</v>
       </c>
-      <c r="K83" s="35"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="33"/>
-      <c r="R83" s="33"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="33"/>
-      <c r="U83" s="33"/>
-      <c r="V83" s="34"/>
-      <c r="W83" s="35"/>
-      <c r="X83" s="34"/>
-      <c r="Y83" s="35"/>
+      <c r="K83" s="42"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="44"/>
+      <c r="T83" s="44"/>
+      <c r="U83" s="44"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="42"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="34">
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="40">
         <v>0.5</v>
       </c>
-      <c r="I84" s="35"/>
-      <c r="J84" s="34">
+      <c r="I84" s="42"/>
+      <c r="J84" s="40">
         <v>0</v>
       </c>
-      <c r="K84" s="35"/>
-      <c r="O84" s="40" t="s">
+      <c r="K84" s="42"/>
+      <c r="O84" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="33"/>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-      <c r="U84" s="33"/>
-      <c r="V84" s="34"/>
-      <c r="W84" s="35"/>
-      <c r="X84" s="34">
+      <c r="P84" s="44"/>
+      <c r="Q84" s="44"/>
+      <c r="R84" s="44"/>
+      <c r="S84" s="44"/>
+      <c r="T84" s="44"/>
+      <c r="U84" s="44"/>
+      <c r="V84" s="40"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="40">
         <v>2</v>
       </c>
-      <c r="Y84" s="35"/>
+      <c r="Y84" s="42"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="34">
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="40">
         <v>7</v>
       </c>
-      <c r="I85" s="35"/>
-      <c r="J85" s="34">
+      <c r="I85" s="42"/>
+      <c r="J85" s="40">
         <v>2</v>
       </c>
-      <c r="K85" s="35"/>
-      <c r="O85" s="40" t="s">
+      <c r="K85" s="42"/>
+      <c r="O85" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="33"/>
-      <c r="R85" s="33"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="33"/>
-      <c r="U85" s="33"/>
-      <c r="V85" s="34"/>
-      <c r="W85" s="35"/>
-      <c r="X85" s="34">
+      <c r="P85" s="44"/>
+      <c r="Q85" s="44"/>
+      <c r="R85" s="44"/>
+      <c r="S85" s="44"/>
+      <c r="T85" s="44"/>
+      <c r="U85" s="44"/>
+      <c r="V85" s="40"/>
+      <c r="W85" s="42"/>
+      <c r="X85" s="40">
         <v>2</v>
       </c>
-      <c r="Y85" s="35"/>
+      <c r="Y85" s="42"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="35"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="33"/>
-      <c r="S86" s="33"/>
-      <c r="T86" s="33"/>
-      <c r="U86" s="33"/>
-      <c r="V86" s="34"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="34"/>
-      <c r="Y86" s="35"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="42"/>
+      <c r="O86" s="44"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="44"/>
+      <c r="S86" s="44"/>
+      <c r="T86" s="44"/>
+      <c r="U86" s="44"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="42"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="42"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="34">
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="40">
         <v>4</v>
       </c>
-      <c r="I87" s="35"/>
-      <c r="J87" s="34">
+      <c r="I87" s="42"/>
+      <c r="J87" s="40">
         <v>8</v>
       </c>
-      <c r="K87" s="35"/>
-      <c r="O87" s="40" t="s">
+      <c r="K87" s="42"/>
+      <c r="O87" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="33"/>
-      <c r="S87" s="33"/>
-      <c r="T87" s="33"/>
-      <c r="U87" s="33"/>
-      <c r="V87" s="34"/>
-      <c r="W87" s="35"/>
-      <c r="X87" s="34"/>
-      <c r="Y87" s="35"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="44"/>
+      <c r="S87" s="44"/>
+      <c r="T87" s="44"/>
+      <c r="U87" s="44"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="42"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="42"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="35"/>
-      <c r="O88" s="40" t="s">
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="42"/>
+      <c r="O88" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="33"/>
-      <c r="S88" s="33"/>
-      <c r="T88" s="33"/>
-      <c r="U88" s="33"/>
-      <c r="V88" s="34"/>
-      <c r="W88" s="35"/>
-      <c r="X88" s="34">
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="44"/>
+      <c r="T88" s="44"/>
+      <c r="U88" s="44"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="42"/>
+      <c r="X88" s="40">
         <v>4</v>
       </c>
-      <c r="Y88" s="35"/>
+      <c r="Y88" s="42"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="35"/>
-      <c r="O89" s="40" t="s">
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="42"/>
+      <c r="O89" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="33"/>
-      <c r="S89" s="33"/>
-      <c r="T89" s="33"/>
-      <c r="U89" s="33"/>
-      <c r="V89" s="34"/>
-      <c r="W89" s="35"/>
-      <c r="X89" s="34">
+      <c r="P89" s="44"/>
+      <c r="Q89" s="44"/>
+      <c r="R89" s="44"/>
+      <c r="S89" s="44"/>
+      <c r="T89" s="44"/>
+      <c r="U89" s="44"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="42"/>
+      <c r="X89" s="40">
         <v>2</v>
       </c>
-      <c r="Y89" s="35"/>
+      <c r="Y89" s="42"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="35"/>
-      <c r="O90" s="40" t="s">
+      <c r="A90" s="44"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="42"/>
+      <c r="O90" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="P90" s="33"/>
-      <c r="Q90" s="33"/>
-      <c r="R90" s="33"/>
-      <c r="S90" s="33"/>
-      <c r="T90" s="33"/>
-      <c r="U90" s="33"/>
-      <c r="V90" s="34"/>
-      <c r="W90" s="35"/>
-      <c r="X90" s="34">
+      <c r="P90" s="44"/>
+      <c r="Q90" s="44"/>
+      <c r="R90" s="44"/>
+      <c r="S90" s="44"/>
+      <c r="T90" s="44"/>
+      <c r="U90" s="44"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="42"/>
+      <c r="X90" s="40">
         <v>2</v>
       </c>
-      <c r="Y90" s="35"/>
+      <c r="Y90" s="42"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="34">
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="40">
         <v>0.5</v>
       </c>
-      <c r="I91" s="35"/>
-      <c r="J91" s="34">
+      <c r="I91" s="42"/>
+      <c r="J91" s="40">
         <v>0.5</v>
       </c>
-      <c r="K91" s="35"/>
-      <c r="O91" s="40" t="s">
+      <c r="K91" s="42"/>
+      <c r="O91" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="P91" s="33"/>
-      <c r="Q91" s="33"/>
-      <c r="R91" s="33"/>
-      <c r="S91" s="33"/>
-      <c r="T91" s="33"/>
-      <c r="U91" s="33"/>
-      <c r="V91" s="34"/>
-      <c r="W91" s="35"/>
-      <c r="X91" s="34">
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="44"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="42"/>
+      <c r="X91" s="40">
         <v>2</v>
       </c>
-      <c r="Y91" s="35"/>
+      <c r="Y91" s="42"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="34">
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="40">
         <v>1.5</v>
       </c>
-      <c r="I92" s="35"/>
-      <c r="J92" s="34">
+      <c r="I92" s="42"/>
+      <c r="J92" s="40">
         <v>1.5</v>
       </c>
-      <c r="K92" s="35"/>
-      <c r="O92" s="33"/>
-      <c r="P92" s="33"/>
-      <c r="Q92" s="33"/>
-      <c r="R92" s="33"/>
-      <c r="S92" s="33"/>
-      <c r="T92" s="33"/>
-      <c r="U92" s="33"/>
-      <c r="V92" s="34"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="34"/>
-      <c r="Y92" s="35"/>
+      <c r="K92" s="42"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
+      <c r="S92" s="44"/>
+      <c r="T92" s="44"/>
+      <c r="U92" s="44"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="42"/>
+      <c r="X92" s="40"/>
+      <c r="Y92" s="42"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O93" s="33" t="s">
+      <c r="O93" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="P93" s="33"/>
-      <c r="Q93" s="33"/>
-      <c r="R93" s="33"/>
-      <c r="S93" s="33"/>
-      <c r="T93" s="33"/>
-      <c r="U93" s="33"/>
-      <c r="V93" s="34">
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="44"/>
+      <c r="S93" s="44"/>
+      <c r="T93" s="44"/>
+      <c r="U93" s="44"/>
+      <c r="V93" s="40">
         <v>1</v>
       </c>
-      <c r="W93" s="35"/>
-      <c r="X93" s="34">
+      <c r="W93" s="42"/>
+      <c r="X93" s="40">
         <v>1</v>
       </c>
-      <c r="Y93" s="35"/>
+      <c r="Y93" s="42"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E94" s="37" t="s">
+      <c r="E94" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F94" s="38"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="32">
+      <c r="F94" s="35"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="47">
         <f>SUM(H77:I92)</f>
         <v>37.75</v>
       </c>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32">
+      <c r="I94" s="47"/>
+      <c r="J94" s="47">
         <f>SUM(J77:K92)</f>
         <v>37</v>
       </c>
-      <c r="K94" s="32"/>
-      <c r="O94" s="40" t="s">
+      <c r="K94" s="47"/>
+      <c r="O94" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="P94" s="33"/>
-      <c r="Q94" s="33"/>
-      <c r="R94" s="33"/>
-      <c r="S94" s="33"/>
-      <c r="T94" s="33"/>
-      <c r="U94" s="33"/>
-      <c r="V94" s="34">
+      <c r="P94" s="44"/>
+      <c r="Q94" s="44"/>
+      <c r="R94" s="44"/>
+      <c r="S94" s="44"/>
+      <c r="T94" s="44"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="40">
         <v>3</v>
       </c>
-      <c r="W94" s="35"/>
-      <c r="X94" s="34"/>
-      <c r="Y94" s="35"/>
+      <c r="W94" s="42"/>
+      <c r="X94" s="40"/>
+      <c r="Y94" s="42"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E96" s="32" t="s">
+      <c r="E96" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32">
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47">
         <f>SUM(H94,J94)</f>
         <v>74.75</v>
       </c>
-      <c r="I96" s="32"/>
-      <c r="S96" s="37" t="s">
+      <c r="I96" s="47"/>
+      <c r="S96" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="T96" s="38"/>
-      <c r="U96" s="39"/>
-      <c r="V96" s="32">
+      <c r="T96" s="35"/>
+      <c r="U96" s="49"/>
+      <c r="V96" s="47">
         <f>SUM(V77:W94)</f>
         <v>33</v>
       </c>
-      <c r="W96" s="32"/>
-      <c r="X96" s="32">
+      <c r="W96" s="47"/>
+      <c r="X96" s="47">
         <f>SUM(X77:Y94)</f>
         <v>38</v>
       </c>
-      <c r="Y96" s="32"/>
+      <c r="Y96" s="47"/>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S100" s="32" t="s">
+      <c r="S100" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="T100" s="32"/>
-      <c r="U100" s="32"/>
-      <c r="V100" s="32">
+      <c r="T100" s="47"/>
+      <c r="U100" s="47"/>
+      <c r="V100" s="47">
         <f>SUM(V96,X96)</f>
         <v>71</v>
       </c>
-      <c r="W100" s="32"/>
+      <c r="W100" s="47"/>
     </row>
     <row r="101" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="O101" s="22" t="s">
@@ -4615,20 +4615,20 @@
       <c r="A106" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="44">
+      <c r="B106" s="48">
         <v>43047</v>
       </c>
-      <c r="C106" s="43"/>
+      <c r="C106" s="45"/>
       <c r="D106" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="44">
+      <c r="E106" s="48">
         <v>43061</v>
       </c>
-      <c r="F106" s="43"/>
+      <c r="F106" s="45"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
     </row>
@@ -4652,23 +4652,23 @@
       <c r="Y108" s="27"/>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A109" s="41" t="s">
+      <c r="A109" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41" t="s">
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41" t="s">
+      <c r="I109" s="43"/>
+      <c r="J109" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K109" s="41"/>
+      <c r="K109" s="43"/>
       <c r="O109" s="31" t="s">
         <v>87</v>
       </c>
@@ -4688,21 +4688,21 @@
       <c r="Y109" s="26"/>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A110" s="40" t="s">
+      <c r="A110" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="34">
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="40">
         <v>4</v>
       </c>
-      <c r="I110" s="35"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="35"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="42"/>
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
       <c r="Q110" s="28"/>
@@ -4716,23 +4716,23 @@
       <c r="Y110" s="26"/>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A111" s="40" t="s">
+      <c r="A111" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="34">
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="40">
         <v>2</v>
       </c>
-      <c r="I111" s="35"/>
-      <c r="J111" s="34">
+      <c r="I111" s="42"/>
+      <c r="J111" s="40">
         <v>6</v>
       </c>
-      <c r="K111" s="35"/>
+      <c r="K111" s="42"/>
       <c r="O111" s="31" t="s">
         <v>89</v>
       </c>
@@ -4752,17 +4752,17 @@
       <c r="Y111" s="26"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="35"/>
+      <c r="A112" s="50"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="42"/>
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
       <c r="Q112" s="28"/>
@@ -4776,19 +4776,19 @@
       <c r="Y112" s="26"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="40" t="s">
+      <c r="A113" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="35"/>
-      <c r="J113" s="34"/>
-      <c r="K113" s="35"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="42"/>
       <c r="O113" s="31" t="s">
         <v>88</v>
       </c>
@@ -4808,21 +4808,21 @@
       <c r="Y113" s="26"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A114" s="40" t="s">
+      <c r="A114" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="34">
+      <c r="B114" s="44"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="40">
         <v>3</v>
       </c>
-      <c r="I114" s="35"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="35"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="40"/>
+      <c r="K114" s="42"/>
       <c r="O114" s="31" t="s">
         <v>90</v>
       </c>
@@ -4842,23 +4842,23 @@
       <c r="Y114" s="26"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="34">
+      <c r="B115" s="44"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="40">
         <v>8</v>
       </c>
-      <c r="I115" s="35"/>
-      <c r="J115" s="34">
+      <c r="I115" s="42"/>
+      <c r="J115" s="40">
         <v>7</v>
       </c>
-      <c r="K115" s="35"/>
+      <c r="K115" s="42"/>
       <c r="O115" s="31" t="s">
         <v>91</v>
       </c>
@@ -4878,23 +4878,23 @@
       <c r="Y115" s="26"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="40" t="s">
+      <c r="A116" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="34">
+      <c r="B116" s="44"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="40">
         <v>4</v>
       </c>
-      <c r="I116" s="35"/>
-      <c r="J116" s="34">
+      <c r="I116" s="42"/>
+      <c r="J116" s="40">
         <v>4</v>
       </c>
-      <c r="K116" s="35"/>
+      <c r="K116" s="42"/>
       <c r="O116" s="31" t="s">
         <v>92</v>
       </c>
@@ -4914,23 +4914,23 @@
       <c r="Y116" s="26"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="40" t="s">
+      <c r="A117" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="34">
+      <c r="B117" s="44"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="40">
         <v>4</v>
       </c>
-      <c r="I117" s="35"/>
-      <c r="J117" s="34">
+      <c r="I117" s="42"/>
+      <c r="J117" s="40">
         <v>5</v>
       </c>
-      <c r="K117" s="35"/>
+      <c r="K117" s="42"/>
       <c r="O117" s="31"/>
       <c r="P117" s="28"/>
       <c r="Q117" s="28"/>
@@ -4944,23 +4944,23 @@
       <c r="Y117" s="26"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="34">
+      <c r="B118" s="44"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="40">
         <v>2</v>
       </c>
-      <c r="I118" s="35"/>
-      <c r="J118" s="34">
+      <c r="I118" s="42"/>
+      <c r="J118" s="40">
         <v>4</v>
       </c>
-      <c r="K118" s="35"/>
+      <c r="K118" s="42"/>
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
       <c r="Q118" s="28"/>
@@ -4974,17 +4974,17 @@
       <c r="Y118" s="26"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="35"/>
+      <c r="A119" s="44"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="40"/>
+      <c r="K119" s="42"/>
       <c r="O119" s="31" t="s">
         <v>98</v>
       </c>
@@ -5004,19 +5004,19 @@
       <c r="Y119" s="26"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" s="40" t="s">
+      <c r="A120" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="35"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="35"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="42"/>
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
       <c r="Q120" s="28"/>
@@ -5030,21 +5030,21 @@
       <c r="Y120" s="26"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A121" s="40" t="s">
+      <c r="A121" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="34">
+      <c r="B121" s="44"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="40">
         <v>1</v>
       </c>
-      <c r="I121" s="35"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="35"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="42"/>
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
       <c r="Q121" s="28"/>
@@ -5058,23 +5058,23 @@
       <c r="Y121" s="26"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A122" s="40" t="s">
+      <c r="A122" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="34">
+      <c r="B122" s="44"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="40">
         <v>5</v>
       </c>
-      <c r="I122" s="35"/>
-      <c r="J122" s="34">
+      <c r="I122" s="42"/>
+      <c r="J122" s="40">
         <v>5</v>
       </c>
-      <c r="K122" s="35"/>
+      <c r="K122" s="42"/>
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
       <c r="Q122" s="28"/>
@@ -5088,23 +5088,23 @@
       <c r="Y122" s="26"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A123" s="40" t="s">
+      <c r="A123" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="34">
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="40">
         <v>2</v>
       </c>
-      <c r="I123" s="35"/>
-      <c r="J123" s="34">
+      <c r="I123" s="42"/>
+      <c r="J123" s="40">
         <v>2</v>
       </c>
-      <c r="K123" s="35"/>
+      <c r="K123" s="42"/>
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
       <c r="Q123" s="28"/>
@@ -5118,17 +5118,17 @@
       <c r="Y123" s="26"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124" s="33"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="35"/>
+      <c r="A124" s="44"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="44"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="42"/>
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
       <c r="Q124" s="28"/>
@@ -5142,17 +5142,17 @@
       <c r="Y124" s="26"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A125" s="33"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="34"/>
-      <c r="I125" s="35"/>
-      <c r="J125" s="34"/>
-      <c r="K125" s="35"/>
+      <c r="A125" s="44"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="44"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="42"/>
       <c r="O125" s="28" t="s">
         <v>35</v>
       </c>
@@ -5172,23 +5172,23 @@
       <c r="Y125" s="26"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="34">
+      <c r="B126" s="44"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="44"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="40">
         <v>1</v>
       </c>
-      <c r="I126" s="35"/>
-      <c r="J126" s="34">
+      <c r="I126" s="42"/>
+      <c r="J126" s="40">
         <v>1</v>
       </c>
-      <c r="K126" s="35"/>
+      <c r="K126" s="42"/>
       <c r="O126" s="28" t="s">
         <v>18</v>
       </c>
@@ -5208,81 +5208,81 @@
       <c r="Y126" s="26"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A127" s="40" t="s">
+      <c r="A127" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="34">
+      <c r="B127" s="44"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="44"/>
+      <c r="E127" s="44"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="40">
         <v>3</v>
       </c>
-      <c r="I127" s="35"/>
-      <c r="J127" s="34">
+      <c r="I127" s="42"/>
+      <c r="J127" s="40">
         <v>3</v>
       </c>
-      <c r="K127" s="35"/>
+      <c r="K127" s="42"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S128" s="37" t="s">
+      <c r="S128" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="T128" s="38"/>
-      <c r="U128" s="39"/>
-      <c r="V128" s="32">
+      <c r="T128" s="35"/>
+      <c r="U128" s="49"/>
+      <c r="V128" s="47">
         <f>SUM(V109:W126)</f>
         <v>34.5</v>
       </c>
-      <c r="W128" s="32"/>
-      <c r="X128" s="32">
+      <c r="W128" s="47"/>
+      <c r="X128" s="47">
         <f>SUM(X109:Y126)</f>
         <v>32.5</v>
       </c>
-      <c r="Y128" s="32"/>
+      <c r="Y128" s="47"/>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E129" s="37" t="s">
+      <c r="E129" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F129" s="38"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="32">
+      <c r="F129" s="35"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="47">
         <f>SUM(H110:I127)</f>
         <v>39</v>
       </c>
-      <c r="I129" s="32"/>
-      <c r="J129" s="32">
+      <c r="I129" s="47"/>
+      <c r="J129" s="47">
         <f>SUM(J110:K127)</f>
         <v>37</v>
       </c>
-      <c r="K129" s="32"/>
+      <c r="K129" s="47"/>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S130" s="32" t="s">
+      <c r="S130" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="T130" s="32"/>
-      <c r="U130" s="32"/>
-      <c r="V130" s="32">
+      <c r="T130" s="47"/>
+      <c r="U130" s="47"/>
+      <c r="V130" s="47">
         <f>SUM(V128,X128)</f>
         <v>67</v>
       </c>
-      <c r="W130" s="32"/>
+      <c r="W130" s="47"/>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E131" s="32" t="s">
+      <c r="E131" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32">
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47">
         <f>SUM(H129,J129)</f>
         <v>76</v>
       </c>
-      <c r="I131" s="32"/>
+      <c r="I131" s="47"/>
     </row>
     <row r="135" spans="1:28" ht="21" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
@@ -5382,20 +5382,20 @@
       <c r="A139" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="44">
+      <c r="B139" s="48">
         <v>43075</v>
       </c>
-      <c r="C139" s="43"/>
+      <c r="C139" s="45"/>
       <c r="D139" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E139" s="44">
+      <c r="E139" s="48">
         <v>43089</v>
       </c>
-      <c r="F139" s="43"/>
+      <c r="F139" s="45"/>
       <c r="G139" s="7"/>
-      <c r="H139" s="43"/>
-      <c r="I139" s="43"/>
+      <c r="H139" s="45"/>
+      <c r="I139" s="45"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="O139" s="6" t="s">
@@ -5419,23 +5419,23 @@
       <c r="Y139" s="8"/>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A142" s="41" t="s">
+      <c r="A142" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B142" s="41"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="41"/>
-      <c r="E142" s="41"/>
-      <c r="F142" s="41"/>
-      <c r="G142" s="41"/>
-      <c r="H142" s="41" t="s">
+      <c r="B142" s="43"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I142" s="41"/>
-      <c r="J142" s="41" t="s">
+      <c r="I142" s="43"/>
+      <c r="J142" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K142" s="41"/>
+      <c r="K142" s="43"/>
       <c r="O142" s="19" t="s">
         <v>5</v>
       </c>
@@ -5455,80 +5455,80 @@
       <c r="Y142" s="21"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A143" s="33" t="s">
+      <c r="A143" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B143" s="33"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="34"/>
-      <c r="I143" s="35"/>
-      <c r="J143" s="34"/>
-      <c r="K143" s="35"/>
-      <c r="O143" s="48" t="s">
+      <c r="B143" s="44"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="44"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="40"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="42"/>
+      <c r="O143" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P143" s="36"/>
-      <c r="Q143" s="36"/>
-      <c r="R143" s="36"/>
-      <c r="S143" s="36"/>
-      <c r="T143" s="36"/>
-      <c r="U143" s="35"/>
+      <c r="P143" s="41"/>
+      <c r="Q143" s="41"/>
+      <c r="R143" s="41"/>
+      <c r="S143" s="41"/>
+      <c r="T143" s="41"/>
+      <c r="U143" s="42"/>
       <c r="V143" s="10"/>
       <c r="W143" s="11"/>
       <c r="X143" s="10"/>
       <c r="Y143" s="11"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A144" s="33"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="34"/>
-      <c r="I144" s="35"/>
-      <c r="J144" s="34"/>
-      <c r="K144" s="35"/>
-      <c r="O144" s="48" t="s">
+      <c r="A144" s="44"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="44"/>
+      <c r="E144" s="44"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="42"/>
+      <c r="O144" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="P144" s="36"/>
-      <c r="Q144" s="36"/>
-      <c r="R144" s="36"/>
-      <c r="S144" s="36"/>
-      <c r="T144" s="36"/>
-      <c r="U144" s="35"/>
+      <c r="P144" s="41"/>
+      <c r="Q144" s="41"/>
+      <c r="R144" s="41"/>
+      <c r="S144" s="41"/>
+      <c r="T144" s="41"/>
+      <c r="U144" s="42"/>
       <c r="V144" s="10"/>
       <c r="W144" s="11"/>
       <c r="X144" s="10"/>
       <c r="Y144" s="11"/>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A145" s="33"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="33"/>
-      <c r="H145" s="34"/>
-      <c r="I145" s="35"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="35"/>
-      <c r="O145" s="48" t="s">
+      <c r="A145" s="44"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="44"/>
+      <c r="E145" s="44"/>
+      <c r="F145" s="44"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="40"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="40"/>
+      <c r="K145" s="42"/>
+      <c r="O145" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="P145" s="36"/>
-      <c r="Q145" s="36"/>
-      <c r="R145" s="36"/>
-      <c r="S145" s="36"/>
-      <c r="T145" s="36"/>
-      <c r="U145" s="35"/>
+      <c r="P145" s="41"/>
+      <c r="Q145" s="41"/>
+      <c r="R145" s="41"/>
+      <c r="S145" s="41"/>
+      <c r="T145" s="41"/>
+      <c r="U145" s="42"/>
       <c r="V145" s="10"/>
       <c r="W145" s="11"/>
       <c r="X145" s="10">
@@ -5537,30 +5537,30 @@
       <c r="Y145" s="11"/>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A146" s="33" t="s">
+      <c r="A146" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B146" s="33"/>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="34">
+      <c r="B146" s="44"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="40">
         <v>1</v>
       </c>
-      <c r="I146" s="35"/>
-      <c r="J146" s="34"/>
-      <c r="K146" s="35"/>
-      <c r="O146" s="48" t="s">
+      <c r="I146" s="42"/>
+      <c r="J146" s="40"/>
+      <c r="K146" s="42"/>
+      <c r="O146" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="P146" s="36"/>
-      <c r="Q146" s="36"/>
-      <c r="R146" s="36"/>
-      <c r="S146" s="36"/>
-      <c r="T146" s="36"/>
-      <c r="U146" s="35"/>
+      <c r="P146" s="41"/>
+      <c r="Q146" s="41"/>
+      <c r="R146" s="41"/>
+      <c r="S146" s="41"/>
+      <c r="T146" s="41"/>
+      <c r="U146" s="42"/>
       <c r="V146" s="10">
         <v>3</v>
       </c>
@@ -5571,32 +5571,32 @@
       <c r="Y146" s="11"/>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A147" s="40" t="s">
+      <c r="A147" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B147" s="33"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="34">
+      <c r="B147" s="44"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="40">
         <v>1</v>
       </c>
-      <c r="I147" s="35"/>
-      <c r="J147" s="34">
+      <c r="I147" s="42"/>
+      <c r="J147" s="40">
         <v>2</v>
       </c>
-      <c r="K147" s="35"/>
-      <c r="O147" s="48" t="s">
+      <c r="K147" s="42"/>
+      <c r="O147" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="P147" s="36"/>
-      <c r="Q147" s="36"/>
-      <c r="R147" s="36"/>
-      <c r="S147" s="36"/>
-      <c r="T147" s="36"/>
-      <c r="U147" s="35"/>
+      <c r="P147" s="41"/>
+      <c r="Q147" s="41"/>
+      <c r="R147" s="41"/>
+      <c r="S147" s="41"/>
+      <c r="T147" s="41"/>
+      <c r="U147" s="42"/>
       <c r="V147" s="10">
         <v>4</v>
       </c>
@@ -5607,30 +5607,30 @@
       <c r="Y147" s="11"/>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A148" s="40" t="s">
+      <c r="A148" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B148" s="33"/>
-      <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="34">
+      <c r="B148" s="44"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="40">
         <v>5</v>
       </c>
-      <c r="K148" s="35"/>
-      <c r="O148" s="48" t="s">
+      <c r="K148" s="42"/>
+      <c r="O148" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="P148" s="36"/>
-      <c r="Q148" s="36"/>
-      <c r="R148" s="36"/>
-      <c r="S148" s="36"/>
-      <c r="T148" s="36"/>
-      <c r="U148" s="35"/>
+      <c r="P148" s="41"/>
+      <c r="Q148" s="41"/>
+      <c r="R148" s="41"/>
+      <c r="S148" s="41"/>
+      <c r="T148" s="41"/>
+      <c r="U148" s="42"/>
       <c r="V148" s="10">
         <v>1</v>
       </c>
@@ -5641,32 +5641,32 @@
       <c r="Y148" s="11"/>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A149" s="40" t="s">
+      <c r="A149" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="34">
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="40">
         <v>1</v>
       </c>
-      <c r="I149" s="35"/>
-      <c r="J149" s="34">
+      <c r="I149" s="42"/>
+      <c r="J149" s="40">
         <v>5</v>
       </c>
-      <c r="K149" s="35"/>
-      <c r="O149" s="48" t="s">
+      <c r="K149" s="42"/>
+      <c r="O149" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="P149" s="36"/>
-      <c r="Q149" s="36"/>
-      <c r="R149" s="36"/>
-      <c r="S149" s="36"/>
-      <c r="T149" s="36"/>
-      <c r="U149" s="35"/>
+      <c r="P149" s="41"/>
+      <c r="Q149" s="41"/>
+      <c r="R149" s="41"/>
+      <c r="S149" s="41"/>
+      <c r="T149" s="41"/>
+      <c r="U149" s="42"/>
       <c r="V149" s="10">
         <v>5</v>
       </c>
@@ -5677,269 +5677,269 @@
       <c r="Y149" s="11"/>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A150" s="33"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="33"/>
-      <c r="H150" s="34"/>
-      <c r="I150" s="35"/>
-      <c r="J150" s="34"/>
-      <c r="K150" s="35"/>
-      <c r="O150" s="34"/>
-      <c r="P150" s="36"/>
-      <c r="Q150" s="36"/>
-      <c r="R150" s="36"/>
-      <c r="S150" s="36"/>
-      <c r="T150" s="36"/>
-      <c r="U150" s="35"/>
+      <c r="A150" s="44"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="40"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="40"/>
+      <c r="K150" s="42"/>
+      <c r="O150" s="40"/>
+      <c r="P150" s="41"/>
+      <c r="Q150" s="41"/>
+      <c r="R150" s="41"/>
+      <c r="S150" s="41"/>
+      <c r="T150" s="41"/>
+      <c r="U150" s="42"/>
       <c r="V150" s="10"/>
       <c r="W150" s="11"/>
       <c r="X150" s="10"/>
       <c r="Y150" s="11"/>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A151" s="40" t="s">
+      <c r="A151" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B151" s="33"/>
-      <c r="C151" s="33"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="34">
+      <c r="B151" s="44"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="44"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="40">
         <v>1</v>
       </c>
-      <c r="I151" s="35"/>
-      <c r="J151" s="34">
+      <c r="I151" s="42"/>
+      <c r="J151" s="40">
         <v>2</v>
       </c>
-      <c r="K151" s="35"/>
-      <c r="O151" s="34"/>
-      <c r="P151" s="36"/>
-      <c r="Q151" s="36"/>
-      <c r="R151" s="36"/>
-      <c r="S151" s="36"/>
-      <c r="T151" s="36"/>
-      <c r="U151" s="35"/>
+      <c r="K151" s="42"/>
+      <c r="O151" s="40"/>
+      <c r="P151" s="41"/>
+      <c r="Q151" s="41"/>
+      <c r="R151" s="41"/>
+      <c r="S151" s="41"/>
+      <c r="T151" s="41"/>
+      <c r="U151" s="42"/>
       <c r="V151" s="10"/>
       <c r="W151" s="11"/>
       <c r="X151" s="10"/>
       <c r="Y151" s="11"/>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A152" s="33"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="35"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="35"/>
-      <c r="O152" s="34"/>
-      <c r="P152" s="36"/>
-      <c r="Q152" s="36"/>
-      <c r="R152" s="36"/>
-      <c r="S152" s="36"/>
-      <c r="T152" s="36"/>
-      <c r="U152" s="35"/>
+      <c r="A152" s="44"/>
+      <c r="B152" s="44"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="44"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="40"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="40"/>
+      <c r="K152" s="42"/>
+      <c r="O152" s="40"/>
+      <c r="P152" s="41"/>
+      <c r="Q152" s="41"/>
+      <c r="R152" s="41"/>
+      <c r="S152" s="41"/>
+      <c r="T152" s="41"/>
+      <c r="U152" s="42"/>
       <c r="V152" s="10"/>
       <c r="W152" s="11"/>
       <c r="X152" s="10"/>
       <c r="Y152" s="11"/>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A153" s="33"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="34"/>
-      <c r="I153" s="35"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="35"/>
-      <c r="O153" s="34"/>
-      <c r="P153" s="36"/>
-      <c r="Q153" s="36"/>
-      <c r="R153" s="36"/>
-      <c r="S153" s="36"/>
-      <c r="T153" s="36"/>
-      <c r="U153" s="35"/>
+      <c r="A153" s="44"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="44"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="42"/>
+      <c r="O153" s="40"/>
+      <c r="P153" s="41"/>
+      <c r="Q153" s="41"/>
+      <c r="R153" s="41"/>
+      <c r="S153" s="41"/>
+      <c r="T153" s="41"/>
+      <c r="U153" s="42"/>
       <c r="V153" s="10"/>
       <c r="W153" s="11"/>
       <c r="X153" s="10"/>
       <c r="Y153" s="11"/>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A154" s="40" t="s">
+      <c r="A154" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B154" s="33"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="34"/>
-      <c r="I154" s="35"/>
-      <c r="J154" s="34">
+      <c r="B154" s="44"/>
+      <c r="C154" s="44"/>
+      <c r="D154" s="44"/>
+      <c r="E154" s="44"/>
+      <c r="F154" s="44"/>
+      <c r="G154" s="44"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="42"/>
+      <c r="J154" s="40">
         <v>2</v>
       </c>
-      <c r="K154" s="35"/>
-      <c r="O154" s="34"/>
-      <c r="P154" s="36"/>
-      <c r="Q154" s="36"/>
-      <c r="R154" s="36"/>
-      <c r="S154" s="36"/>
-      <c r="T154" s="36"/>
-      <c r="U154" s="35"/>
+      <c r="K154" s="42"/>
+      <c r="O154" s="40"/>
+      <c r="P154" s="41"/>
+      <c r="Q154" s="41"/>
+      <c r="R154" s="41"/>
+      <c r="S154" s="41"/>
+      <c r="T154" s="41"/>
+      <c r="U154" s="42"/>
       <c r="V154" s="10"/>
       <c r="W154" s="11"/>
       <c r="X154" s="10"/>
       <c r="Y154" s="11"/>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A155" s="40" t="s">
+      <c r="A155" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B155" s="33"/>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="34">
+      <c r="B155" s="44"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="44"/>
+      <c r="E155" s="44"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="40">
         <v>0.5</v>
       </c>
-      <c r="I155" s="35"/>
-      <c r="J155" s="34"/>
-      <c r="K155" s="35"/>
-      <c r="O155" s="34"/>
-      <c r="P155" s="36"/>
-      <c r="Q155" s="36"/>
-      <c r="R155" s="36"/>
-      <c r="S155" s="36"/>
-      <c r="T155" s="36"/>
-      <c r="U155" s="35"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="42"/>
+      <c r="O155" s="40"/>
+      <c r="P155" s="41"/>
+      <c r="Q155" s="41"/>
+      <c r="R155" s="41"/>
+      <c r="S155" s="41"/>
+      <c r="T155" s="41"/>
+      <c r="U155" s="42"/>
       <c r="V155" s="10"/>
       <c r="W155" s="11"/>
       <c r="X155" s="10"/>
       <c r="Y155" s="11"/>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A156" s="40" t="s">
+      <c r="A156" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B156" s="33"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="34">
+      <c r="B156" s="44"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="44"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="40">
         <v>14</v>
       </c>
-      <c r="I156" s="35"/>
-      <c r="J156" s="34">
+      <c r="I156" s="42"/>
+      <c r="J156" s="40">
         <v>5</v>
       </c>
-      <c r="K156" s="35"/>
-      <c r="O156" s="34"/>
-      <c r="P156" s="36"/>
-      <c r="Q156" s="36"/>
-      <c r="R156" s="36"/>
-      <c r="S156" s="36"/>
-      <c r="T156" s="36"/>
-      <c r="U156" s="35"/>
+      <c r="K156" s="42"/>
+      <c r="O156" s="40"/>
+      <c r="P156" s="41"/>
+      <c r="Q156" s="41"/>
+      <c r="R156" s="41"/>
+      <c r="S156" s="41"/>
+      <c r="T156" s="41"/>
+      <c r="U156" s="42"/>
       <c r="V156" s="10"/>
       <c r="W156" s="11"/>
       <c r="X156" s="10"/>
       <c r="Y156" s="11"/>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A157" s="48" t="s">
+      <c r="A157" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B157" s="36"/>
-      <c r="C157" s="36"/>
-      <c r="D157" s="36"/>
-      <c r="E157" s="36"/>
-      <c r="F157" s="36"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="34">
+      <c r="B157" s="41"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
+      <c r="F157" s="41"/>
+      <c r="G157" s="42"/>
+      <c r="H157" s="40">
         <v>3</v>
       </c>
-      <c r="I157" s="35"/>
-      <c r="J157" s="34"/>
-      <c r="K157" s="35"/>
-      <c r="O157" s="34"/>
-      <c r="P157" s="36"/>
-      <c r="Q157" s="36"/>
-      <c r="R157" s="36"/>
-      <c r="S157" s="36"/>
-      <c r="T157" s="36"/>
-      <c r="U157" s="35"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="40"/>
+      <c r="K157" s="42"/>
+      <c r="O157" s="40"/>
+      <c r="P157" s="41"/>
+      <c r="Q157" s="41"/>
+      <c r="R157" s="41"/>
+      <c r="S157" s="41"/>
+      <c r="T157" s="41"/>
+      <c r="U157" s="42"/>
       <c r="V157" s="10"/>
       <c r="W157" s="11"/>
       <c r="X157" s="10"/>
       <c r="Y157" s="11"/>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A158" s="48" t="s">
+      <c r="A158" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B158" s="36"/>
-      <c r="C158" s="36"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="34">
+      <c r="B158" s="41"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="41"/>
+      <c r="F158" s="41"/>
+      <c r="G158" s="42"/>
+      <c r="H158" s="40">
         <v>2</v>
       </c>
-      <c r="I158" s="35"/>
-      <c r="J158" s="34">
+      <c r="I158" s="42"/>
+      <c r="J158" s="40">
         <v>2</v>
       </c>
-      <c r="K158" s="35"/>
-      <c r="O158" s="34"/>
-      <c r="P158" s="36"/>
-      <c r="Q158" s="36"/>
-      <c r="R158" s="36"/>
-      <c r="S158" s="36"/>
-      <c r="T158" s="36"/>
-      <c r="U158" s="35"/>
+      <c r="K158" s="42"/>
+      <c r="O158" s="40"/>
+      <c r="P158" s="41"/>
+      <c r="Q158" s="41"/>
+      <c r="R158" s="41"/>
+      <c r="S158" s="41"/>
+      <c r="T158" s="41"/>
+      <c r="U158" s="42"/>
       <c r="V158" s="10"/>
       <c r="W158" s="11"/>
       <c r="X158" s="10"/>
       <c r="Y158" s="11"/>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A159" s="33" t="s">
+      <c r="A159" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="34">
+      <c r="B159" s="44"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="44"/>
+      <c r="E159" s="44"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="40">
         <v>1</v>
       </c>
-      <c r="I159" s="35"/>
-      <c r="J159" s="34">
+      <c r="I159" s="42"/>
+      <c r="J159" s="40">
         <v>1</v>
       </c>
-      <c r="K159" s="35"/>
+      <c r="K159" s="42"/>
       <c r="O159" s="10" t="s">
         <v>35</v>
       </c>
@@ -5959,23 +5959,23 @@
       <c r="Y159" s="11"/>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A160" s="33" t="s">
+      <c r="A160" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B160" s="33"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="34">
+      <c r="B160" s="44"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="44"/>
+      <c r="E160" s="44"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="40">
         <v>0.25</v>
       </c>
-      <c r="I160" s="35"/>
-      <c r="J160" s="34">
+      <c r="I160" s="42"/>
+      <c r="J160" s="40">
         <v>0.25</v>
       </c>
-      <c r="K160" s="35"/>
+      <c r="K160" s="42"/>
       <c r="O160" s="10"/>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -5989,21 +5989,21 @@
       <c r="Y160" s="11"/>
     </row>
     <row r="162" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E162" s="37" t="s">
+      <c r="E162" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F162" s="38"/>
-      <c r="G162" s="39"/>
-      <c r="H162" s="32">
+      <c r="F162" s="35"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="47">
         <f>SUM(H143:I160)</f>
         <v>24.75</v>
       </c>
-      <c r="I162" s="32"/>
-      <c r="J162" s="32">
+      <c r="I162" s="47"/>
+      <c r="J162" s="47">
         <f>SUM(J143:K160)</f>
         <v>24.25</v>
       </c>
-      <c r="K162" s="32"/>
+      <c r="K162" s="47"/>
       <c r="S162" s="13" t="s">
         <v>6</v>
       </c>
@@ -6021,65 +6021,424 @@
       <c r="Y162" s="15"/>
     </row>
     <row r="164" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E164" s="32" t="s">
+      <c r="E164" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="32">
+      <c r="F164" s="47"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="47">
         <f>SUM(H162,J162)</f>
         <v>49</v>
       </c>
-      <c r="I164" s="32"/>
-      <c r="S164" s="32" t="s">
+      <c r="I164" s="47"/>
+      <c r="S164" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="T164" s="32"/>
-      <c r="U164" s="32"/>
-      <c r="V164" s="32">
+      <c r="T164" s="47"/>
+      <c r="U164" s="47"/>
+      <c r="V164" s="47">
         <f>SUM(V162,X162)</f>
         <v>32</v>
       </c>
-      <c r="W164" s="32"/>
+      <c r="W164" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="455">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A36:N37"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="O47:U47"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="O46:U46"/>
+    <mergeCell ref="V128:W128"/>
+    <mergeCell ref="X128:Y128"/>
+    <mergeCell ref="V130:W130"/>
+    <mergeCell ref="S164:U164"/>
+    <mergeCell ref="V164:W164"/>
+    <mergeCell ref="O158:U158"/>
+    <mergeCell ref="O155:U155"/>
+    <mergeCell ref="O156:U156"/>
+    <mergeCell ref="O157:U157"/>
+    <mergeCell ref="O152:U152"/>
+    <mergeCell ref="O153:U153"/>
+    <mergeCell ref="O154:U154"/>
+    <mergeCell ref="S96:U96"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="X96:Y96"/>
+    <mergeCell ref="S100:U100"/>
+    <mergeCell ref="V100:W100"/>
+    <mergeCell ref="O149:U149"/>
+    <mergeCell ref="O150:U150"/>
+    <mergeCell ref="O151:U151"/>
+    <mergeCell ref="O146:U146"/>
+    <mergeCell ref="O147:U147"/>
+    <mergeCell ref="O148:U148"/>
+    <mergeCell ref="O144:U144"/>
+    <mergeCell ref="O145:U145"/>
+    <mergeCell ref="S128:U128"/>
+    <mergeCell ref="S130:U130"/>
+    <mergeCell ref="O143:U143"/>
+    <mergeCell ref="O92:U92"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="O93:U93"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="O94:U94"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="O89:U89"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="O90:U90"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="O91:U91"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="O86:U86"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="O87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="O88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="O83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="O84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="O85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="O80:U80"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="O81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="O82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="O77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="O78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="O79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="O69:AB70"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="O76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="O60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="O61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="O57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="O54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="O55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="O56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="O52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="O53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="O48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="O49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="O45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="O36:AB37"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="O44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="E164:G164"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="A158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="A159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="A160:G160"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="A156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="E131:G131"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="A127:G127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="A120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A69:N70"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="D11:F11"/>
@@ -6104,401 +6463,42 @@
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A51:G51"/>
     <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A69:N70"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="A109:G109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="A111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="A120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="E131:G131"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="A126:G126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="A127:G127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="A145:G145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="A147:G147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="A149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="A150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="A151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="A157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="A152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="A153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="A154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="A156:G156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="E162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="E164:G164"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="A158:G158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="A159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="A160:G160"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="O45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="O36:AB37"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="O44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="O48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="O49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="O52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="O53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="O54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="O55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="O56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="O57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="O60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="O61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="O69:AB70"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="O76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="O77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="O78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="O79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="O80:U80"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="O81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="O82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="O83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="O84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="O85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="O86:U86"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="O87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="O88:U88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="O89:U89"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="O90:U90"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="O91:U91"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="O92:U92"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="O93:U93"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="O94:U94"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="S96:U96"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="X96:Y96"/>
-    <mergeCell ref="S100:U100"/>
-    <mergeCell ref="V100:W100"/>
-    <mergeCell ref="O149:U149"/>
-    <mergeCell ref="O150:U150"/>
-    <mergeCell ref="O151:U151"/>
-    <mergeCell ref="O146:U146"/>
-    <mergeCell ref="O147:U147"/>
-    <mergeCell ref="O148:U148"/>
-    <mergeCell ref="O144:U144"/>
-    <mergeCell ref="O145:U145"/>
-    <mergeCell ref="S128:U128"/>
-    <mergeCell ref="S130:U130"/>
-    <mergeCell ref="O143:U143"/>
-    <mergeCell ref="S164:U164"/>
-    <mergeCell ref="V164:W164"/>
-    <mergeCell ref="O158:U158"/>
-    <mergeCell ref="O155:U155"/>
-    <mergeCell ref="O156:U156"/>
-    <mergeCell ref="O157:U157"/>
-    <mergeCell ref="O152:U152"/>
-    <mergeCell ref="O153:U153"/>
-    <mergeCell ref="O154:U154"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="O47:U47"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="O46:U46"/>
-    <mergeCell ref="V128:W128"/>
-    <mergeCell ref="X128:Y128"/>
-    <mergeCell ref="V130:W130"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A36:N37"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
